--- a/PTBR/Lang/PTBR/Game/Chara.xlsx
+++ b/PTBR/Lang/PTBR/Game/Chara.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A5BD3A-D3C8-4B3A-BA02-E993AB45636D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE37B28-AF46-461B-B4C5-30E175EAEC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="645" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="2295" windowWidth="21450" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="2015">
   <si>
     <t>id</t>
   </si>
@@ -5924,6 +5924,150 @@
   </si>
   <si>
     <t xml:space="preserve">Raina  </t>
+  </si>
+  <si>
+    <t>EA 23.153</t>
+  </si>
+  <si>
+    <t>leafy sea #ele5 dragon</t>
+  </si>
+  <si>
+    <t>リーフィーシー#ele5ドラゴン</t>
+  </si>
+  <si>
+    <t>dragon_sea</t>
+  </si>
+  <si>
+    <t>#ele5 serpent</t>
+  </si>
+  <si>
+    <t>#ele5サーペント</t>
+  </si>
+  <si>
+    <t>adv_yukiimo</t>
+  </si>
+  <si>
+    <t>EA 23.155</t>
+  </si>
+  <si>
+    <t>妹雪豹</t>
+  </si>
+  <si>
+    <t>Younger snow leopard sister</t>
+  </si>
+  <si>
+    <t>undine</t>
+  </si>
+  <si>
+    <t>EA 23.166</t>
+  </si>
+  <si>
+    <t>ウンディーネ</t>
+  </si>
+  <si>
+    <t>jellyfish_deep</t>
+  </si>
+  <si>
+    <t>EA 23.167</t>
+  </si>
+  <si>
+    <t>deep jellyfish</t>
+  </si>
+  <si>
+    <t>深海クラゲ</t>
+  </si>
+  <si>
+    <t>squirrel_killer</t>
+  </si>
+  <si>
+    <t>EA 23.168</t>
+  </si>
+  <si>
+    <t>killer squirrel</t>
+  </si>
+  <si>
+    <t>殺人リス</t>
+  </si>
+  <si>
+    <t>ygolonac</t>
+  </si>
+  <si>
+    <t>EA 23.169</t>
+  </si>
+  <si>
+    <t>Y'golonac</t>
+  </si>
+  <si>
+    <t>イゴーロナク</t>
+  </si>
+  <si>
+    <t>bat_vampire</t>
+  </si>
+  <si>
+    <t>EA 23.171</t>
+  </si>
+  <si>
+    <t>vampire bat</t>
+  </si>
+  <si>
+    <t>吸血コウモリ</t>
+  </si>
+  <si>
+    <t>bat_dragon</t>
+  </si>
+  <si>
+    <t>dragon bat</t>
+  </si>
+  <si>
+    <t>ドラゴンバット</t>
+  </si>
+  <si>
+    <t>mantis_killer</t>
+  </si>
+  <si>
+    <t>EA 23.172</t>
+  </si>
+  <si>
+    <t>killer mantis</t>
+  </si>
+  <si>
+    <t>キラーマンティス</t>
+  </si>
+  <si>
+    <t>imolonac</t>
+  </si>
+  <si>
+    <t>Y'molonac</t>
+  </si>
+  <si>
+    <t>イモーロナク</t>
+  </si>
+  <si>
+    <t>marinho folhado #ele5 dragão</t>
+  </si>
+  <si>
+    <t>#ele5 serpente</t>
+  </si>
+  <si>
+    <t>Irmã mais nova leopardo das neves</t>
+  </si>
+  <si>
+    <t>ondina</t>
+  </si>
+  <si>
+    <t>medusa profunda</t>
+  </si>
+  <si>
+    <t>esquilo assassino</t>
+  </si>
+  <si>
+    <t>morcego vampiro</t>
+  </si>
+  <si>
+    <t>morcego dragão</t>
+  </si>
+  <si>
+    <t>louva-a-deus assassino</t>
   </si>
 </sst>
 </file>
@@ -6301,17 +6445,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L479"/>
+  <dimension ref="A1:L490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D401" sqref="D401"/>
+      <pane ySplit="2" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D406" sqref="D406:D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="174.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -14300,2017 +14444,2204 @@
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1819</v>
+        <v>1758</v>
       </c>
       <c r="B375" t="s">
-        <v>1820</v>
+        <v>1738</v>
       </c>
       <c r="D375" t="s">
-        <v>1939</v>
+        <v>1805</v>
       </c>
       <c r="E375" t="s">
-        <v>1821</v>
+        <v>1759</v>
       </c>
       <c r="F375" t="s">
-        <v>1822</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="B376" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="D376" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="E376" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="F376" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="B377" t="s">
         <v>1824</v>
       </c>
       <c r="D377" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="E377" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="F377" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="B378" t="s">
         <v>1824</v>
       </c>
       <c r="D378" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="E378" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="F378" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="B379" t="s">
-        <v>1834</v>
+        <v>1824</v>
       </c>
       <c r="D379" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="E379" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="F379" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="B380" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="D380" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="E380" t="s">
-        <v>14</v>
+        <v>1835</v>
       </c>
       <c r="F380" t="s">
-        <v>14</v>
-      </c>
-      <c r="J380" t="s">
-        <v>1839</v>
-      </c>
-      <c r="K380" t="s">
-        <v>1840</v>
-      </c>
-      <c r="L380" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1842</v>
+        <v>1837</v>
       </c>
       <c r="B381" t="s">
-        <v>1843</v>
+        <v>1838</v>
       </c>
       <c r="D381" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="E381" t="s">
-        <v>1842</v>
+        <v>14</v>
       </c>
       <c r="F381" t="s">
-        <v>1844</v>
+        <v>14</v>
+      </c>
+      <c r="J381" t="s">
+        <v>1839</v>
+      </c>
+      <c r="K381" t="s">
+        <v>1840</v>
+      </c>
+      <c r="L381" t="s">
+        <v>1841</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="B382" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="D382" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="E382" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="F382" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="B383" t="s">
         <v>1846</v>
       </c>
       <c r="D383" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="E383" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="F383" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="B384" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="D384" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="E384" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="F384" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="B385" t="s">
         <v>1852</v>
       </c>
       <c r="D385" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="E385" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="F385" t="s">
-        <v>1857</v>
-      </c>
-      <c r="J385" t="s">
-        <v>1858</v>
-      </c>
-      <c r="K385" t="s">
-        <v>1859</v>
-      </c>
-      <c r="L385" t="s">
-        <v>1860</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1861</v>
+        <v>1855</v>
       </c>
       <c r="B386" t="s">
         <v>1852</v>
       </c>
       <c r="D386" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E386" t="s">
-        <v>1862</v>
+        <v>1856</v>
       </c>
       <c r="F386" t="s">
-        <v>1863</v>
+        <v>1857</v>
+      </c>
+      <c r="J386" t="s">
+        <v>1858</v>
+      </c>
+      <c r="K386" t="s">
+        <v>1859</v>
+      </c>
+      <c r="L386" t="s">
+        <v>1860</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="B387" t="s">
-        <v>1865</v>
+        <v>1852</v>
       </c>
       <c r="D387" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E387" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
       <c r="F387" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="B388" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="D388" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E388" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
       <c r="F388" t="s">
-        <v>1871</v>
-      </c>
-      <c r="J388" t="s">
-        <v>1872</v>
-      </c>
-      <c r="K388" t="s">
-        <v>1873</v>
-      </c>
-      <c r="L388" t="s">
-        <v>1874</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1875</v>
+        <v>1868</v>
       </c>
       <c r="B389" t="s">
-        <v>1876</v>
+        <v>1869</v>
       </c>
       <c r="D389" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="E389" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
       <c r="F389" t="s">
-        <v>1877</v>
+        <v>1871</v>
+      </c>
+      <c r="J389" t="s">
+        <v>1872</v>
+      </c>
+      <c r="K389" t="s">
+        <v>1873</v>
+      </c>
+      <c r="L389" t="s">
+        <v>1874</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="B390" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="D390" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E390" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="F390" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="B391" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="D391" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E391" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="F391" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="B392" t="s">
         <v>1883</v>
       </c>
       <c r="D392" t="s">
-        <v>1944</v>
+        <v>1955</v>
       </c>
       <c r="E392" t="s">
-        <v>14</v>
+        <v>1884</v>
       </c>
       <c r="F392" t="s">
-        <v>14</v>
-      </c>
-      <c r="J392" t="s">
-        <v>1887</v>
-      </c>
-      <c r="K392" t="s">
-        <v>1888</v>
-      </c>
-      <c r="L392" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="B393" t="s">
         <v>1883</v>
       </c>
       <c r="D393" t="s">
-        <v>1956</v>
+        <v>1944</v>
       </c>
       <c r="E393" t="s">
-        <v>1891</v>
+        <v>14</v>
       </c>
       <c r="F393" t="s">
-        <v>1892</v>
+        <v>14</v>
+      </c>
+      <c r="J393" t="s">
+        <v>1887</v>
+      </c>
+      <c r="K393" t="s">
+        <v>1888</v>
+      </c>
+      <c r="L393" t="s">
+        <v>1889</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>844</v>
+        <v>1890</v>
       </c>
       <c r="B394" t="s">
-        <v>1893</v>
+        <v>1883</v>
       </c>
       <c r="D394" t="s">
-        <v>1944</v>
+        <v>1956</v>
       </c>
       <c r="E394" t="s">
-        <v>14</v>
+        <v>1891</v>
       </c>
       <c r="F394" t="s">
-        <v>14</v>
-      </c>
-      <c r="J394" t="s">
-        <v>1894</v>
-      </c>
-      <c r="K394" t="s">
-        <v>844</v>
-      </c>
-      <c r="L394" t="s">
-        <v>845</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1237</v>
+        <v>844</v>
       </c>
       <c r="B395" t="s">
         <v>1893</v>
       </c>
       <c r="D395" t="s">
-        <v>1957</v>
+        <v>1944</v>
       </c>
       <c r="E395" t="s">
-        <v>1238</v>
+        <v>14</v>
       </c>
       <c r="F395" t="s">
-        <v>1239</v>
+        <v>14</v>
       </c>
       <c r="J395" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="K395" t="s">
-        <v>1240</v>
+        <v>844</v>
       </c>
       <c r="L395" t="s">
-        <v>1896</v>
+        <v>845</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1897</v>
+        <v>1237</v>
       </c>
       <c r="B396" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
       <c r="D396" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E396" t="s">
-        <v>1899</v>
+        <v>1238</v>
       </c>
       <c r="F396" t="s">
-        <v>1900</v>
+        <v>1239</v>
+      </c>
+      <c r="J396" t="s">
+        <v>1895</v>
+      </c>
+      <c r="K396" t="s">
+        <v>1240</v>
+      </c>
+      <c r="L396" t="s">
+        <v>1896</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="B397" t="s">
         <v>1898</v>
       </c>
       <c r="D397" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E397" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="F397" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="B398" t="s">
-        <v>1905</v>
+        <v>1898</v>
       </c>
       <c r="D398" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="E398" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="F398" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="B399" t="s">
         <v>1905</v>
       </c>
       <c r="D399" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="E399" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="F399" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="B400" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
       <c r="D400" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="E400" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="F400" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B401" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="D401" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E401" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="F401" t="s">
-        <v>1917</v>
-      </c>
-      <c r="J401" t="s">
-        <v>1918</v>
-      </c>
-      <c r="K401" t="s">
-        <v>1919</v>
-      </c>
-      <c r="L401" t="s">
-        <v>1920</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1921</v>
+        <v>1914</v>
       </c>
       <c r="B402" t="s">
         <v>1915</v>
       </c>
       <c r="D402" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E402" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="F402" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="J402" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="K402" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="L402" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="B403" t="s">
         <v>1915</v>
       </c>
       <c r="D403" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E403" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="F403" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="J403" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
       <c r="K403" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="L403" t="s">
-        <v>1932</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1933</v>
+        <v>1927</v>
       </c>
       <c r="B404" t="s">
         <v>1915</v>
       </c>
       <c r="D404" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E404" t="s">
-        <v>1934</v>
+        <v>1928</v>
       </c>
       <c r="F404" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
       <c r="J404" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
       <c r="K404" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
       <c r="L404" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1758</v>
+        <v>1933</v>
       </c>
       <c r="B405" t="s">
-        <v>1738</v>
+        <v>1915</v>
       </c>
       <c r="D405" t="s">
-        <v>1805</v>
+        <v>1966</v>
       </c>
       <c r="E405" t="s">
-        <v>1759</v>
+        <v>1934</v>
       </c>
       <c r="F405" t="s">
-        <v>1760</v>
+        <v>1935</v>
+      </c>
+      <c r="J405" t="s">
+        <v>1936</v>
+      </c>
+      <c r="K405" t="s">
+        <v>1937</v>
+      </c>
+      <c r="L405" t="s">
+        <v>1938</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>780</v>
+        <v>1787</v>
       </c>
       <c r="B406" t="s">
-        <v>1316</v>
+        <v>1967</v>
       </c>
       <c r="D406" t="s">
-        <v>781</v>
+        <v>2006</v>
       </c>
       <c r="E406" t="s">
-        <v>781</v>
+        <v>1968</v>
       </c>
       <c r="F406" t="s">
-        <v>782</v>
-      </c>
-      <c r="J406" t="s">
-        <v>1686</v>
-      </c>
-      <c r="K406" t="s">
-        <v>783</v>
-      </c>
-      <c r="L406" t="s">
-        <v>784</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>988</v>
+        <v>1970</v>
       </c>
       <c r="B407" t="s">
-        <v>1325</v>
+        <v>1967</v>
       </c>
       <c r="D407" t="s">
-        <v>1552</v>
+        <v>2007</v>
       </c>
       <c r="E407" t="s">
-        <v>989</v>
+        <v>1971</v>
       </c>
       <c r="F407" t="s">
-        <v>990</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1040</v>
+        <v>1973</v>
       </c>
       <c r="B408" t="s">
-        <v>1325</v>
+        <v>1974</v>
       </c>
       <c r="D408" t="s">
-        <v>1559</v>
+        <v>2008</v>
       </c>
       <c r="E408" t="s">
-        <v>1041</v>
+        <v>1976</v>
       </c>
       <c r="F408" t="s">
-        <v>1042</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>391</v>
+        <v>1977</v>
       </c>
       <c r="B409" t="s">
-        <v>1298</v>
+        <v>1978</v>
       </c>
       <c r="D409" t="s">
-        <v>14</v>
+        <v>2009</v>
       </c>
       <c r="E409" t="s">
-        <v>14</v>
+        <v>1977</v>
       </c>
       <c r="F409" t="s">
-        <v>14</v>
-      </c>
-      <c r="J409" t="s">
-        <v>1654</v>
-      </c>
-      <c r="K409" t="s">
-        <v>391</v>
-      </c>
-      <c r="L409" t="s">
-        <v>392</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>1015</v>
+        <v>1980</v>
       </c>
       <c r="B410" t="s">
-        <v>1298</v>
+        <v>1981</v>
       </c>
       <c r="D410" t="s">
-        <v>14</v>
+        <v>2010</v>
       </c>
       <c r="E410" t="s">
-        <v>14</v>
+        <v>1982</v>
       </c>
       <c r="F410" t="s">
-        <v>14</v>
-      </c>
-      <c r="J410" t="s">
-        <v>1714</v>
-      </c>
-      <c r="K410" t="s">
-        <v>1016</v>
-      </c>
-      <c r="L410" t="s">
-        <v>1017</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>126</v>
+        <v>1984</v>
       </c>
       <c r="B411" t="s">
-        <v>1278</v>
+        <v>1985</v>
       </c>
       <c r="D411" t="s">
-        <v>1365</v>
+        <v>2011</v>
       </c>
       <c r="E411" t="s">
-        <v>127</v>
+        <v>1986</v>
       </c>
       <c r="F411" t="s">
-        <v>128</v>
-      </c>
-      <c r="J411" t="s">
-        <v>1595</v>
-      </c>
-      <c r="K411" t="s">
-        <v>129</v>
-      </c>
-      <c r="L411" t="s">
-        <v>130</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>172</v>
+        <v>1988</v>
       </c>
       <c r="B412" t="s">
-        <v>1278</v>
+        <v>1989</v>
       </c>
       <c r="D412" t="s">
-        <v>14</v>
+        <v>1990</v>
       </c>
       <c r="E412" t="s">
-        <v>14</v>
+        <v>1990</v>
       </c>
       <c r="F412" t="s">
-        <v>14</v>
-      </c>
-      <c r="J412" t="s">
-        <v>1637</v>
-      </c>
-      <c r="K412" t="s">
-        <v>172</v>
-      </c>
-      <c r="L412" t="s">
-        <v>173</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>814</v>
+        <v>1992</v>
       </c>
       <c r="B413" t="s">
-        <v>1278</v>
+        <v>1993</v>
       </c>
       <c r="D413" t="s">
-        <v>1522</v>
+        <v>2012</v>
       </c>
       <c r="E413" t="s">
-        <v>812</v>
+        <v>1994</v>
       </c>
       <c r="F413" t="s">
-        <v>813</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>133</v>
+        <v>1996</v>
       </c>
       <c r="B414" t="s">
-        <v>1279</v>
+        <v>1993</v>
       </c>
       <c r="D414" t="s">
-        <v>1367</v>
+        <v>2013</v>
       </c>
       <c r="E414" t="s">
-        <v>134</v>
+        <v>1997</v>
       </c>
       <c r="F414" t="s">
-        <v>135</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>136</v>
+        <v>1999</v>
       </c>
       <c r="B415" t="s">
-        <v>1279</v>
+        <v>2000</v>
       </c>
       <c r="D415" t="s">
-        <v>1368</v>
+        <v>2014</v>
       </c>
       <c r="E415" t="s">
-        <v>137</v>
+        <v>2001</v>
       </c>
       <c r="F415" t="s">
-        <v>138</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>139</v>
+        <v>2003</v>
       </c>
       <c r="B416" t="s">
-        <v>1280</v>
+        <v>2000</v>
       </c>
       <c r="D416" t="s">
-        <v>1369</v>
+        <v>2004</v>
       </c>
       <c r="E416" t="s">
-        <v>140</v>
+        <v>2004</v>
       </c>
       <c r="F416" t="s">
-        <v>141</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>142</v>
+        <v>780</v>
       </c>
       <c r="B417" t="s">
-        <v>1280</v>
+        <v>1316</v>
       </c>
       <c r="D417" t="s">
-        <v>1370</v>
+        <v>781</v>
       </c>
       <c r="E417" t="s">
-        <v>143</v>
+        <v>781</v>
       </c>
       <c r="F417" t="s">
-        <v>144</v>
+        <v>782</v>
+      </c>
+      <c r="J417" t="s">
+        <v>1686</v>
+      </c>
+      <c r="K417" t="s">
+        <v>783</v>
+      </c>
+      <c r="L417" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>15</v>
+        <v>988</v>
       </c>
       <c r="B418" t="s">
-        <v>1262</v>
+        <v>1325</v>
       </c>
       <c r="D418" t="s">
-        <v>1339</v>
+        <v>1552</v>
       </c>
       <c r="E418" t="s">
-        <v>16</v>
+        <v>989</v>
       </c>
       <c r="F418" t="s">
-        <v>17</v>
+        <v>990</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>283</v>
+        <v>1040</v>
       </c>
       <c r="B419" t="s">
-        <v>1293</v>
+        <v>1325</v>
       </c>
       <c r="D419" t="s">
-        <v>284</v>
+        <v>1559</v>
       </c>
       <c r="E419" t="s">
-        <v>284</v>
+        <v>1041</v>
       </c>
       <c r="F419" t="s">
-        <v>285</v>
-      </c>
-      <c r="J419" t="s">
-        <v>1645</v>
-      </c>
-      <c r="K419" t="s">
-        <v>286</v>
-      </c>
-      <c r="L419" t="s">
-        <v>287</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="B420" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="D420" t="s">
-        <v>1462</v>
+        <v>14</v>
       </c>
       <c r="E420" t="s">
-        <v>457</v>
+        <v>14</v>
       </c>
       <c r="F420" t="s">
-        <v>458</v>
+        <v>14</v>
+      </c>
+      <c r="J420" t="s">
+        <v>1654</v>
+      </c>
+      <c r="K420" t="s">
+        <v>391</v>
+      </c>
+      <c r="L420" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>656</v>
+        <v>1015</v>
       </c>
       <c r="B421" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="D421" t="s">
-        <v>1501</v>
+        <v>14</v>
       </c>
       <c r="E421" t="s">
-        <v>657</v>
+        <v>14</v>
       </c>
       <c r="F421" t="s">
-        <v>658</v>
+        <v>14</v>
+      </c>
+      <c r="J421" t="s">
+        <v>1714</v>
+      </c>
+      <c r="K421" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L421" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>659</v>
+        <v>126</v>
       </c>
       <c r="B422" t="s">
-        <v>1303</v>
+        <v>1278</v>
       </c>
       <c r="D422" t="s">
-        <v>1502</v>
+        <v>1365</v>
       </c>
       <c r="E422" t="s">
-        <v>660</v>
+        <v>127</v>
       </c>
       <c r="F422" t="s">
-        <v>661</v>
+        <v>128</v>
+      </c>
+      <c r="J422" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K422" t="s">
+        <v>129</v>
+      </c>
+      <c r="L422" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>662</v>
+        <v>172</v>
       </c>
       <c r="B423" t="s">
-        <v>1303</v>
+        <v>1278</v>
       </c>
       <c r="D423" t="s">
-        <v>1503</v>
+        <v>14</v>
       </c>
       <c r="E423" t="s">
-        <v>663</v>
+        <v>14</v>
       </c>
       <c r="F423" t="s">
-        <v>664</v>
+        <v>14</v>
+      </c>
+      <c r="J423" t="s">
+        <v>1637</v>
+      </c>
+      <c r="K423" t="s">
+        <v>172</v>
+      </c>
+      <c r="L423" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>665</v>
+        <v>814</v>
       </c>
       <c r="B424" t="s">
-        <v>1303</v>
+        <v>1278</v>
       </c>
       <c r="D424" t="s">
-        <v>1504</v>
+        <v>1522</v>
       </c>
       <c r="E424" t="s">
-        <v>666</v>
+        <v>812</v>
       </c>
       <c r="F424" t="s">
-        <v>667</v>
+        <v>813</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>346</v>
+        <v>133</v>
       </c>
       <c r="B425" t="s">
-        <v>1297</v>
+        <v>1279</v>
       </c>
       <c r="D425" t="s">
-        <v>1406</v>
+        <v>1367</v>
       </c>
       <c r="E425" t="s">
-        <v>347</v>
+        <v>134</v>
       </c>
       <c r="F425" t="s">
-        <v>348</v>
+        <v>135</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>450</v>
+        <v>136</v>
       </c>
       <c r="B426" t="s">
-        <v>1297</v>
+        <v>1279</v>
       </c>
       <c r="D426" t="s">
-        <v>1460</v>
+        <v>1368</v>
       </c>
       <c r="E426" t="s">
-        <v>451</v>
+        <v>137</v>
       </c>
       <c r="F426" t="s">
-        <v>452</v>
+        <v>138</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>570</v>
+        <v>139</v>
       </c>
       <c r="B427" t="s">
-        <v>1297</v>
+        <v>1280</v>
       </c>
       <c r="D427" t="s">
-        <v>1488</v>
+        <v>1369</v>
       </c>
       <c r="E427" t="s">
-        <v>571</v>
+        <v>140</v>
       </c>
       <c r="F427" t="s">
-        <v>572</v>
+        <v>141</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>573</v>
+        <v>142</v>
       </c>
       <c r="B428" t="s">
-        <v>1297</v>
+        <v>1280</v>
       </c>
       <c r="D428" t="s">
-        <v>1489</v>
+        <v>1370</v>
       </c>
       <c r="E428" t="s">
-        <v>574</v>
+        <v>143</v>
       </c>
       <c r="F428" t="s">
-        <v>575</v>
+        <v>144</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="B429" t="s">
-        <v>1283</v>
+        <v>1262</v>
       </c>
       <c r="D429" t="s">
-        <v>1375</v>
+        <v>1339</v>
       </c>
       <c r="E429" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="F429" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>183</v>
+        <v>283</v>
       </c>
       <c r="B430" t="s">
-        <v>1283</v>
+        <v>1293</v>
       </c>
       <c r="D430" t="s">
-        <v>1376</v>
+        <v>284</v>
       </c>
       <c r="E430" t="s">
-        <v>184</v>
+        <v>284</v>
       </c>
       <c r="F430" t="s">
-        <v>185</v>
+        <v>285</v>
+      </c>
+      <c r="J430" t="s">
+        <v>1645</v>
+      </c>
+      <c r="K430" t="s">
+        <v>286</v>
+      </c>
+      <c r="L430" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>186</v>
+        <v>456</v>
       </c>
       <c r="B431" t="s">
-        <v>1283</v>
+        <v>1303</v>
       </c>
       <c r="D431" t="s">
-        <v>1377</v>
+        <v>1462</v>
       </c>
       <c r="E431" t="s">
-        <v>187</v>
+        <v>457</v>
       </c>
       <c r="F431" t="s">
-        <v>188</v>
+        <v>458</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>692</v>
+        <v>656</v>
       </c>
       <c r="B432" t="s">
-        <v>1283</v>
+        <v>1303</v>
       </c>
       <c r="D432" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="E432" t="s">
-        <v>692</v>
+        <v>657</v>
       </c>
       <c r="F432" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>694</v>
+        <v>659</v>
       </c>
       <c r="B433" t="s">
-        <v>1283</v>
+        <v>1303</v>
       </c>
       <c r="D433" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="E433" t="s">
-        <v>695</v>
+        <v>660</v>
       </c>
       <c r="F433" t="s">
-        <v>696</v>
+        <v>661</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>189</v>
+        <v>662</v>
       </c>
       <c r="B434" t="s">
-        <v>1284</v>
+        <v>1303</v>
       </c>
       <c r="D434" t="s">
-        <v>1378</v>
+        <v>1503</v>
       </c>
       <c r="E434" t="s">
-        <v>190</v>
+        <v>663</v>
       </c>
       <c r="F434" t="s">
-        <v>191</v>
+        <v>664</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>491</v>
+        <v>665</v>
       </c>
       <c r="B435" t="s">
-        <v>1284</v>
+        <v>1303</v>
       </c>
       <c r="D435" t="s">
-        <v>492</v>
+        <v>1504</v>
       </c>
       <c r="E435" t="s">
-        <v>492</v>
+        <v>666</v>
       </c>
       <c r="F435" t="s">
-        <v>493</v>
-      </c>
-      <c r="J435" t="s">
-        <v>1668</v>
-      </c>
-      <c r="K435" t="s">
-        <v>494</v>
-      </c>
-      <c r="L435" t="s">
-        <v>495</v>
+        <v>667</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>547</v>
+        <v>346</v>
       </c>
       <c r="B436" t="s">
-        <v>1284</v>
+        <v>1297</v>
       </c>
       <c r="D436" t="s">
-        <v>1480</v>
+        <v>1406</v>
       </c>
       <c r="E436" t="s">
-        <v>547</v>
+        <v>347</v>
       </c>
       <c r="F436" t="s">
-        <v>548</v>
+        <v>348</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>496</v>
+        <v>450</v>
       </c>
       <c r="B437" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="D437" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="E437" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
       <c r="F437" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1118</v>
+        <v>570</v>
       </c>
       <c r="B438" t="s">
-        <v>1335</v>
+        <v>1297</v>
       </c>
       <c r="D438" t="s">
-        <v>1437</v>
+        <v>1488</v>
       </c>
       <c r="E438" t="s">
-        <v>1119</v>
+        <v>571</v>
       </c>
       <c r="F438" t="s">
-        <v>1120</v>
-      </c>
-      <c r="J438" t="s">
-        <v>14</v>
-      </c>
-      <c r="K438" t="s">
-        <v>14</v>
-      </c>
-      <c r="L438" t="s">
-        <v>14</v>
+        <v>572</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1105</v>
+        <v>573</v>
       </c>
       <c r="B439" t="s">
-        <v>1334</v>
+        <v>1297</v>
       </c>
       <c r="D439" t="s">
-        <v>1106</v>
+        <v>1489</v>
       </c>
       <c r="E439" t="s">
-        <v>1106</v>
+        <v>574</v>
       </c>
       <c r="F439" t="s">
-        <v>1107</v>
-      </c>
-      <c r="J439" t="s">
-        <v>1628</v>
-      </c>
-      <c r="K439" t="s">
-        <v>1108</v>
-      </c>
-      <c r="L439" t="s">
-        <v>1109</v>
+        <v>575</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>591</v>
+        <v>180</v>
       </c>
       <c r="B440" t="s">
-        <v>1310</v>
+        <v>1283</v>
       </c>
       <c r="D440" t="s">
-        <v>1491</v>
+        <v>1375</v>
       </c>
       <c r="E440" t="s">
-        <v>592</v>
+        <v>181</v>
       </c>
       <c r="F440" t="s">
-        <v>593</v>
+        <v>182</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>792</v>
+        <v>183</v>
       </c>
       <c r="B441" t="s">
-        <v>1310</v>
+        <v>1283</v>
       </c>
       <c r="D441" t="s">
-        <v>1520</v>
+        <v>1376</v>
       </c>
       <c r="E441" t="s">
-        <v>793</v>
+        <v>184</v>
       </c>
       <c r="F441" t="s">
-        <v>794</v>
+        <v>185</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1128</v>
+        <v>186</v>
       </c>
       <c r="B442" t="s">
-        <v>1310</v>
+        <v>1283</v>
       </c>
       <c r="D442" t="s">
-        <v>1566</v>
+        <v>1377</v>
       </c>
       <c r="E442" t="s">
-        <v>1129</v>
+        <v>187</v>
       </c>
       <c r="F442" t="s">
-        <v>1130</v>
+        <v>188</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1043</v>
+        <v>692</v>
       </c>
       <c r="B443" t="s">
-        <v>1330</v>
+        <v>1283</v>
       </c>
       <c r="D443" t="s">
-        <v>1560</v>
+        <v>1507</v>
       </c>
       <c r="E443" t="s">
-        <v>1044</v>
+        <v>692</v>
       </c>
       <c r="F443" t="s">
-        <v>1045</v>
+        <v>693</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>323</v>
+        <v>694</v>
       </c>
       <c r="B444" t="s">
-        <v>1296</v>
+        <v>1283</v>
       </c>
       <c r="D444" t="s">
-        <v>1400</v>
+        <v>1508</v>
       </c>
       <c r="E444" t="s">
-        <v>324</v>
+        <v>695</v>
       </c>
       <c r="F444" t="s">
-        <v>325</v>
+        <v>696</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>513</v>
+        <v>189</v>
       </c>
       <c r="B445" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="D445" t="s">
-        <v>1469</v>
+        <v>1378</v>
       </c>
       <c r="E445" t="s">
-        <v>514</v>
+        <v>190</v>
       </c>
       <c r="F445" t="s">
-        <v>515</v>
+        <v>191</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>888</v>
+        <v>491</v>
       </c>
       <c r="B446" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="D446" t="s">
-        <v>1531</v>
+        <v>492</v>
       </c>
       <c r="E446" t="s">
-        <v>889</v>
+        <v>492</v>
       </c>
       <c r="F446" t="s">
-        <v>890</v>
+        <v>493</v>
+      </c>
+      <c r="J446" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K446" t="s">
+        <v>494</v>
+      </c>
+      <c r="L446" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>891</v>
+        <v>547</v>
       </c>
       <c r="B447" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="D447" t="s">
-        <v>1532</v>
+        <v>1480</v>
       </c>
       <c r="E447" t="s">
-        <v>892</v>
+        <v>547</v>
       </c>
       <c r="F447" t="s">
-        <v>893</v>
+        <v>548</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>994</v>
+        <v>496</v>
       </c>
       <c r="B448" t="s">
-        <v>1326</v>
+        <v>1307</v>
       </c>
       <c r="D448" t="s">
-        <v>1554</v>
+        <v>1466</v>
       </c>
       <c r="E448" t="s">
-        <v>995</v>
+        <v>497</v>
       </c>
       <c r="F448" t="s">
-        <v>996</v>
+        <v>498</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>999</v>
+        <v>1118</v>
       </c>
       <c r="B449" t="s">
-        <v>1326</v>
+        <v>1335</v>
       </c>
       <c r="D449" t="s">
-        <v>1556</v>
+        <v>1437</v>
       </c>
       <c r="E449" t="s">
-        <v>1000</v>
+        <v>1119</v>
       </c>
       <c r="F449" t="s">
-        <v>1001</v>
+        <v>1120</v>
+      </c>
+      <c r="J449" t="s">
+        <v>14</v>
+      </c>
+      <c r="K449" t="s">
+        <v>14</v>
+      </c>
+      <c r="L449" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1047</v>
+        <v>1105</v>
       </c>
       <c r="B450" t="s">
-        <v>1326</v>
+        <v>1334</v>
       </c>
       <c r="D450" t="s">
-        <v>1048</v>
+        <v>1106</v>
       </c>
       <c r="E450" t="s">
-        <v>1048</v>
+        <v>1106</v>
       </c>
       <c r="F450" t="s">
-        <v>1049</v>
+        <v>1107</v>
       </c>
       <c r="J450" t="s">
-        <v>1433</v>
+        <v>1628</v>
       </c>
       <c r="K450" t="s">
-        <v>1050</v>
+        <v>1108</v>
       </c>
       <c r="L450" t="s">
-        <v>1051</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>860</v>
+        <v>591</v>
       </c>
       <c r="B451" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="D451" t="s">
-        <v>1534</v>
+        <v>1491</v>
       </c>
       <c r="E451" t="s">
-        <v>861</v>
+        <v>592</v>
       </c>
       <c r="F451" t="s">
-        <v>862</v>
+        <v>593</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1131</v>
+        <v>792</v>
       </c>
       <c r="B452" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="D452" t="s">
-        <v>1567</v>
+        <v>1520</v>
       </c>
       <c r="E452" t="s">
-        <v>1131</v>
+        <v>793</v>
       </c>
       <c r="F452" t="s">
-        <v>1132</v>
+        <v>794</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="B453" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="D453" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E453" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="F453" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>486</v>
+        <v>1043</v>
       </c>
       <c r="B454" t="s">
-        <v>1306</v>
+        <v>1330</v>
       </c>
       <c r="D454" t="s">
-        <v>487</v>
+        <v>1560</v>
       </c>
       <c r="E454" t="s">
-        <v>487</v>
+        <v>1044</v>
       </c>
       <c r="F454" t="s">
-        <v>488</v>
-      </c>
-      <c r="J454" t="s">
-        <v>1667</v>
-      </c>
-      <c r="K454" t="s">
-        <v>489</v>
-      </c>
-      <c r="L454" t="s">
-        <v>490</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1046</v>
+        <v>323</v>
       </c>
       <c r="B455" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="D455" t="s">
-        <v>1560</v>
+        <v>1400</v>
       </c>
       <c r="E455" t="s">
-        <v>1044</v>
+        <v>324</v>
       </c>
       <c r="F455" t="s">
-        <v>1045</v>
+        <v>325</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>226</v>
+        <v>513</v>
       </c>
       <c r="B456" t="s">
-        <v>1288</v>
+        <v>1296</v>
       </c>
       <c r="D456" t="s">
-        <v>1387</v>
+        <v>1469</v>
       </c>
       <c r="E456" t="s">
-        <v>227</v>
+        <v>514</v>
       </c>
       <c r="F456" t="s">
-        <v>228</v>
+        <v>515</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>232</v>
+        <v>888</v>
       </c>
       <c r="B457" t="s">
-        <v>1288</v>
+        <v>1296</v>
       </c>
       <c r="D457" t="s">
-        <v>14</v>
+        <v>1531</v>
       </c>
       <c r="E457" t="s">
-        <v>14</v>
+        <v>889</v>
       </c>
       <c r="F457" t="s">
-        <v>14</v>
-      </c>
-      <c r="J457" t="s">
-        <v>1641</v>
-      </c>
-      <c r="K457" t="s">
-        <v>233</v>
-      </c>
-      <c r="L457" t="s">
-        <v>234</v>
+        <v>890</v>
       </c>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>413</v>
+        <v>891</v>
       </c>
       <c r="B458" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="D458" t="s">
-        <v>1450</v>
+        <v>1532</v>
       </c>
       <c r="E458" t="s">
-        <v>414</v>
+        <v>892</v>
       </c>
       <c r="F458" t="s">
-        <v>415</v>
+        <v>893</v>
       </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>559</v>
+        <v>994</v>
       </c>
       <c r="B459" t="s">
-        <v>1300</v>
+        <v>1326</v>
       </c>
       <c r="D459" t="s">
-        <v>1484</v>
+        <v>1554</v>
       </c>
       <c r="E459" t="s">
-        <v>560</v>
+        <v>995</v>
       </c>
       <c r="F459" t="s">
-        <v>561</v>
+        <v>996</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1113</v>
+        <v>999</v>
       </c>
       <c r="B460" t="s">
-        <v>1300</v>
+        <v>1326</v>
       </c>
       <c r="D460" t="s">
-        <v>1114</v>
+        <v>1556</v>
       </c>
       <c r="E460" t="s">
-        <v>1114</v>
+        <v>1000</v>
       </c>
       <c r="F460" t="s">
-        <v>1115</v>
-      </c>
-      <c r="J460" t="s">
-        <v>1726</v>
-      </c>
-      <c r="K460" t="s">
-        <v>1116</v>
-      </c>
-      <c r="L460" t="s">
-        <v>1117</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>900</v>
+        <v>1047</v>
       </c>
       <c r="B461" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="D461" t="s">
-        <v>1541</v>
+        <v>1048</v>
       </c>
       <c r="E461" t="s">
-        <v>900</v>
+        <v>1048</v>
       </c>
       <c r="F461" t="s">
-        <v>901</v>
+        <v>1049</v>
+      </c>
+      <c r="J461" t="s">
+        <v>1433</v>
+      </c>
+      <c r="K461" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L461" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>606</v>
+        <v>860</v>
       </c>
       <c r="B462" t="s">
-        <v>1312</v>
+        <v>1320</v>
       </c>
       <c r="D462" t="s">
-        <v>1458</v>
+        <v>1534</v>
       </c>
       <c r="E462" t="s">
-        <v>607</v>
+        <v>861</v>
       </c>
       <c r="F462" t="s">
-        <v>608</v>
+        <v>862</v>
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>609</v>
+        <v>1131</v>
       </c>
       <c r="B463" t="s">
-        <v>1312</v>
+        <v>1320</v>
       </c>
       <c r="D463" t="s">
-        <v>1457</v>
+        <v>1567</v>
       </c>
       <c r="E463" t="s">
-        <v>610</v>
+        <v>1131</v>
       </c>
       <c r="F463" t="s">
-        <v>611</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>612</v>
+        <v>1133</v>
       </c>
       <c r="B464" t="s">
-        <v>1312</v>
+        <v>1320</v>
       </c>
       <c r="D464" t="s">
-        <v>1456</v>
+        <v>1568</v>
       </c>
       <c r="E464" t="s">
-        <v>613</v>
+        <v>1134</v>
       </c>
       <c r="F464" t="s">
-        <v>614</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1110</v>
+        <v>486</v>
       </c>
       <c r="B465" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="D465" t="s">
-        <v>1436</v>
+        <v>487</v>
       </c>
       <c r="E465" t="s">
-        <v>1111</v>
+        <v>487</v>
       </c>
       <c r="F465" t="s">
-        <v>1112</v>
+        <v>488</v>
+      </c>
+      <c r="J465" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K465" t="s">
+        <v>489</v>
+      </c>
+      <c r="L465" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>216</v>
+        <v>1046</v>
       </c>
       <c r="B466" t="s">
-        <v>1287</v>
+        <v>1306</v>
       </c>
       <c r="D466" t="s">
-        <v>1385</v>
+        <v>1560</v>
       </c>
       <c r="E466" t="s">
-        <v>217</v>
+        <v>1044</v>
       </c>
       <c r="F466" t="s">
-        <v>218</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>365</v>
+        <v>226</v>
       </c>
       <c r="B467" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D467" t="s">
-        <v>1411</v>
+        <v>1387</v>
       </c>
       <c r="E467" t="s">
-        <v>366</v>
+        <v>227</v>
       </c>
       <c r="F467" t="s">
-        <v>367</v>
+        <v>228</v>
       </c>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>368</v>
+        <v>232</v>
       </c>
       <c r="B468" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D468" t="s">
-        <v>1412</v>
+        <v>14</v>
       </c>
       <c r="E468" t="s">
-        <v>369</v>
+        <v>14</v>
       </c>
       <c r="F468" t="s">
-        <v>370</v>
+        <v>14</v>
+      </c>
+      <c r="J468" t="s">
+        <v>1641</v>
+      </c>
+      <c r="K468" t="s">
+        <v>233</v>
+      </c>
+      <c r="L468" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>594</v>
+        <v>413</v>
       </c>
       <c r="B469" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
       <c r="D469" t="s">
-        <v>595</v>
+        <v>1450</v>
       </c>
       <c r="E469" t="s">
-        <v>595</v>
+        <v>414</v>
       </c>
       <c r="F469" t="s">
-        <v>596</v>
-      </c>
-      <c r="J469" t="s">
-        <v>1673</v>
-      </c>
-      <c r="K469" t="s">
-        <v>597</v>
-      </c>
-      <c r="L469" t="s">
-        <v>598</v>
+        <v>415</v>
       </c>
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1156</v>
+        <v>559</v>
       </c>
       <c r="B470" t="s">
-        <v>1311</v>
+        <v>1300</v>
       </c>
       <c r="D470" t="s">
-        <v>1571</v>
+        <v>1484</v>
       </c>
       <c r="E470" t="s">
-        <v>1156</v>
+        <v>560</v>
       </c>
       <c r="F470" t="s">
-        <v>1157</v>
+        <v>561</v>
       </c>
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>257</v>
+        <v>1113</v>
       </c>
       <c r="B471" t="s">
-        <v>1291</v>
+        <v>1300</v>
       </c>
       <c r="D471" t="s">
-        <v>1393</v>
+        <v>1114</v>
       </c>
       <c r="E471" t="s">
-        <v>258</v>
+        <v>1114</v>
       </c>
       <c r="F471" t="s">
-        <v>259</v>
+        <v>1115</v>
+      </c>
+      <c r="J471" t="s">
+        <v>1726</v>
+      </c>
+      <c r="K471" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L471" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>519</v>
+        <v>900</v>
       </c>
       <c r="B472" t="s">
-        <v>1291</v>
+        <v>1322</v>
       </c>
       <c r="D472" t="s">
-        <v>1470</v>
+        <v>1541</v>
       </c>
       <c r="E472" t="s">
-        <v>520</v>
+        <v>900</v>
       </c>
       <c r="F472" t="s">
-        <v>521</v>
+        <v>901</v>
       </c>
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1078</v>
+        <v>606</v>
       </c>
       <c r="B473" t="s">
-        <v>1333</v>
+        <v>1312</v>
       </c>
       <c r="D473" t="s">
-        <v>1079</v>
+        <v>1458</v>
       </c>
       <c r="E473" t="s">
-        <v>1079</v>
+        <v>607</v>
       </c>
       <c r="F473" t="s">
-        <v>1080</v>
+        <v>608</v>
       </c>
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1052</v>
+        <v>609</v>
       </c>
       <c r="B474" t="s">
-        <v>1331</v>
+        <v>1312</v>
       </c>
       <c r="D474" t="s">
-        <v>1561</v>
+        <v>1457</v>
       </c>
       <c r="E474" t="s">
-        <v>1053</v>
+        <v>610</v>
       </c>
       <c r="F474" t="s">
-        <v>1054</v>
+        <v>611</v>
       </c>
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1055</v>
+        <v>612</v>
       </c>
       <c r="B475" t="s">
-        <v>1331</v>
+        <v>1312</v>
       </c>
       <c r="D475" t="s">
-        <v>1562</v>
+        <v>1456</v>
       </c>
       <c r="E475" t="s">
-        <v>1055</v>
+        <v>613</v>
       </c>
       <c r="F475" t="s">
-        <v>1056</v>
-      </c>
-      <c r="J475" t="s">
-        <v>1561</v>
-      </c>
-      <c r="K475" t="s">
-        <v>1053</v>
-      </c>
-      <c r="L475" t="s">
-        <v>1054</v>
+        <v>614</v>
       </c>
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>866</v>
+        <v>1110</v>
       </c>
       <c r="B476" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="D476" t="s">
-        <v>1536</v>
+        <v>1436</v>
       </c>
       <c r="E476" t="s">
-        <v>867</v>
+        <v>1111</v>
       </c>
       <c r="F476" t="s">
-        <v>868</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>869</v>
+        <v>216</v>
       </c>
       <c r="B477" t="s">
-        <v>1321</v>
+        <v>1287</v>
       </c>
       <c r="D477" t="s">
-        <v>1537</v>
+        <v>1385</v>
       </c>
       <c r="E477" t="s">
-        <v>870</v>
+        <v>217</v>
       </c>
       <c r="F477" t="s">
-        <v>871</v>
+        <v>218</v>
       </c>
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>894</v>
+        <v>365</v>
       </c>
       <c r="B478" t="s">
-        <v>1321</v>
+        <v>1287</v>
       </c>
       <c r="D478" t="s">
-        <v>1539</v>
+        <v>1411</v>
       </c>
       <c r="E478" t="s">
-        <v>895</v>
+        <v>366</v>
       </c>
       <c r="F478" t="s">
-        <v>896</v>
+        <v>367</v>
       </c>
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
+        <v>368</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D479" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E479" t="s">
+        <v>369</v>
+      </c>
+      <c r="F479" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>594</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D480" t="s">
+        <v>595</v>
+      </c>
+      <c r="E480" t="s">
+        <v>595</v>
+      </c>
+      <c r="F480" t="s">
+        <v>596</v>
+      </c>
+      <c r="J480" t="s">
+        <v>1673</v>
+      </c>
+      <c r="K480" t="s">
+        <v>597</v>
+      </c>
+      <c r="L480" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E481" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F481" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>257</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D482" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E482" t="s">
+        <v>258</v>
+      </c>
+      <c r="F482" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>519</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D483" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E483" t="s">
+        <v>520</v>
+      </c>
+      <c r="F483" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D484" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E484" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F484" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D485" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E485" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F485" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D486" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E486" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F486" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J486" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K486" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L486" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>866</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E487" t="s">
+        <v>867</v>
+      </c>
+      <c r="F487" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>869</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D488" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E488" t="s">
+        <v>870</v>
+      </c>
+      <c r="F488" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>894</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D489" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E489" t="s">
+        <v>895</v>
+      </c>
+      <c r="F489" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
         <v>897</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B490" t="s">
         <v>1321</v>
       </c>
-      <c r="D479" t="s">
+      <c r="D490" t="s">
         <v>1540</v>
       </c>
-      <c r="E479" t="s">
+      <c r="E490" t="s">
         <v>898</v>
       </c>
-      <c r="F479" t="s">
+      <c r="F490" t="s">
         <v>899</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:L2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L449">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L479">
       <sortCondition ref="B2"/>
     </sortState>
   </autoFilter>

--- a/PTBR/Lang/PTBR/Game/Chara.xlsx
+++ b/PTBR/Lang/PTBR/Game/Chara.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE37B28-AF46-461B-B4C5-30E175EAEC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980A3886-1BFE-4F81-B4EB-F7300639D378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2295" windowWidth="21450" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="2015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="2254">
   <si>
     <t>id</t>
   </si>
@@ -6068,13 +6068,730 @@
   </si>
   <si>
     <t>louva-a-deus assassino</t>
+  </si>
+  <si>
+    <t>spider_tarantula</t>
+  </si>
+  <si>
+    <t>EA 23.175</t>
+  </si>
+  <si>
+    <t>tarantula</t>
+  </si>
+  <si>
+    <t>タランチュラ</t>
+  </si>
+  <si>
+    <t>mush_zombie</t>
+  </si>
+  <si>
+    <t>EA 23.176</t>
+  </si>
+  <si>
+    <t>monster mushroom</t>
+  </si>
+  <si>
+    <t>お化けきのこ</t>
+  </si>
+  <si>
+    <t>pursuer</t>
+  </si>
+  <si>
+    <t>EA 23.177</t>
+  </si>
+  <si>
+    <t>追跡者</t>
+  </si>
+  <si>
+    <t>skeleton_spartoi</t>
+  </si>
+  <si>
+    <t>dragon tooth warrior</t>
+  </si>
+  <si>
+    <t>竜牙兵</t>
+  </si>
+  <si>
+    <t>lizardman_boxer</t>
+  </si>
+  <si>
+    <t>EA 23.178</t>
+  </si>
+  <si>
+    <t>lizardman boxer</t>
+  </si>
+  <si>
+    <t>リザードマンの拳闘士</t>
+  </si>
+  <si>
+    <t>fish_star</t>
+  </si>
+  <si>
+    <t>EA 23.183</t>
+  </si>
+  <si>
+    <t>starfish</t>
+  </si>
+  <si>
+    <t>ヒトデ</t>
+  </si>
+  <si>
+    <t>EA 23.184</t>
+  </si>
+  <si>
+    <t>毒の</t>
+  </si>
+  <si>
+    <t>雷の</t>
+  </si>
+  <si>
+    <t>spider_vampire</t>
+  </si>
+  <si>
+    <t>EA 23.187</t>
+  </si>
+  <si>
+    <t>吸血蜘蛛</t>
+  </si>
+  <si>
+    <t>vampire spider</t>
+  </si>
+  <si>
+    <t>spider_paralyzer</t>
+  </si>
+  <si>
+    <t>paralyzer</t>
+  </si>
+  <si>
+    <t>パラライザー</t>
+  </si>
+  <si>
+    <t>spider_queen</t>
+  </si>
+  <si>
+    <t>dark spider queen</t>
+  </si>
+  <si>
+    <t>闇の大蜘蛛</t>
+  </si>
+  <si>
+    <t>tyche</t>
+  </si>
+  <si>
+    <t>EA 23.190</t>
+  </si>
+  <si>
+    <t>Tyche</t>
+  </si>
+  <si>
+    <t>ティケ</t>
+  </si>
+  <si>
+    <t>easygoing merc</t>
+  </si>
+  <si>
+    <t>気ままな傭兵</t>
+  </si>
+  <si>
+    <t>vishnu</t>
+  </si>
+  <si>
+    <t>VISHNU</t>
+  </si>
+  <si>
+    <t>VTX-09</t>
+  </si>
+  <si>
+    <t>doga</t>
+  </si>
+  <si>
+    <t>Doga</t>
+  </si>
+  <si>
+    <t>ドーガ</t>
+  </si>
+  <si>
+    <t>Factory Chief</t>
+  </si>
+  <si>
+    <t>工場長</t>
+  </si>
+  <si>
+    <t>larnneire</t>
+  </si>
+  <si>
+    <t>EA 23.191</t>
+  </si>
+  <si>
+    <t>Larnneire</t>
+  </si>
+  <si>
+    <t>ラーネイレ</t>
+  </si>
+  <si>
+    <t>listener of wind</t>
+  </si>
+  <si>
+    <t>風を聴く者</t>
+  </si>
+  <si>
+    <t>lomias</t>
+  </si>
+  <si>
+    <t>Lomias</t>
+  </si>
+  <si>
+    <t>ロミアス</t>
+  </si>
+  <si>
+    <t>messenger from Vindale</t>
+  </si>
+  <si>
+    <t>異形の森の使者</t>
+  </si>
+  <si>
+    <t>centaur_archer</t>
+  </si>
+  <si>
+    <t>EA 23.196</t>
+  </si>
+  <si>
+    <t>centaur archer</t>
+  </si>
+  <si>
+    <t>ケンタウロスの弓使い</t>
+  </si>
+  <si>
+    <t>EA 23.198</t>
+  </si>
+  <si>
+    <t>Duponne</t>
+  </si>
+  <si>
+    <t>デュポンヌ</t>
+  </si>
+  <si>
+    <t>forgotten sea dragon of Lurie</t>
+  </si>
+  <si>
+    <t>ルーリエの忘れられし海竜</t>
+  </si>
+  <si>
+    <t>putty_mech</t>
+  </si>
+  <si>
+    <t>EA 23.201</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>失敗作</t>
+  </si>
+  <si>
+    <t>mech_golem_a</t>
+  </si>
+  <si>
+    <t>Higgs</t>
+  </si>
+  <si>
+    <t>ヒッグス</t>
+  </si>
+  <si>
+    <t>魔甲兵</t>
+  </si>
+  <si>
+    <t>Magitek Trooper</t>
+  </si>
+  <si>
+    <t>mech_golem_b</t>
+  </si>
+  <si>
+    <t>Widge</t>
+  </si>
+  <si>
+    <t>ウィッジ</t>
+  </si>
+  <si>
+    <t>minotaur_cook</t>
+  </si>
+  <si>
+    <t>EA 23.202</t>
+  </si>
+  <si>
+    <t>Bambi</t>
+  </si>
+  <si>
+    <t>バンビィ</t>
+  </si>
+  <si>
+    <t>Lord of Curry House 《Dragons &amp; Spices》</t>
+  </si>
+  <si>
+    <t>カレー処《竜と香辛料》の亭主</t>
+  </si>
+  <si>
+    <t>mech_basher</t>
+  </si>
+  <si>
+    <t>EA 23.203</t>
+  </si>
+  <si>
+    <t>bastion</t>
+  </si>
+  <si>
+    <t>バスティオン</t>
+  </si>
+  <si>
+    <t>mech_scarab</t>
+  </si>
+  <si>
+    <t>EA 23.205</t>
+  </si>
+  <si>
+    <t>scarab</t>
+  </si>
+  <si>
+    <t>スカラベ</t>
+  </si>
+  <si>
+    <t>bit2</t>
+  </si>
+  <si>
+    <t>EA 23.207</t>
+  </si>
+  <si>
+    <t>#ele3 bit</t>
+  </si>
+  <si>
+    <t>#ele3ビット</t>
+  </si>
+  <si>
+    <t>vesda</t>
+  </si>
+  <si>
+    <t>EA 23.209</t>
+  </si>
+  <si>
+    <t>Vesda</t>
+  </si>
+  <si>
+    <t>ヴェスダ</t>
+  </si>
+  <si>
+    <t>Fire Dragon</t>
+  </si>
+  <si>
+    <t>火炎竜</t>
+  </si>
+  <si>
+    <t>azzrasizzle</t>
+  </si>
+  <si>
+    <t>Azrasizzle</t>
+  </si>
+  <si>
+    <t>アズラシズル</t>
+  </si>
+  <si>
+    <t>Impure</t>
+  </si>
+  <si>
+    <t>不浄なる者</t>
+  </si>
+  <si>
+    <t>turret</t>
+  </si>
+  <si>
+    <t>EA 23.210</t>
+  </si>
+  <si>
+    <t>auto turret</t>
+  </si>
+  <si>
+    <t>オートタレット</t>
+  </si>
+  <si>
+    <t>trooper</t>
+  </si>
+  <si>
+    <t>EA 23.211</t>
+  </si>
+  <si>
+    <t>トルーパー</t>
+  </si>
+  <si>
+    <t>mech_angel</t>
+  </si>
+  <si>
+    <t>A.I.R</t>
+  </si>
+  <si>
+    <t>mech_death</t>
+  </si>
+  <si>
+    <t>EA 23.214</t>
+  </si>
+  <si>
+    <t>murderball</t>
+  </si>
+  <si>
+    <t>マーダーボール</t>
+  </si>
+  <si>
+    <t>putty_mech_b</t>
+  </si>
+  <si>
+    <t>EA 23.216</t>
+  </si>
+  <si>
+    <t>beth failure</t>
+  </si>
+  <si>
+    <t>ベス失敗作</t>
+  </si>
+  <si>
+    <t>rocketman</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>デーヴ</t>
+  </si>
+  <si>
+    <t>erishe</t>
+  </si>
+  <si>
+    <t>EA 23.223</t>
+  </si>
+  <si>
+    <t>エリシェ</t>
+  </si>
+  <si>
+    <t>Elean little girl</t>
+  </si>
+  <si>
+    <t>エレアの少女</t>
+  </si>
+  <si>
+    <t>dog_ves</t>
+  </si>
+  <si>
+    <t>EA 23.224</t>
+  </si>
+  <si>
+    <t>puppy named "Vesel"</t>
+  </si>
+  <si>
+    <t>「ヴェセル」と名付けられた仔犬</t>
+  </si>
+  <si>
+    <t>keeper_garden</t>
+  </si>
+  <si>
+    <t>Keeper of the Garden</t>
+  </si>
+  <si>
+    <t>庭の主</t>
+  </si>
+  <si>
+    <t>swordkeeper2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innos Tur'as 2 </t>
+  </si>
+  <si>
+    <t>イノス＝トゥルス2</t>
+  </si>
+  <si>
+    <t>namamani2</t>
+  </si>
+  <si>
+    <t>EA 23.225</t>
+  </si>
+  <si>
+    <t>memoryless</t>
+  </si>
+  <si>
+    <t>記憶を失った</t>
+  </si>
+  <si>
+    <t>EA 23.230</t>
+  </si>
+  <si>
+    <t>Mages guild clerk</t>
+  </si>
+  <si>
+    <t>魔術師ギルドの受付嬢</t>
+  </si>
+  <si>
+    <t>Merchants guild clerk</t>
+  </si>
+  <si>
+    <t>商人ギルドの受付嬢</t>
+  </si>
+  <si>
+    <t>Fighters guild clerk</t>
+  </si>
+  <si>
+    <t>戦士ギルドの受付嬢</t>
+  </si>
+  <si>
+    <t>namamani</t>
+  </si>
+  <si>
+    <t>EA 23.231</t>
+  </si>
+  <si>
+    <t>machinist</t>
+  </si>
+  <si>
+    <t>鋼の</t>
+  </si>
+  <si>
+    <t>vampire</t>
+  </si>
+  <si>
+    <t>吸血鬼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vampire </t>
+  </si>
+  <si>
+    <t>EA 23.232</t>
+  </si>
+  <si>
+    <t>bat_trans</t>
+  </si>
+  <si>
+    <t>EA 23.236</t>
+  </si>
+  <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>EA 23.239</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>shark_mech</t>
+  </si>
+  <si>
+    <t>EA 23.240</t>
+  </si>
+  <si>
+    <t>machine shark</t>
+  </si>
+  <si>
+    <t>機械鮫</t>
+  </si>
+  <si>
+    <t>cocoon</t>
+  </si>
+  <si>
+    <t>EA 23.242</t>
+  </si>
+  <si>
+    <t>コクーン</t>
+  </si>
+  <si>
+    <t>sorin</t>
+  </si>
+  <si>
+    <t>EA 23.249</t>
+  </si>
+  <si>
+    <t>Sorin</t>
+  </si>
+  <si>
+    <t>ソリン</t>
+  </si>
+  <si>
+    <t>Magus</t>
+  </si>
+  <si>
+    <t>魔道士</t>
+  </si>
+  <si>
+    <t>horome</t>
+  </si>
+  <si>
+    <t>EA 23.250</t>
+  </si>
+  <si>
+    <t>Horome</t>
+  </si>
+  <si>
+    <t>ホロメ</t>
+  </si>
+  <si>
+    <t>Goddess of Moonshadow</t>
+  </si>
+  <si>
+    <t>月影の</t>
+  </si>
+  <si>
+    <t>eyth</t>
+  </si>
+  <si>
+    <t>EA 23.251</t>
+  </si>
+  <si>
+    <t>Eyth</t>
+  </si>
+  <si>
+    <t>エイス</t>
+  </si>
+  <si>
+    <t>God of Infidel</t>
+  </si>
+  <si>
+    <t>無の</t>
+  </si>
+  <si>
+    <t>tarântula</t>
+  </si>
+  <si>
+    <t>cogumelo monstro</t>
+  </si>
+  <si>
+    <t>perseguidor</t>
+  </si>
+  <si>
+    <t>guerreiro dente de dragão</t>
+  </si>
+  <si>
+    <t>boxeador homem-lagarto</t>
+  </si>
+  <si>
+    <t>estrela-do-mar</t>
+  </si>
+  <si>
+    <t>aranha vampira</t>
+  </si>
+  <si>
+    <t>paralisador</t>
+  </si>
+  <si>
+    <t>rainha aranha sombria</t>
+  </si>
+  <si>
+    <t>arqueiro centauro</t>
+  </si>
+  <si>
+    <t>falha</t>
+  </si>
+  <si>
+    <t>bastião</t>
+  </si>
+  <si>
+    <t>escaravelho</t>
+  </si>
+  <si>
+    <t>torre automática</t>
+  </si>
+  <si>
+    <t>soldado</t>
+  </si>
+  <si>
+    <t>bola assassina</t>
+  </si>
+  <si>
+    <t>falha beth</t>
+  </si>
+  <si>
+    <t>filhote chamado "Vesel"</t>
+  </si>
+  <si>
+    <t>Guardião do Jardim</t>
+  </si>
+  <si>
+    <t>Innos Tur'as 2</t>
+  </si>
+  <si>
+    <t>vampiro</t>
+  </si>
+  <si>
+    <t>morcego</t>
+  </si>
+  <si>
+    <t>tubarão mecânico</t>
+  </si>
+  <si>
+    <t>casulo</t>
+  </si>
+  <si>
+    <t>mão venenosa</t>
+  </si>
+  <si>
+    <t>perfurador de céus</t>
+  </si>
+  <si>
+    <t>mercenário despreocupado</t>
+  </si>
+  <si>
+    <t>Chefe da Fábrica</t>
+  </si>
+  <si>
+    <t>ouvinte do vento</t>
+  </si>
+  <si>
+    <t>mensageiro de Vindale</t>
+  </si>
+  <si>
+    <t>dragão marinho esquecido de Lurie</t>
+  </si>
+  <si>
+    <t>Soldado Magitek</t>
+  </si>
+  <si>
+    <t>Senhor da Casa de Curry «Dragões &amp; Especiarias»</t>
+  </si>
+  <si>
+    <t>Dragão de Fogo</t>
+  </si>
+  <si>
+    <t>Impuro</t>
+  </si>
+  <si>
+    <t>chefe do orfanato</t>
+  </si>
+  <si>
+    <t>garotinha Elean</t>
+  </si>
+  <si>
+    <t>sem memória</t>
+  </si>
+  <si>
+    <t>escriturário da guilda dos magos</t>
+  </si>
+  <si>
+    <t>escriturário da guilda dos mercadores</t>
+  </si>
+  <si>
+    <t>escriturário da guilda dos lutadores</t>
+  </si>
+  <si>
+    <t>maquinista</t>
+  </si>
+  <si>
+    <t>gato prateado</t>
+  </si>
+  <si>
+    <t>Deusa da Sombra Lunar</t>
+  </si>
+  <si>
+    <t>Deus dos Infiéis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -6445,28 +7162,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L490"/>
+  <dimension ref="A1:L542"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D406" sqref="D406:D416"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J536" sqref="J536"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="16" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="174.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="174.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="144.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="144.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27.25" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6504,7 +7221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -6530,7 +7247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -6547,7 +7264,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -6573,7 +7290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -6590,7 +7307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -6607,7 +7324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -6624,7 +7341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -6641,7 +7358,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -6658,7 +7375,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -6675,7 +7392,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -6692,7 +7409,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -6709,7 +7426,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -6735,7 +7452,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>124</v>
       </c>
@@ -6752,7 +7469,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>131</v>
       </c>
@@ -6769,7 +7486,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -6786,7 +7503,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -6803,7 +7520,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>174</v>
       </c>
@@ -6820,7 +7537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>176</v>
       </c>
@@ -6846,7 +7563,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>178</v>
       </c>
@@ -6863,7 +7580,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -6880,7 +7597,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -6897,7 +7614,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -6923,7 +7640,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>205</v>
       </c>
@@ -6940,7 +7657,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -6957,7 +7674,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>213</v>
       </c>
@@ -6974,7 +7691,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>219</v>
       </c>
@@ -6991,7 +7708,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>229</v>
       </c>
@@ -7008,7 +7725,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>235</v>
       </c>
@@ -7034,7 +7751,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>238</v>
       </c>
@@ -7060,7 +7777,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -7077,7 +7794,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>247</v>
       </c>
@@ -7094,7 +7811,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>250</v>
       </c>
@@ -7111,7 +7828,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>252</v>
       </c>
@@ -7137,7 +7854,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>254</v>
       </c>
@@ -7154,7 +7871,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>260</v>
       </c>
@@ -7171,7 +7888,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>265</v>
       </c>
@@ -7188,7 +7905,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>267</v>
       </c>
@@ -7214,7 +7931,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>269</v>
       </c>
@@ -7231,7 +7948,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>272</v>
       </c>
@@ -7248,7 +7965,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>306</v>
       </c>
@@ -7274,7 +7991,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>313</v>
       </c>
@@ -7291,7 +8008,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>317</v>
       </c>
@@ -7317,7 +8034,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>326</v>
       </c>
@@ -7334,7 +8051,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>328</v>
       </c>
@@ -7360,7 +8077,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>330</v>
       </c>
@@ -7377,7 +8094,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>332</v>
       </c>
@@ -7403,7 +8120,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>337</v>
       </c>
@@ -7420,7 +8137,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>339</v>
       </c>
@@ -7437,7 +8154,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>342</v>
       </c>
@@ -7463,7 +8180,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>344</v>
       </c>
@@ -7480,7 +8197,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>349</v>
       </c>
@@ -7497,7 +8214,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>355</v>
       </c>
@@ -7529,7 +8246,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>361</v>
       </c>
@@ -7546,7 +8263,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>363</v>
       </c>
@@ -7563,7 +8280,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>371</v>
       </c>
@@ -7589,7 +8306,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>373</v>
       </c>
@@ -7606,7 +8323,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>387</v>
       </c>
@@ -7623,7 +8340,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>389</v>
       </c>
@@ -7649,7 +8366,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>395</v>
       </c>
@@ -7666,7 +8383,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>397</v>
       </c>
@@ -7683,7 +8400,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>403</v>
       </c>
@@ -7700,7 +8417,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>411</v>
       </c>
@@ -7726,7 +8443,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>418</v>
       </c>
@@ -7752,7 +8469,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>442</v>
       </c>
@@ -7769,7 +8486,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>445</v>
       </c>
@@ -7786,7 +8503,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>448</v>
       </c>
@@ -7803,7 +8520,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>453</v>
       </c>
@@ -7820,7 +8537,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>459</v>
       </c>
@@ -7837,7 +8554,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>462</v>
       </c>
@@ -7854,7 +8571,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>471</v>
       </c>
@@ -7871,7 +8588,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>476</v>
       </c>
@@ -7897,7 +8614,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>478</v>
       </c>
@@ -7923,7 +8640,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>481</v>
       </c>
@@ -7949,7 +8666,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>500</v>
       </c>
@@ -7966,7 +8683,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>502</v>
       </c>
@@ -7983,7 +8700,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>505</v>
       </c>
@@ -8009,7 +8726,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
         <v>510</v>
       </c>
@@ -8026,7 +8743,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>522</v>
       </c>
@@ -8043,7 +8760,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
         <v>525</v>
       </c>
@@ -8060,7 +8777,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
         <v>527</v>
       </c>
@@ -8077,7 +8794,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
         <v>532</v>
       </c>
@@ -8094,7 +8811,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>534</v>
       </c>
@@ -8111,7 +8828,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
         <v>537</v>
       </c>
@@ -8128,7 +8845,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
         <v>543</v>
       </c>
@@ -8145,7 +8862,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
         <v>545</v>
       </c>
@@ -8162,7 +8879,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
         <v>552</v>
       </c>
@@ -8179,7 +8896,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
         <v>554</v>
       </c>
@@ -8196,7 +8913,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
         <v>557</v>
       </c>
@@ -8213,7 +8930,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
         <v>562</v>
       </c>
@@ -8230,7 +8947,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
         <v>568</v>
       </c>
@@ -8247,7 +8964,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
         <v>576</v>
       </c>
@@ -8273,7 +8990,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
         <v>588</v>
       </c>
@@ -8290,7 +9007,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>604</v>
       </c>
@@ -8307,7 +9024,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
         <v>620</v>
       </c>
@@ -8324,7 +9041,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
         <v>626</v>
       </c>
@@ -8350,7 +9067,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
         <v>631</v>
       </c>
@@ -8367,7 +9084,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
         <v>633</v>
       </c>
@@ -8384,7 +9101,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
         <v>638</v>
       </c>
@@ -8401,7 +9118,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
         <v>641</v>
       </c>
@@ -8418,7 +9135,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12">
       <c r="A102" t="s">
         <v>643</v>
       </c>
@@ -8435,7 +9152,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
         <v>646</v>
       </c>
@@ -8461,7 +9178,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
         <v>651</v>
       </c>
@@ -8478,7 +9195,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
         <v>653</v>
       </c>
@@ -8495,7 +9212,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
         <v>668</v>
       </c>
@@ -8521,7 +9238,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
         <v>678</v>
       </c>
@@ -8547,7 +9264,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
         <v>683</v>
       </c>
@@ -8564,7 +9281,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
         <v>689</v>
       </c>
@@ -8590,7 +9307,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
         <v>697</v>
       </c>
@@ -8607,7 +9324,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
         <v>699</v>
       </c>
@@ -8624,7 +9341,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
         <v>702</v>
       </c>
@@ -8641,7 +9358,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
         <v>705</v>
       </c>
@@ -8658,7 +9375,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
         <v>707</v>
       </c>
@@ -8675,7 +9392,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
         <v>710</v>
       </c>
@@ -8692,7 +9409,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
         <v>713</v>
       </c>
@@ -8718,7 +9435,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
         <v>726</v>
       </c>
@@ -8735,7 +9452,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
         <v>729</v>
       </c>
@@ -8761,7 +9478,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
         <v>732</v>
       </c>
@@ -8778,7 +9495,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
         <v>735</v>
       </c>
@@ -8804,7 +9521,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
         <v>738</v>
       </c>
@@ -8830,7 +9547,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
         <v>741</v>
       </c>
@@ -8847,7 +9564,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
         <v>744</v>
       </c>
@@ -8864,7 +9581,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
         <v>747</v>
       </c>
@@ -8881,7 +9598,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
         <v>750</v>
       </c>
@@ -8898,7 +9615,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
         <v>753</v>
       </c>
@@ -8915,7 +9632,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
         <v>756</v>
       </c>
@@ -8932,7 +9649,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
         <v>759</v>
       </c>
@@ -8958,7 +9675,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12">
       <c r="A129" t="s">
         <v>764</v>
       </c>
@@ -8975,7 +9692,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
         <v>767</v>
       </c>
@@ -8992,7 +9709,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
         <v>769</v>
       </c>
@@ -9018,7 +9735,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
         <v>772</v>
       </c>
@@ -9044,7 +9761,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12">
       <c r="A133" t="s">
         <v>774</v>
       </c>
@@ -9061,7 +9778,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
         <v>777</v>
       </c>
@@ -9087,7 +9804,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
         <v>788</v>
       </c>
@@ -9113,7 +9830,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
         <v>790</v>
       </c>
@@ -9130,7 +9847,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
         <v>821</v>
       </c>
@@ -9156,7 +9873,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
         <v>824</v>
       </c>
@@ -9182,7 +9899,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
         <v>827</v>
       </c>
@@ -9208,7 +9925,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12">
       <c r="A140" t="s">
         <v>830</v>
       </c>
@@ -9234,7 +9951,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12">
       <c r="A141" t="s">
         <v>838</v>
       </c>
@@ -9260,7 +9977,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12">
       <c r="A142" t="s">
         <v>844</v>
       </c>
@@ -9286,7 +10003,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12">
       <c r="A143" t="s">
         <v>846</v>
       </c>
@@ -9303,7 +10020,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12">
       <c r="A144" t="s">
         <v>852</v>
       </c>
@@ -9320,7 +10037,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12">
       <c r="A145" t="s">
         <v>857</v>
       </c>
@@ -9337,7 +10054,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12">
       <c r="A146" t="s">
         <v>863</v>
       </c>
@@ -9354,7 +10071,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12">
       <c r="A147" t="s">
         <v>872</v>
       </c>
@@ -9371,7 +10088,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12">
       <c r="A148" t="s">
         <v>875</v>
       </c>
@@ -9397,7 +10114,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12">
       <c r="A149" t="s">
         <v>880</v>
       </c>
@@ -9423,7 +10140,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12">
       <c r="A150" t="s">
         <v>883</v>
       </c>
@@ -9449,7 +10166,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12">
       <c r="A151" t="s">
         <v>887</v>
       </c>
@@ -9475,7 +10192,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12">
       <c r="A152" t="s">
         <v>902</v>
       </c>
@@ -9492,7 +10209,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12">
       <c r="A153" t="s">
         <v>905</v>
       </c>
@@ -9509,7 +10226,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12">
       <c r="A154" t="s">
         <v>910</v>
       </c>
@@ -9526,7 +10243,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12">
       <c r="A155" t="s">
         <v>913</v>
       </c>
@@ -9543,7 +10260,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12">
       <c r="A156" t="s">
         <v>924</v>
       </c>
@@ -9569,7 +10286,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12">
       <c r="A157" t="s">
         <v>937</v>
       </c>
@@ -9595,7 +10312,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12">
       <c r="A158" t="s">
         <v>940</v>
       </c>
@@ -9612,7 +10329,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12">
       <c r="A159" t="s">
         <v>942</v>
       </c>
@@ -9638,7 +10355,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12">
       <c r="A160" t="s">
         <v>945</v>
       </c>
@@ -9664,7 +10381,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12">
       <c r="A161" t="s">
         <v>948</v>
       </c>
@@ -9681,7 +10398,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12">
       <c r="A162" t="s">
         <v>951</v>
       </c>
@@ -9698,7 +10415,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12">
       <c r="A163" t="s">
         <v>953</v>
       </c>
@@ -9724,7 +10441,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12">
       <c r="A164" t="s">
         <v>959</v>
       </c>
@@ -9750,7 +10467,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12">
       <c r="A165" t="s">
         <v>962</v>
       </c>
@@ -9776,7 +10493,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12">
       <c r="A166" t="s">
         <v>966</v>
       </c>
@@ -9793,7 +10510,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12">
       <c r="A167" t="s">
         <v>969</v>
       </c>
@@ -9810,7 +10527,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12">
       <c r="A168" t="s">
         <v>971</v>
       </c>
@@ -9827,7 +10544,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12">
       <c r="A169" t="s">
         <v>974</v>
       </c>
@@ -9853,7 +10570,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12">
       <c r="A170" t="s">
         <v>976</v>
       </c>
@@ -9879,7 +10596,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12">
       <c r="A171" t="s">
         <v>985</v>
       </c>
@@ -9905,7 +10622,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12">
       <c r="A172" t="s">
         <v>991</v>
       </c>
@@ -9922,7 +10639,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12">
       <c r="A173" t="s">
         <v>1002</v>
       </c>
@@ -9939,7 +10656,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12">
       <c r="A174" t="s">
         <v>1012</v>
       </c>
@@ -9965,7 +10682,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12">
       <c r="A175" t="s">
         <v>1018</v>
       </c>
@@ -9991,7 +10708,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12">
       <c r="A176" t="s">
         <v>1057</v>
       </c>
@@ -10017,7 +10734,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12">
       <c r="A177" t="s">
         <v>1059</v>
       </c>
@@ -10043,7 +10760,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12">
       <c r="A178" t="s">
         <v>1064</v>
       </c>
@@ -10069,7 +10786,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12">
       <c r="A179" t="s">
         <v>1069</v>
       </c>
@@ -10095,7 +10812,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12">
       <c r="A180" t="s">
         <v>1075</v>
       </c>
@@ -10121,7 +10838,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12">
       <c r="A181" t="s">
         <v>1091</v>
       </c>
@@ -10147,7 +10864,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12">
       <c r="A182" t="s">
         <v>1096</v>
       </c>
@@ -10173,7 +10890,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12">
       <c r="A183" t="s">
         <v>1100</v>
       </c>
@@ -10199,7 +10916,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12">
       <c r="A184" t="s">
         <v>1126</v>
       </c>
@@ -10216,7 +10933,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12">
       <c r="A185" t="s">
         <v>1139</v>
       </c>
@@ -10242,7 +10959,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12">
       <c r="A186" t="s">
         <v>1144</v>
       </c>
@@ -10268,7 +10985,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12">
       <c r="A187" t="s">
         <v>1152</v>
       </c>
@@ -10285,7 +11002,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12">
       <c r="A188" t="s">
         <v>1154</v>
       </c>
@@ -10302,7 +11019,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12">
       <c r="A189" t="s">
         <v>1158</v>
       </c>
@@ -10328,7 +11045,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12">
       <c r="A190" t="s">
         <v>1160</v>
       </c>
@@ -10354,7 +11071,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12">
       <c r="A191" t="s">
         <v>1163</v>
       </c>
@@ -10380,7 +11097,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12">
       <c r="A192" t="s">
         <v>1165</v>
       </c>
@@ -10406,7 +11123,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12">
       <c r="A193" t="s">
         <v>1170</v>
       </c>
@@ -10432,7 +11149,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12">
       <c r="A194" t="s">
         <v>1175</v>
       </c>
@@ -10458,7 +11175,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12">
       <c r="A195" t="s">
         <v>1178</v>
       </c>
@@ -10484,7 +11201,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12">
       <c r="A196" t="s">
         <v>1183</v>
       </c>
@@ -10510,7 +11227,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12">
       <c r="A197" t="s">
         <v>1186</v>
       </c>
@@ -10527,7 +11244,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12">
       <c r="A198" t="s">
         <v>1189</v>
       </c>
@@ -10553,7 +11270,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12">
       <c r="A199" t="s">
         <v>1196</v>
       </c>
@@ -10570,7 +11287,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12">
       <c r="A200" t="s">
         <v>1199</v>
       </c>
@@ -10587,7 +11304,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12">
       <c r="A201" t="s">
         <v>1201</v>
       </c>
@@ -10604,7 +11321,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12">
       <c r="A202" t="s">
         <v>1204</v>
       </c>
@@ -10630,7 +11347,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12">
       <c r="A203" t="s">
         <v>1222</v>
       </c>
@@ -10656,7 +11373,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12">
       <c r="A204" t="s">
         <v>1227</v>
       </c>
@@ -10682,7 +11399,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12">
       <c r="A205" t="s">
         <v>1232</v>
       </c>
@@ -10708,7 +11425,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12">
       <c r="A206" t="s">
         <v>1237</v>
       </c>
@@ -10734,7 +11451,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12">
       <c r="A207" t="s">
         <v>1242</v>
       </c>
@@ -10760,7 +11477,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12">
       <c r="A208" t="s">
         <v>1247</v>
       </c>
@@ -10783,7 +11500,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12">
       <c r="A209" t="s">
         <v>1251</v>
       </c>
@@ -10809,7 +11526,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12">
       <c r="A210" t="s">
         <v>615</v>
       </c>
@@ -10835,7 +11552,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12">
       <c r="A211" t="s">
         <v>721</v>
       </c>
@@ -10861,7 +11578,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12">
       <c r="A212" t="s">
         <v>1212</v>
       </c>
@@ -10887,7 +11604,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12">
       <c r="A213" t="s">
         <v>635</v>
       </c>
@@ -10904,7 +11621,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12">
       <c r="A214" t="s">
         <v>673</v>
       </c>
@@ -10921,7 +11638,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12">
       <c r="A215" t="s">
         <v>928</v>
       </c>
@@ -10947,7 +11664,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12">
       <c r="A216" t="s">
         <v>931</v>
       </c>
@@ -10973,7 +11690,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12">
       <c r="A217" t="s">
         <v>934</v>
       </c>
@@ -10999,7 +11716,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12">
       <c r="A218" t="s">
         <v>1209</v>
       </c>
@@ -11016,7 +11733,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12">
       <c r="A219" t="s">
         <v>239</v>
       </c>
@@ -11042,7 +11759,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12">
       <c r="A220" t="s">
         <v>240</v>
       </c>
@@ -11068,7 +11785,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12">
       <c r="A221" t="s">
         <v>242</v>
       </c>
@@ -11094,7 +11811,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12">
       <c r="A222" t="s">
         <v>320</v>
       </c>
@@ -11120,7 +11837,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12">
       <c r="A223" t="s">
         <v>499</v>
       </c>
@@ -11146,7 +11863,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12">
       <c r="A224" t="s">
         <v>886</v>
       </c>
@@ -11172,7 +11889,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12">
       <c r="A225" t="s">
         <v>1007</v>
       </c>
@@ -11198,7 +11915,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12">
       <c r="A226" t="s">
         <v>1081</v>
       </c>
@@ -11224,7 +11941,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12">
       <c r="A227" t="s">
         <v>1123</v>
       </c>
@@ -11250,7 +11967,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12">
       <c r="A228" t="s">
         <v>1217</v>
       </c>
@@ -11276,7 +11993,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12">
       <c r="A229" t="s">
         <v>529</v>
       </c>
@@ -11293,7 +12010,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12">
       <c r="A230" t="s">
         <v>549</v>
       </c>
@@ -11310,7 +12027,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12">
       <c r="A231" t="s">
         <v>584</v>
       </c>
@@ -11336,7 +12053,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12">
       <c r="A232" t="s">
         <v>921</v>
       </c>
@@ -11362,7 +12079,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12">
       <c r="A233" t="s">
         <v>923</v>
       </c>
@@ -11388,7 +12105,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12">
       <c r="A234" t="s">
         <v>468</v>
       </c>
@@ -11405,7 +12122,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12">
       <c r="A235" t="s">
         <v>581</v>
       </c>
@@ -11431,7 +12148,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12">
       <c r="A236" t="s">
         <v>623</v>
       </c>
@@ -11448,7 +12165,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12">
       <c r="A237" t="s">
         <v>241</v>
       </c>
@@ -11474,7 +12191,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12">
       <c r="A238" t="s">
         <v>675</v>
       </c>
@@ -11491,7 +12208,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12">
       <c r="A239" t="s">
         <v>718</v>
       </c>
@@ -11508,7 +12225,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12">
       <c r="A240" t="s">
         <v>907</v>
       </c>
@@ -11525,7 +12242,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12">
       <c r="A241" t="s">
         <v>818</v>
       </c>
@@ -11542,7 +12259,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12">
       <c r="A242" t="s">
         <v>65</v>
       </c>
@@ -11559,7 +12276,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12">
       <c r="A243" t="s">
         <v>1256</v>
       </c>
@@ -11585,7 +12302,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12">
       <c r="A244" t="s">
         <v>414</v>
       </c>
@@ -11602,7 +12319,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12">
       <c r="A245" t="s">
         <v>925</v>
       </c>
@@ -11628,7 +12345,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12">
       <c r="A246" t="s">
         <v>979</v>
       </c>
@@ -11654,7 +12371,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12">
       <c r="A247" t="s">
         <v>982</v>
       </c>
@@ -11680,7 +12397,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12">
       <c r="A248" t="s">
         <v>565</v>
       </c>
@@ -11697,7 +12414,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12">
       <c r="A249" t="s">
         <v>57</v>
       </c>
@@ -11714,7 +12431,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12">
       <c r="A250" t="s">
         <v>61</v>
       </c>
@@ -11731,7 +12448,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12">
       <c r="A251" t="s">
         <v>103</v>
       </c>
@@ -11748,7 +12465,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12">
       <c r="A252" t="s">
         <v>76</v>
       </c>
@@ -11765,7 +12482,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12">
       <c r="A253" t="s">
         <v>25</v>
       </c>
@@ -11791,7 +12508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12">
       <c r="A254" t="s">
         <v>27</v>
       </c>
@@ -11817,7 +12534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12">
       <c r="A255" t="s">
         <v>63</v>
       </c>
@@ -11843,7 +12560,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12">
       <c r="A256" t="s">
         <v>82</v>
       </c>
@@ -11869,7 +12586,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12">
       <c r="A257" t="s">
         <v>85</v>
       </c>
@@ -11895,7 +12612,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12">
       <c r="A258" t="s">
         <v>99</v>
       </c>
@@ -11921,7 +12638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12">
       <c r="A259" t="s">
         <v>101</v>
       </c>
@@ -11947,7 +12664,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12">
       <c r="A260" t="s">
         <v>108</v>
       </c>
@@ -11973,7 +12690,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12">
       <c r="A261" t="s">
         <v>114</v>
       </c>
@@ -11999,7 +12716,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12">
       <c r="A262" t="s">
         <v>170</v>
       </c>
@@ -12025,7 +12742,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12">
       <c r="A263" t="s">
         <v>196</v>
       </c>
@@ -12051,7 +12768,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12">
       <c r="A264" t="s">
         <v>221</v>
       </c>
@@ -12077,7 +12794,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12">
       <c r="A265" t="s">
         <v>223</v>
       </c>
@@ -12103,7 +12820,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12">
       <c r="A266" t="s">
         <v>408</v>
       </c>
@@ -12129,7 +12846,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12">
       <c r="A267" t="s">
         <v>785</v>
       </c>
@@ -12155,7 +12872,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12">
       <c r="A268" t="s">
         <v>964</v>
       </c>
@@ -12181,7 +12898,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12">
       <c r="A269" t="s">
         <v>54</v>
       </c>
@@ -12198,7 +12915,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12">
       <c r="A270" t="s">
         <v>117</v>
       </c>
@@ -12224,7 +12941,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12">
       <c r="A271" t="s">
         <v>160</v>
       </c>
@@ -12250,7 +12967,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12">
       <c r="A272" t="s">
         <v>274</v>
       </c>
@@ -12276,7 +12993,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12">
       <c r="A273" t="s">
         <v>278</v>
       </c>
@@ -12302,7 +13019,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12">
       <c r="A274" t="s">
         <v>288</v>
       </c>
@@ -12328,7 +13045,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -12354,7 +13071,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12">
       <c r="A276" t="s">
         <v>298</v>
       </c>
@@ -12380,7 +13097,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12">
       <c r="A277" t="s">
         <v>420</v>
       </c>
@@ -12406,7 +13123,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12">
       <c r="A278" t="s">
         <v>423</v>
       </c>
@@ -12432,7 +13149,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12">
       <c r="A279" t="s">
         <v>426</v>
       </c>
@@ -12458,7 +13175,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12">
       <c r="A280" t="s">
         <v>428</v>
       </c>
@@ -12484,7 +13201,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12">
       <c r="A281" t="s">
         <v>203</v>
       </c>
@@ -12510,7 +13227,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12">
       <c r="A282" t="s">
         <v>434</v>
       </c>
@@ -12536,7 +13253,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12">
       <c r="A283" t="s">
         <v>437</v>
       </c>
@@ -12562,7 +13279,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12">
       <c r="A284" t="s">
         <v>465</v>
       </c>
@@ -12588,7 +13305,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12">
       <c r="A285" t="s">
         <v>800</v>
       </c>
@@ -12614,7 +13331,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12">
       <c r="A286" t="s">
         <v>805</v>
       </c>
@@ -12631,7 +13348,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12">
       <c r="A287" t="s">
         <v>811</v>
       </c>
@@ -12648,7 +13365,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12">
       <c r="A288" t="s">
         <v>1136</v>
       </c>
@@ -12674,7 +13391,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12">
       <c r="A289" t="s">
         <v>94</v>
       </c>
@@ -12691,7 +13408,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12">
       <c r="A290" t="s">
         <v>808</v>
       </c>
@@ -12708,7 +13425,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12">
       <c r="A291" t="s">
         <v>815</v>
       </c>
@@ -12725,7 +13442,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12">
       <c r="A292" t="s">
         <v>88</v>
       </c>
@@ -12742,7 +13459,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12">
       <c r="A293" t="s">
         <v>1194</v>
       </c>
@@ -12759,7 +13476,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12">
       <c r="A294" t="s">
         <v>686</v>
       </c>
@@ -12785,7 +13502,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12">
       <c r="A295" t="s">
         <v>835</v>
       </c>
@@ -12811,7 +13528,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12">
       <c r="A296" t="s">
         <v>34</v>
       </c>
@@ -12837,7 +13554,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12">
       <c r="A297" t="s">
         <v>105</v>
       </c>
@@ -12863,7 +13580,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12">
       <c r="A298" t="s">
         <v>145</v>
       </c>
@@ -12889,7 +13606,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12">
       <c r="A299" t="s">
         <v>262</v>
       </c>
@@ -12906,7 +13623,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12">
       <c r="A300" t="s">
         <v>375</v>
       </c>
@@ -12923,7 +13640,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12">
       <c r="A301" t="s">
         <v>516</v>
       </c>
@@ -12949,7 +13666,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12">
       <c r="A302" t="s">
         <v>585</v>
       </c>
@@ -12975,7 +13692,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12">
       <c r="A303" t="s">
         <v>795</v>
       </c>
@@ -13001,7 +13718,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12">
       <c r="A304" t="s">
         <v>841</v>
       </c>
@@ -13027,7 +13744,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12">
       <c r="A305" t="s">
         <v>854</v>
       </c>
@@ -13044,7 +13761,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12">
       <c r="A306" t="s">
         <v>995</v>
       </c>
@@ -13061,7 +13778,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12">
       <c r="A307" t="s">
         <v>301</v>
       </c>
@@ -13087,7 +13804,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12">
       <c r="A308" t="s">
         <v>311</v>
       </c>
@@ -13113,7 +13830,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12">
       <c r="A309" t="s">
         <v>956</v>
       </c>
@@ -13139,7 +13856,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12">
       <c r="A310" t="s">
         <v>155</v>
       </c>
@@ -13165,7 +13882,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12">
       <c r="A311" t="s">
         <v>1086</v>
       </c>
@@ -13191,7 +13908,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12">
       <c r="A312" t="s">
         <v>480</v>
       </c>
@@ -13217,7 +13934,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12">
       <c r="A313" t="s">
         <v>1021</v>
       </c>
@@ -13243,7 +13960,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12">
       <c r="A314" t="s">
         <v>1030</v>
       </c>
@@ -13269,7 +13986,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12">
       <c r="A315" t="s">
         <v>1035</v>
       </c>
@@ -13295,7 +14012,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12">
       <c r="A316" t="s">
         <v>1164</v>
       </c>
@@ -13321,7 +14038,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12">
       <c r="A317" t="s">
         <v>210</v>
       </c>
@@ -13338,7 +14055,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12">
       <c r="A318" t="s">
         <v>918</v>
       </c>
@@ -13364,7 +14081,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12">
       <c r="A319" t="s">
         <v>1149</v>
       </c>
@@ -13381,7 +14098,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12">
       <c r="A320" t="s">
         <v>28</v>
       </c>
@@ -13407,7 +14124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12">
       <c r="A321" t="s">
         <v>237</v>
       </c>
@@ -13433,7 +14150,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12">
       <c r="A322" t="s">
         <v>277</v>
       </c>
@@ -13459,7 +14176,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12">
       <c r="A323" t="s">
         <v>29</v>
       </c>
@@ -13485,7 +14202,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12">
       <c r="A324" t="s">
         <v>51</v>
       </c>
@@ -13502,7 +14219,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12">
       <c r="A325" t="s">
         <v>316</v>
       </c>
@@ -13519,7 +14236,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12">
       <c r="A326" t="s">
         <v>473</v>
       </c>
@@ -13536,7 +14253,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12">
       <c r="A327" t="s">
         <v>1072</v>
       </c>
@@ -13553,7 +14270,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12">
       <c r="A328" t="s">
         <v>1022</v>
       </c>
@@ -13579,7 +14296,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12">
       <c r="A329" t="s">
         <v>1025</v>
       </c>
@@ -13605,7 +14322,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12">
       <c r="A330" t="s">
         <v>915</v>
       </c>
@@ -13631,7 +14348,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12">
       <c r="A331" t="s">
         <v>440</v>
       </c>
@@ -13657,7 +14374,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12">
       <c r="A332" t="s">
         <v>23</v>
       </c>
@@ -13674,7 +14391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12">
       <c r="A333" t="s">
         <v>1004</v>
       </c>
@@ -13691,7 +14408,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12">
       <c r="A334" t="s">
         <v>150</v>
       </c>
@@ -13717,7 +14434,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12">
       <c r="A335" t="s">
         <v>431</v>
       </c>
@@ -13743,7 +14460,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12">
       <c r="A336" t="s">
         <v>393</v>
       </c>
@@ -13769,7 +14486,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12">
       <c r="A337" t="s">
         <v>400</v>
       </c>
@@ -13786,7 +14503,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12">
       <c r="A338" t="s">
         <v>405</v>
       </c>
@@ -13803,7 +14520,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12">
       <c r="A339" t="s">
         <v>540</v>
       </c>
@@ -13820,7 +14537,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12">
       <c r="A340" t="s">
         <v>202</v>
       </c>
@@ -13846,7 +14563,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12">
       <c r="A341" t="s">
         <v>378</v>
       </c>
@@ -13863,7 +14580,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12">
       <c r="A342" t="s">
         <v>381</v>
       </c>
@@ -13880,7 +14597,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12">
       <c r="A343" t="s">
         <v>384</v>
       </c>
@@ -13897,7 +14614,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12">
       <c r="A344" t="s">
         <v>599</v>
       </c>
@@ -13923,7 +14640,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12">
       <c r="A345" t="s">
         <v>20</v>
       </c>
@@ -13940,7 +14657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12">
       <c r="A346" t="s">
         <v>71</v>
       </c>
@@ -13957,7 +14674,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12">
       <c r="A347" t="s">
         <v>74</v>
       </c>
@@ -13974,7 +14691,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12">
       <c r="A348" t="s">
         <v>352</v>
       </c>
@@ -13991,7 +14708,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12">
       <c r="A349" t="s">
         <v>79</v>
       </c>
@@ -14008,7 +14725,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12">
       <c r="A350" t="s">
         <v>1121</v>
       </c>
@@ -14025,7 +14742,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12">
       <c r="A351" t="s">
         <v>848</v>
       </c>
@@ -14042,7 +14759,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12">
       <c r="A352" t="s">
         <v>850</v>
       </c>
@@ -14059,7 +14776,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12">
       <c r="A353" t="s">
         <v>42</v>
       </c>
@@ -14076,7 +14793,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12">
       <c r="A354" t="s">
         <v>45</v>
       </c>
@@ -14093,7 +14810,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12">
       <c r="A355" t="s">
         <v>1780</v>
       </c>
@@ -14110,7 +14827,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12">
       <c r="A356" t="s">
         <v>1795</v>
       </c>
@@ -14127,7 +14844,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12">
       <c r="A357" t="s">
         <v>1783</v>
       </c>
@@ -14144,7 +14861,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12">
       <c r="A358" t="s">
         <v>1734</v>
       </c>
@@ -14170,7 +14887,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12">
       <c r="A359" t="s">
         <v>1787</v>
       </c>
@@ -14187,7 +14904,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12">
       <c r="A360" t="s">
         <v>1790</v>
       </c>
@@ -14204,7 +14921,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12">
       <c r="A361" t="s">
         <v>1773</v>
       </c>
@@ -14221,7 +14938,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12">
       <c r="A362" t="s">
         <v>1792</v>
       </c>
@@ -14238,7 +14955,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12">
       <c r="A363" t="s">
         <v>1761</v>
       </c>
@@ -14255,7 +14972,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12">
       <c r="A364" t="s">
         <v>1771</v>
       </c>
@@ -14272,7 +14989,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12">
       <c r="A365" t="s">
         <v>1777</v>
       </c>
@@ -14289,7 +15006,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12">
       <c r="A366" t="s">
         <v>1764</v>
       </c>
@@ -14306,7 +15023,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12">
       <c r="A367" t="s">
         <v>1768</v>
       </c>
@@ -14323,7 +15040,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12">
       <c r="A368" t="s">
         <v>1737</v>
       </c>
@@ -14340,7 +15057,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12">
       <c r="A369" t="s">
         <v>1740</v>
       </c>
@@ -14357,7 +15074,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12">
       <c r="A370" t="s">
         <v>1743</v>
       </c>
@@ -14374,7 +15091,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12">
       <c r="A371" t="s">
         <v>1746</v>
       </c>
@@ -14391,7 +15108,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12">
       <c r="A372" t="s">
         <v>1749</v>
       </c>
@@ -14408,7 +15125,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12">
       <c r="A373" t="s">
         <v>1752</v>
       </c>
@@ -14425,7 +15142,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12">
       <c r="A374" t="s">
         <v>1755</v>
       </c>
@@ -14442,7 +15159,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12">
       <c r="A375" t="s">
         <v>1758</v>
       </c>
@@ -14459,7 +15176,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12">
       <c r="A376" t="s">
         <v>1819</v>
       </c>
@@ -14476,7 +15193,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12">
       <c r="A377" t="s">
         <v>1823</v>
       </c>
@@ -14493,7 +15210,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12">
       <c r="A378" t="s">
         <v>1827</v>
       </c>
@@ -14510,7 +15227,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12">
       <c r="A379" t="s">
         <v>1830</v>
       </c>
@@ -14527,7 +15244,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12">
       <c r="A380" t="s">
         <v>1833</v>
       </c>
@@ -14544,7 +15261,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12">
       <c r="A381" t="s">
         <v>1837</v>
       </c>
@@ -14570,7 +15287,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12">
       <c r="A382" t="s">
         <v>1842</v>
       </c>
@@ -14587,7 +15304,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12">
       <c r="A383" t="s">
         <v>1845</v>
       </c>
@@ -14604,7 +15321,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12">
       <c r="A384" t="s">
         <v>1848</v>
       </c>
@@ -14621,7 +15338,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12">
       <c r="A385" t="s">
         <v>1851</v>
       </c>
@@ -14638,7 +15355,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12">
       <c r="A386" t="s">
         <v>1855</v>
       </c>
@@ -14664,7 +15381,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12">
       <c r="A387" t="s">
         <v>1861</v>
       </c>
@@ -14681,7 +15398,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12">
       <c r="A388" t="s">
         <v>1864</v>
       </c>
@@ -14698,7 +15415,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12">
       <c r="A389" t="s">
         <v>1868</v>
       </c>
@@ -14724,7 +15441,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12">
       <c r="A390" t="s">
         <v>1875</v>
       </c>
@@ -14741,7 +15458,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12">
       <c r="A391" t="s">
         <v>1878</v>
       </c>
@@ -14758,7 +15475,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12">
       <c r="A392" t="s">
         <v>1882</v>
       </c>
@@ -14775,7 +15492,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12">
       <c r="A393" t="s">
         <v>1886</v>
       </c>
@@ -14801,7 +15518,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12">
       <c r="A394" t="s">
         <v>1890</v>
       </c>
@@ -14818,7 +15535,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12">
       <c r="A395" t="s">
         <v>844</v>
       </c>
@@ -14844,7 +15561,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12">
       <c r="A396" t="s">
         <v>1237</v>
       </c>
@@ -14870,7 +15587,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12">
       <c r="A397" t="s">
         <v>1897</v>
       </c>
@@ -14887,7 +15604,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12">
       <c r="A398" t="s">
         <v>1901</v>
       </c>
@@ -14904,7 +15621,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12">
       <c r="A399" t="s">
         <v>1904</v>
       </c>
@@ -14921,7 +15638,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12">
       <c r="A400" t="s">
         <v>1907</v>
       </c>
@@ -14938,7 +15655,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12">
       <c r="A401" t="s">
         <v>1910</v>
       </c>
@@ -14955,7 +15672,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12">
       <c r="A402" t="s">
         <v>1914</v>
       </c>
@@ -14981,7 +15698,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12">
       <c r="A403" t="s">
         <v>1921</v>
       </c>
@@ -15007,7 +15724,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12">
       <c r="A404" t="s">
         <v>1927</v>
       </c>
@@ -15033,7 +15750,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12">
       <c r="A405" t="s">
         <v>1933</v>
       </c>
@@ -15059,7 +15776,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12">
       <c r="A406" t="s">
         <v>1787</v>
       </c>
@@ -15076,7 +15793,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12">
       <c r="A407" t="s">
         <v>1970</v>
       </c>
@@ -15093,7 +15810,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12">
       <c r="A408" t="s">
         <v>1973</v>
       </c>
@@ -15110,7 +15827,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12">
       <c r="A409" t="s">
         <v>1977</v>
       </c>
@@ -15127,7 +15844,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12">
       <c r="A410" t="s">
         <v>1980</v>
       </c>
@@ -15144,7 +15861,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12">
       <c r="A411" t="s">
         <v>1984</v>
       </c>
@@ -15161,7 +15878,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12">
       <c r="A412" t="s">
         <v>1988</v>
       </c>
@@ -15178,7 +15895,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12">
       <c r="A413" t="s">
         <v>1992</v>
       </c>
@@ -15195,7 +15912,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12">
       <c r="A414" t="s">
         <v>1996</v>
       </c>
@@ -15212,7 +15929,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12">
       <c r="A415" t="s">
         <v>1999</v>
       </c>
@@ -15229,7 +15946,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12">
       <c r="A416" t="s">
         <v>2003</v>
       </c>
@@ -15246,7 +15963,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12">
       <c r="A417" t="s">
         <v>780</v>
       </c>
@@ -15272,7 +15989,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12">
       <c r="A418" t="s">
         <v>988</v>
       </c>
@@ -15289,7 +16006,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12">
       <c r="A419" t="s">
         <v>1040</v>
       </c>
@@ -15306,7 +16023,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12">
       <c r="A420" t="s">
         <v>391</v>
       </c>
@@ -15332,7 +16049,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12">
       <c r="A421" t="s">
         <v>1015</v>
       </c>
@@ -15358,7 +16075,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12">
       <c r="A422" t="s">
         <v>126</v>
       </c>
@@ -15384,7 +16101,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12">
       <c r="A423" t="s">
         <v>172</v>
       </c>
@@ -15410,7 +16127,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12">
       <c r="A424" t="s">
         <v>814</v>
       </c>
@@ -15427,7 +16144,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12">
       <c r="A425" t="s">
         <v>133</v>
       </c>
@@ -15444,7 +16161,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12">
       <c r="A426" t="s">
         <v>136</v>
       </c>
@@ -15461,7 +16178,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12">
       <c r="A427" t="s">
         <v>139</v>
       </c>
@@ -15478,7 +16195,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12">
       <c r="A428" t="s">
         <v>142</v>
       </c>
@@ -15495,7 +16212,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12">
       <c r="A429" t="s">
         <v>15</v>
       </c>
@@ -15512,7 +16229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12">
       <c r="A430" t="s">
         <v>283</v>
       </c>
@@ -15538,7 +16255,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12">
       <c r="A431" t="s">
         <v>456</v>
       </c>
@@ -15555,7 +16272,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12">
       <c r="A432" t="s">
         <v>656</v>
       </c>
@@ -15572,7 +16289,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12">
       <c r="A433" t="s">
         <v>659</v>
       </c>
@@ -15589,7 +16306,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12">
       <c r="A434" t="s">
         <v>662</v>
       </c>
@@ -15606,7 +16323,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12">
       <c r="A435" t="s">
         <v>665</v>
       </c>
@@ -15623,7 +16340,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12">
       <c r="A436" t="s">
         <v>346</v>
       </c>
@@ -15640,7 +16357,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12">
       <c r="A437" t="s">
         <v>450</v>
       </c>
@@ -15657,7 +16374,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12">
       <c r="A438" t="s">
         <v>570</v>
       </c>
@@ -15674,7 +16391,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12">
       <c r="A439" t="s">
         <v>573</v>
       </c>
@@ -15691,7 +16408,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12">
       <c r="A440" t="s">
         <v>180</v>
       </c>
@@ -15708,7 +16425,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12">
       <c r="A441" t="s">
         <v>183</v>
       </c>
@@ -15725,7 +16442,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12">
       <c r="A442" t="s">
         <v>186</v>
       </c>
@@ -15742,7 +16459,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12">
       <c r="A443" t="s">
         <v>692</v>
       </c>
@@ -15759,7 +16476,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12">
       <c r="A444" t="s">
         <v>694</v>
       </c>
@@ -15776,7 +16493,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12">
       <c r="A445" t="s">
         <v>189</v>
       </c>
@@ -15793,7 +16510,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12">
       <c r="A446" t="s">
         <v>491</v>
       </c>
@@ -15819,7 +16536,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12">
       <c r="A447" t="s">
         <v>547</v>
       </c>
@@ -15836,7 +16553,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12">
       <c r="A448" t="s">
         <v>496</v>
       </c>
@@ -15853,7 +16570,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12">
       <c r="A449" t="s">
         <v>1118</v>
       </c>
@@ -15879,7 +16596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12">
       <c r="A450" t="s">
         <v>1105</v>
       </c>
@@ -15905,7 +16622,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12">
       <c r="A451" t="s">
         <v>591</v>
       </c>
@@ -15922,7 +16639,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12">
       <c r="A452" t="s">
         <v>792</v>
       </c>
@@ -15939,7 +16656,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12">
       <c r="A453" t="s">
         <v>1128</v>
       </c>
@@ -15956,7 +16673,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12">
       <c r="A454" t="s">
         <v>1043</v>
       </c>
@@ -15973,7 +16690,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12">
       <c r="A455" t="s">
         <v>323</v>
       </c>
@@ -15990,7 +16707,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12">
       <c r="A456" t="s">
         <v>513</v>
       </c>
@@ -16007,7 +16724,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12">
       <c r="A457" t="s">
         <v>888</v>
       </c>
@@ -16024,7 +16741,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12">
       <c r="A458" t="s">
         <v>891</v>
       </c>
@@ -16041,7 +16758,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12">
       <c r="A459" t="s">
         <v>994</v>
       </c>
@@ -16058,7 +16775,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12">
       <c r="A460" t="s">
         <v>999</v>
       </c>
@@ -16075,7 +16792,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12">
       <c r="A461" t="s">
         <v>1047</v>
       </c>
@@ -16101,7 +16818,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12">
       <c r="A462" t="s">
         <v>860</v>
       </c>
@@ -16118,7 +16835,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12">
       <c r="A463" t="s">
         <v>1131</v>
       </c>
@@ -16135,7 +16852,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12">
       <c r="A464" t="s">
         <v>1133</v>
       </c>
@@ -16152,7 +16869,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12">
       <c r="A465" t="s">
         <v>486</v>
       </c>
@@ -16178,7 +16895,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12">
       <c r="A466" t="s">
         <v>1046</v>
       </c>
@@ -16195,7 +16912,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12">
       <c r="A467" t="s">
         <v>226</v>
       </c>
@@ -16212,7 +16929,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12">
       <c r="A468" t="s">
         <v>232</v>
       </c>
@@ -16238,7 +16955,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12">
       <c r="A469" t="s">
         <v>413</v>
       </c>
@@ -16255,7 +16972,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12">
       <c r="A470" t="s">
         <v>559</v>
       </c>
@@ -16272,7 +16989,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12">
       <c r="A471" t="s">
         <v>1113</v>
       </c>
@@ -16298,7 +17015,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12">
       <c r="A472" t="s">
         <v>900</v>
       </c>
@@ -16315,7 +17032,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12">
       <c r="A473" t="s">
         <v>606</v>
       </c>
@@ -16332,7 +17049,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12">
       <c r="A474" t="s">
         <v>609</v>
       </c>
@@ -16349,7 +17066,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12">
       <c r="A475" t="s">
         <v>612</v>
       </c>
@@ -16366,7 +17083,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12">
       <c r="A476" t="s">
         <v>1110</v>
       </c>
@@ -16383,7 +17100,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12">
       <c r="A477" t="s">
         <v>216</v>
       </c>
@@ -16400,7 +17117,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12">
       <c r="A478" t="s">
         <v>365</v>
       </c>
@@ -16417,7 +17134,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12">
       <c r="A479" t="s">
         <v>368</v>
       </c>
@@ -16434,7 +17151,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12">
       <c r="A480" t="s">
         <v>594</v>
       </c>
@@ -16460,7 +17177,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12">
       <c r="A481" t="s">
         <v>1156</v>
       </c>
@@ -16477,7 +17194,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12">
       <c r="A482" t="s">
         <v>257</v>
       </c>
@@ -16494,7 +17211,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12">
       <c r="A483" t="s">
         <v>519</v>
       </c>
@@ -16511,7 +17228,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12">
       <c r="A484" t="s">
         <v>1078</v>
       </c>
@@ -16528,7 +17245,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12">
       <c r="A485" t="s">
         <v>1052</v>
       </c>
@@ -16545,7 +17262,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12">
       <c r="A486" t="s">
         <v>1055</v>
       </c>
@@ -16571,7 +17288,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12">
       <c r="A487" t="s">
         <v>866</v>
       </c>
@@ -16588,7 +17305,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12">
       <c r="A488" t="s">
         <v>869</v>
       </c>
@@ -16605,7 +17322,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12">
       <c r="A489" t="s">
         <v>894</v>
       </c>
@@ -16622,7 +17339,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12">
       <c r="A490" t="s">
         <v>897</v>
       </c>
@@ -16639,9 +17356,1118 @@
         <v>899</v>
       </c>
     </row>
+    <row r="491" spans="1:12">
+      <c r="A491" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B491" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D491" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E491" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F491" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
+      <c r="A492" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B492" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D492" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E492" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F492" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12">
+      <c r="A493" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B493" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D493" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E493" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F493" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12">
+      <c r="A494" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B494" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D494" t="s">
+        <v>2212</v>
+      </c>
+      <c r="E494" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F494" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12">
+      <c r="A495" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B495" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D495" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E495" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F495" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12">
+      <c r="A496" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B496" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D496" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E496" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F496" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12">
+      <c r="A497" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B497" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F497" t="s">
+        <v>1929</v>
+      </c>
+      <c r="J497" t="s">
+        <v>2233</v>
+      </c>
+      <c r="K497" t="s">
+        <v>1931</v>
+      </c>
+      <c r="L497" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12">
+      <c r="A498" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B498" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E498" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F498" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J498" t="s">
+        <v>2234</v>
+      </c>
+      <c r="K498" t="s">
+        <v>1937</v>
+      </c>
+      <c r="L498" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12">
+      <c r="A499" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B499" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D499" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E499" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F499" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12">
+      <c r="A500" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B500" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D500" t="s">
+        <v>2216</v>
+      </c>
+      <c r="E500" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F500" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12">
+      <c r="A501" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B501" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D501" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E501" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F501" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12">
+      <c r="A502" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B502" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D502" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E502" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F502" t="s">
+        <v>2053</v>
+      </c>
+      <c r="J502" t="s">
+        <v>2235</v>
+      </c>
+      <c r="K502" t="s">
+        <v>2054</v>
+      </c>
+      <c r="L502" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12">
+      <c r="A503" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B503" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D503" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E503" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F503" t="s">
+        <v>2057</v>
+      </c>
+      <c r="J503" t="s">
+        <v>2058</v>
+      </c>
+      <c r="K503" t="s">
+        <v>2058</v>
+      </c>
+      <c r="L503" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12">
+      <c r="A504" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B504" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D504" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E504" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F504" t="s">
+        <v>2061</v>
+      </c>
+      <c r="J504" t="s">
+        <v>2236</v>
+      </c>
+      <c r="K504" t="s">
+        <v>2062</v>
+      </c>
+      <c r="L504" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12">
+      <c r="A505" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B505" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D505" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E505" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F505" t="s">
+        <v>2067</v>
+      </c>
+      <c r="J505" t="s">
+        <v>2237</v>
+      </c>
+      <c r="K505" t="s">
+        <v>2068</v>
+      </c>
+      <c r="L505" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12">
+      <c r="A506" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B506" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D506" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E506" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F506" t="s">
+        <v>2072</v>
+      </c>
+      <c r="J506" t="s">
+        <v>2238</v>
+      </c>
+      <c r="K506" t="s">
+        <v>2073</v>
+      </c>
+      <c r="L506" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12">
+      <c r="A507" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B507" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D507" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E507" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F507" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12">
+      <c r="A508" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B508" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D508" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E508" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F508" t="s">
+        <v>2081</v>
+      </c>
+      <c r="J508" t="s">
+        <v>2239</v>
+      </c>
+      <c r="K508" t="s">
+        <v>2082</v>
+      </c>
+      <c r="L508" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12">
+      <c r="A509" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B509" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D509" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E509" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F509" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12">
+      <c r="A510" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B510" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D510" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E510" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F510" t="s">
+        <v>2090</v>
+      </c>
+      <c r="J510" t="s">
+        <v>2240</v>
+      </c>
+      <c r="K510" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L510" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12">
+      <c r="A511" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B511" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D511" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E511" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F511" t="s">
+        <v>2095</v>
+      </c>
+      <c r="J511" t="s">
+        <v>2240</v>
+      </c>
+      <c r="K511" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L511" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12">
+      <c r="A512" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B512" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D512" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E512" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F512" t="s">
+        <v>2099</v>
+      </c>
+      <c r="J512" t="s">
+        <v>2241</v>
+      </c>
+      <c r="K512" t="s">
+        <v>2100</v>
+      </c>
+      <c r="L512" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12">
+      <c r="A513" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B513" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D513" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E513" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F513" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12">
+      <c r="A514" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B514" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D514" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E514" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F514" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12">
+      <c r="A515" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B515" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D515" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E515" t="s">
+        <v>2112</v>
+      </c>
+      <c r="F515" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12">
+      <c r="A516" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B516" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D516" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E516" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F516" t="s">
+        <v>2117</v>
+      </c>
+      <c r="J516" t="s">
+        <v>2242</v>
+      </c>
+      <c r="K516" t="s">
+        <v>2118</v>
+      </c>
+      <c r="L516" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12">
+      <c r="A517" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B517" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D517" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E517" t="s">
+        <v>2121</v>
+      </c>
+      <c r="F517" t="s">
+        <v>2122</v>
+      </c>
+      <c r="J517" t="s">
+        <v>2243</v>
+      </c>
+      <c r="K517" t="s">
+        <v>2123</v>
+      </c>
+      <c r="L517" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12">
+      <c r="A518" t="s">
+        <v>780</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D518" t="s">
+        <v>781</v>
+      </c>
+      <c r="E518" t="s">
+        <v>781</v>
+      </c>
+      <c r="F518" t="s">
+        <v>782</v>
+      </c>
+      <c r="J518" t="s">
+        <v>2244</v>
+      </c>
+      <c r="K518" t="s">
+        <v>783</v>
+      </c>
+      <c r="L518" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12">
+      <c r="A519" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B519" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D519" t="s">
+        <v>2222</v>
+      </c>
+      <c r="E519" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F519" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12">
+      <c r="A520" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B520" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D520" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E520" t="s">
+        <v>2129</v>
+      </c>
+      <c r="F520" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12">
+      <c r="A521" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B521" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D521" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E521" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F521" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12">
+      <c r="A522" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B522" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D522" t="s">
+        <v>2224</v>
+      </c>
+      <c r="E522" t="s">
+        <v>2136</v>
+      </c>
+      <c r="F522" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12">
+      <c r="A523" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B523" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D523" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E523" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F523" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12">
+      <c r="A524" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B524" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D524" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E524" t="s">
+        <v>2143</v>
+      </c>
+      <c r="F524" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12">
+      <c r="A525" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B525" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D525" t="s">
+        <v>2145</v>
+      </c>
+      <c r="E525" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F525" t="s">
+        <v>2147</v>
+      </c>
+      <c r="J525" t="s">
+        <v>2245</v>
+      </c>
+      <c r="K525" t="s">
+        <v>2148</v>
+      </c>
+      <c r="L525" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12">
+      <c r="A526" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B526" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D526" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E526" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F526" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12">
+      <c r="A527" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B527" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D527" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E527" t="s">
+        <v>2155</v>
+      </c>
+      <c r="F527" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12">
+      <c r="A528" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B528" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D528" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E528" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F528" t="s">
+        <v>2159</v>
+      </c>
+      <c r="J528" t="s">
+        <v>1444</v>
+      </c>
+      <c r="K528" t="s">
+        <v>1220</v>
+      </c>
+      <c r="L528" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12">
+      <c r="A529" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B529" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E529" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F529" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J529" t="s">
+        <v>2246</v>
+      </c>
+      <c r="K529" t="s">
+        <v>2162</v>
+      </c>
+      <c r="L529" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12">
+      <c r="A530" t="s">
+        <v>838</v>
+      </c>
+      <c r="B530" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D530" t="s">
+        <v>14</v>
+      </c>
+      <c r="E530" t="s">
+        <v>14</v>
+      </c>
+      <c r="F530" t="s">
+        <v>14</v>
+      </c>
+      <c r="J530" t="s">
+        <v>2247</v>
+      </c>
+      <c r="K530" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L530" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12">
+      <c r="A531" t="s">
+        <v>886</v>
+      </c>
+      <c r="B531" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D531" t="s">
+        <v>14</v>
+      </c>
+      <c r="E531" t="s">
+        <v>14</v>
+      </c>
+      <c r="F531" t="s">
+        <v>14</v>
+      </c>
+      <c r="J531" t="s">
+        <v>2248</v>
+      </c>
+      <c r="K531" t="s">
+        <v>2167</v>
+      </c>
+      <c r="L531" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12">
+      <c r="A532" t="s">
+        <v>887</v>
+      </c>
+      <c r="B532" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D532" t="s">
+        <v>14</v>
+      </c>
+      <c r="E532" t="s">
+        <v>14</v>
+      </c>
+      <c r="F532" t="s">
+        <v>14</v>
+      </c>
+      <c r="J532" t="s">
+        <v>2249</v>
+      </c>
+      <c r="K532" t="s">
+        <v>2169</v>
+      </c>
+      <c r="L532" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12">
+      <c r="A533" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B533" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D533" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E533" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F533" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J533" t="s">
+        <v>2250</v>
+      </c>
+      <c r="K533" t="s">
+        <v>2173</v>
+      </c>
+      <c r="L533" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12">
+      <c r="A534" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B534" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D534" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E534" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F534" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12">
+      <c r="A535" t="s">
+        <v>207</v>
+      </c>
+      <c r="B535" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D535" t="s">
+        <v>14</v>
+      </c>
+      <c r="E535" t="s">
+        <v>14</v>
+      </c>
+      <c r="F535" t="s">
+        <v>14</v>
+      </c>
+      <c r="J535" t="s">
+        <v>2251</v>
+      </c>
+      <c r="K535" t="s">
+        <v>208</v>
+      </c>
+      <c r="L535" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12">
+      <c r="A536" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B536" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D536" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E536" t="s">
+        <v>124</v>
+      </c>
+      <c r="F536" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12">
+      <c r="A537" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B537" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D537" t="s">
+        <v>2183</v>
+      </c>
+      <c r="E537" t="s">
+        <v>2183</v>
+      </c>
+      <c r="F537" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12">
+      <c r="A538" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B538" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D538" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E538" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F538" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12">
+      <c r="A539" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B539" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D539" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E539" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F539" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12">
+      <c r="A540" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B540" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D540" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E540" t="s">
+        <v>2193</v>
+      </c>
+      <c r="F540" t="s">
+        <v>2194</v>
+      </c>
+      <c r="J540" t="s">
+        <v>1606</v>
+      </c>
+      <c r="K540" t="s">
+        <v>2195</v>
+      </c>
+      <c r="L540" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12">
+      <c r="A541" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B541" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D541" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E541" t="s">
+        <v>2199</v>
+      </c>
+      <c r="F541" t="s">
+        <v>2200</v>
+      </c>
+      <c r="J541" t="s">
+        <v>2252</v>
+      </c>
+      <c r="K541" t="s">
+        <v>2201</v>
+      </c>
+      <c r="L541" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12">
+      <c r="A542" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B542" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D542" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E542" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F542" t="s">
+        <v>2206</v>
+      </c>
+      <c r="J542" t="s">
+        <v>2253</v>
+      </c>
+      <c r="K542" t="s">
+        <v>2207</v>
+      </c>
+      <c r="L542" t="s">
+        <v>2208</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:L2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L479">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L490">
       <sortCondition ref="B2"/>
     </sortState>
   </autoFilter>

--- a/PTBR/Lang/PTBR/Game/Chara.xlsx
+++ b/PTBR/Lang/PTBR/Game/Chara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980A3886-1BFE-4F81-B4EB-F7300639D378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B7D117-97F5-44F6-8BDF-077DF6B0F948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="2254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="2293">
   <si>
     <t>id</t>
   </si>
@@ -6785,19 +6785,147 @@
   </si>
   <si>
     <t>Deus dos Infiéis</t>
+  </si>
+  <si>
+    <t>unicorn</t>
+  </si>
+  <si>
+    <t>EA 23.254</t>
+  </si>
+  <si>
+    <t>ユニコーン</t>
+  </si>
+  <si>
+    <t>unicorn_nm</t>
+  </si>
+  <si>
+    <t>nightmare</t>
+  </si>
+  <si>
+    <t>ナイトメア</t>
+  </si>
+  <si>
+    <t>unicorn_kp</t>
+  </si>
+  <si>
+    <t>kelpie</t>
+  </si>
+  <si>
+    <t>ケルピー</t>
+  </si>
+  <si>
+    <t>bike_cub</t>
+  </si>
+  <si>
+    <t>cub</t>
+  </si>
+  <si>
+    <t>カブ</t>
+  </si>
+  <si>
+    <t>lich_master</t>
+  </si>
+  <si>
+    <t>EA 23.256</t>
+  </si>
+  <si>
+    <t>master lich</t>
+  </si>
+  <si>
+    <t>マスターリッチ</t>
+  </si>
+  <si>
+    <t>lich_demi</t>
+  </si>
+  <si>
+    <t>demi lich</t>
+  </si>
+  <si>
+    <t>デミリッチ</t>
+  </si>
+  <si>
+    <t>imotoroid</t>
+  </si>
+  <si>
+    <t>EA 23.257</t>
+  </si>
+  <si>
+    <t>imotoroid_origin</t>
+  </si>
+  <si>
+    <t>bike_kane</t>
+  </si>
+  <si>
+    <t>EA 23.258</t>
+  </si>
+  <si>
+    <t>xX_K4N3D4_Xx</t>
+  </si>
+  <si>
+    <t>KND-01</t>
+  </si>
+  <si>
+    <t>bike_kane_custom</t>
+  </si>
+  <si>
+    <t>KND-01C</t>
+  </si>
+  <si>
+    <t>bike_leet</t>
+  </si>
+  <si>
+    <t>miko_elite</t>
+  </si>
+  <si>
+    <t>black knight</t>
+  </si>
+  <si>
+    <t>黒騎士</t>
+  </si>
+  <si>
+    <t>unicórnio</t>
+  </si>
+  <si>
+    <t>pesadelo</t>
+  </si>
+  <si>
+    <t>filhote</t>
+  </si>
+  <si>
+    <t>lich mestre</t>
+  </si>
+  <si>
+    <t>demi-lich</t>
+  </si>
+  <si>
+    <t>irmã mais nova</t>
+  </si>
+  <si>
+    <t>cavaleiro negro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -6825,9 +6953,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7162,11 +7297,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L542"/>
+  <dimension ref="A1:L554"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J536" sqref="J536"/>
+      <pane ySplit="2" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J549" sqref="J549:J554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18465,6 +18600,240 @@
         <v>2208</v>
       </c>
     </row>
+    <row r="543" spans="1:12">
+      <c r="A543" s="2" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D543" s="4" t="s">
+        <v>2286</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>2254</v>
+      </c>
+      <c r="F543" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12">
+      <c r="A544" s="2" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D544" s="4" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>2258</v>
+      </c>
+      <c r="F544" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12">
+      <c r="A545" s="2" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D545" s="4" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E545" s="2" t="s">
+        <v>2261</v>
+      </c>
+      <c r="F545" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12">
+      <c r="A546" s="2" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D546" s="4" t="s">
+        <v>2288</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="F546" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12">
+      <c r="A547" s="2" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D547" s="4" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>2268</v>
+      </c>
+      <c r="F547" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12">
+      <c r="A548" s="2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D548" s="4" t="s">
+        <v>2290</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>2271</v>
+      </c>
+      <c r="F548" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12">
+      <c r="A549" s="2" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D549" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J549" s="4" t="s">
+        <v>2291</v>
+      </c>
+      <c r="K549" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L549" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12">
+      <c r="A550" s="2" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D550" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J550" s="4" t="s">
+        <v>2291</v>
+      </c>
+      <c r="K550" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L550" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12">
+      <c r="A551" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D551" s="4" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>2279</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>2279</v>
+      </c>
+      <c r="J551" s="3"/>
+    </row>
+    <row r="552" spans="1:12">
+      <c r="A552" s="2" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D552" s="4" t="s">
+        <v>2281</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>2281</v>
+      </c>
+      <c r="J552" s="3"/>
+    </row>
+    <row r="553" spans="1:12">
+      <c r="A553" s="2" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D553" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E553" s="2" t="s">
+        <v>2278</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>2278</v>
+      </c>
+      <c r="J553" s="3"/>
+    </row>
+    <row r="554" spans="1:12">
+      <c r="A554" s="2" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D554" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E554" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J554" s="4" t="s">
+        <v>2292</v>
+      </c>
+      <c r="K554" s="2" t="s">
+        <v>2284</v>
+      </c>
+      <c r="L554" t="s">
+        <v>2285</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:L2" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L490">
@@ -18472,5 +18841,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PTBR/Lang/PTBR/Game/Chara.xlsx
+++ b/PTBR/Lang/PTBR/Game/Chara.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3BFE0A-AE5A-4525-B6E7-EF0FFE1F059D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F155F199-44F5-4D9A-AD8A-55CEDEB4EB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7296,9 +7296,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J225" sqref="J225:J234"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D541" sqref="D541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/PTBR/Lang/PTBR/Game/Chara.xlsx
+++ b/PTBR/Lang/PTBR/Game/Chara.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A60D07B-A922-49CF-97DE-0187E469BF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCED460F-B88D-4B6C-B933-8CD77B3E25AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="0" windowWidth="10320" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2130" windowWidth="15480" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" r:id="rId1"/>
@@ -4384,9 +4384,6 @@
     <t>Fantasma de Vela</t>
   </si>
   <si>
-    <t>Homem Legal (Gay)</t>
-  </si>
-  <si>
     <t>Cogumelo com Esporos</t>
   </si>
   <si>
@@ -4702,12 +4699,6 @@
     <t>Dodô Rex</t>
   </si>
   <si>
-    <t>#ele3 Draco</t>
-  </si>
-  <si>
-    <t>#ele3 Dragão</t>
-  </si>
-  <si>
     <t>Dama de Companhia de Lolth</t>
   </si>
   <si>
@@ -6013,33 +6004,6 @@
     <t>イモーロナク</t>
   </si>
   <si>
-    <t>marinho folhado #ele5 dragão</t>
-  </si>
-  <si>
-    <t>#ele5 serpente</t>
-  </si>
-  <si>
-    <t>Irmã mais nova leopardo das neves</t>
-  </si>
-  <si>
-    <t>ondina</t>
-  </si>
-  <si>
-    <t>medusa profunda</t>
-  </si>
-  <si>
-    <t>esquilo assassino</t>
-  </si>
-  <si>
-    <t>morcego vampiro</t>
-  </si>
-  <si>
-    <t>morcego dragão</t>
-  </si>
-  <si>
-    <t>louva-a-deus assassino</t>
-  </si>
-  <si>
     <t>spider_tarantula</t>
   </si>
   <si>
@@ -6622,78 +6586,9 @@
     <t>無の</t>
   </si>
   <si>
-    <t>tarântula</t>
-  </si>
-  <si>
-    <t>cogumelo monstro</t>
-  </si>
-  <si>
-    <t>perseguidor</t>
-  </si>
-  <si>
-    <t>guerreiro dente de dragão</t>
-  </si>
-  <si>
-    <t>boxeador homem-lagarto</t>
-  </si>
-  <si>
-    <t>estrela-do-mar</t>
-  </si>
-  <si>
-    <t>aranha vampira</t>
-  </si>
-  <si>
-    <t>paralisador</t>
-  </si>
-  <si>
-    <t>rainha aranha sombria</t>
-  </si>
-  <si>
-    <t>arqueiro centauro</t>
-  </si>
-  <si>
-    <t>falha</t>
-  </si>
-  <si>
-    <t>bastião</t>
-  </si>
-  <si>
-    <t>escaravelho</t>
-  </si>
-  <si>
-    <t>torre automática</t>
-  </si>
-  <si>
-    <t>soldado</t>
-  </si>
-  <si>
-    <t>bola assassina</t>
-  </si>
-  <si>
-    <t>falha beth</t>
-  </si>
-  <si>
-    <t>filhote chamado "Vesel"</t>
-  </si>
-  <si>
-    <t>Guardião do Jardim</t>
-  </si>
-  <si>
     <t>Innos Tur'as 2</t>
   </si>
   <si>
-    <t>vampiro</t>
-  </si>
-  <si>
-    <t>morcego</t>
-  </si>
-  <si>
-    <t>tubarão mecânico</t>
-  </si>
-  <si>
-    <t>casulo</t>
-  </si>
-  <si>
     <t>mão venenosa</t>
   </si>
   <si>
@@ -6853,21 +6748,6 @@
     <t>黒騎士</t>
   </si>
   <si>
-    <t>unicórnio</t>
-  </si>
-  <si>
-    <t>pesadelo</t>
-  </si>
-  <si>
-    <t>filhote</t>
-  </si>
-  <si>
-    <t>lich mestre</t>
-  </si>
-  <si>
-    <t>demi-lich</t>
-  </si>
-  <si>
     <t>irmã mais nova</t>
   </si>
   <si>
@@ -6946,16 +6826,136 @@
     <t>昔から左下にいたヤツ</t>
   </si>
   <si>
-    <t>mensageiro da morte</t>
-  </si>
-  <si>
-    <t>ceifador</t>
-  </si>
-  <si>
-    <t>zangão</t>
-  </si>
-  <si>
     <t>O que sempre esteve no canto inferior esquerdo</t>
+  </si>
+  <si>
+    <t>Mensageiro da Morte</t>
+  </si>
+  <si>
+    <t>Ceifador</t>
+  </si>
+  <si>
+    <t>Drone</t>
+  </si>
+  <si>
+    <t>Dragão #ele3</t>
+  </si>
+  <si>
+    <t>Draco #ele3</t>
+  </si>
+  <si>
+    <t>Mestre Lich</t>
+  </si>
+  <si>
+    <t>Unicórnio</t>
+  </si>
+  <si>
+    <t>Pesadelo</t>
+  </si>
+  <si>
+    <t>Kelpie</t>
+  </si>
+  <si>
+    <t>Semi-Lich</t>
+  </si>
+  <si>
+    <t>Vampiro</t>
+  </si>
+  <si>
+    <t>Tubarão Mecânico</t>
+  </si>
+  <si>
+    <t>Casulo</t>
+  </si>
+  <si>
+    <t>Torrreta Automática</t>
+  </si>
+  <si>
+    <t>Soldado</t>
+  </si>
+  <si>
+    <t>Bola Assassina</t>
+  </si>
+  <si>
+    <t>Falha De Beth</t>
+  </si>
+  <si>
+    <t>Erishe</t>
+  </si>
+  <si>
+    <t>Filhote Chamado "Vesel"</t>
+  </si>
+  <si>
+    <t>Guardião Do Jardim</t>
+  </si>
+  <si>
+    <t>Arqueiro Centauro</t>
+  </si>
+  <si>
+    <t>Fracasso</t>
+  </si>
+  <si>
+    <t>Bastião</t>
+  </si>
+  <si>
+    <t>Escaravelho</t>
+  </si>
+  <si>
+    <t>#ele3 Bit</t>
+  </si>
+  <si>
+    <t>Dragão Marinho Folhoso #ele5</t>
+  </si>
+  <si>
+    <t>Serpente #ele5</t>
+  </si>
+  <si>
+    <t>Irmã Mais Nova Leopardo Das Neves</t>
+  </si>
+  <si>
+    <t>Undine</t>
+  </si>
+  <si>
+    <t>Água-Viva Das Profundezas</t>
+  </si>
+  <si>
+    <t>Esquilo Assassino</t>
+  </si>
+  <si>
+    <t>Morcego Vampiro</t>
+  </si>
+  <si>
+    <t>Morcego Dragão</t>
+  </si>
+  <si>
+    <t>Louva-Deus Assassino</t>
+  </si>
+  <si>
+    <t>Tarântula</t>
+  </si>
+  <si>
+    <t>Cogumelo Monstruoso</t>
+  </si>
+  <si>
+    <t>Guerreiro Dente De Dragão</t>
+  </si>
+  <si>
+    <t>Lagarto Boxeador</t>
+  </si>
+  <si>
+    <t>Estrela Do Mar</t>
+  </si>
+  <si>
+    <t>Aranha Vampira</t>
+  </si>
+  <si>
+    <t>Paralisador</t>
+  </si>
+  <si>
+    <t>Rainha Das Aranhas Sombrias</t>
+  </si>
+  <si>
+    <t>Cara Gato</t>
   </si>
 </sst>
 </file>
@@ -7354,22 +7354,22 @@
   <dimension ref="A1:L559"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D559" sqref="D559"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="16" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="174.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="174.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="144.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="27.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="144.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7479,7 +7479,7 @@
         <v>1239</v>
       </c>
       <c r="J5" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K5" t="s">
         <v>1240</v>
@@ -7505,7 +7505,7 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="K6" t="s">
         <v>977</v>
@@ -7531,7 +7531,7 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="K7" t="s">
         <v>101</v>
@@ -7557,7 +7557,7 @@
         <v>628</v>
       </c>
       <c r="J8" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="K8" t="s">
         <v>629</v>
@@ -7583,7 +7583,7 @@
         <v>578</v>
       </c>
       <c r="J9" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="K9" t="s">
         <v>579</v>
@@ -7635,7 +7635,7 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="K11" t="s">
         <v>176</v>
@@ -7661,7 +7661,7 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="K12" t="s">
         <v>839</v>
@@ -7687,7 +7687,7 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="K13" t="s">
         <v>839</v>
@@ -7713,7 +7713,7 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="K14" t="s">
         <v>962</v>
@@ -7739,7 +7739,7 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="K15" t="s">
         <v>328</v>
@@ -7765,7 +7765,7 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="K16" t="s">
         <v>974</v>
@@ -7791,7 +7791,7 @@
         <v>1167</v>
       </c>
       <c r="J17" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="K17" t="s">
         <v>1168</v>
@@ -7817,13 +7817,13 @@
         <v>357</v>
       </c>
       <c r="G18" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="I18" t="s">
         <v>358</v>
       </c>
       <c r="J18" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="K18" t="s">
         <v>359</v>
@@ -7849,7 +7849,7 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="K19" t="s">
         <v>690</v>
@@ -7875,7 +7875,7 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="K20" t="s">
         <v>235</v>
@@ -7901,7 +7901,7 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="K21" t="s">
         <v>235</v>
@@ -7927,7 +7927,7 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="K22" t="s">
         <v>200</v>
@@ -7953,7 +7953,7 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="K23" t="s">
         <v>844</v>
@@ -7979,7 +7979,7 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="K24" t="s">
         <v>418</v>
@@ -8057,7 +8057,7 @@
         <v>1249</v>
       </c>
       <c r="J27" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="L27" t="s">
         <v>1250</v>
@@ -8132,7 +8132,7 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="K30" t="s">
         <v>960</v>
@@ -8158,7 +8158,7 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="K31" t="s">
         <v>730</v>
@@ -8184,7 +8184,7 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="K32" t="s">
         <v>825</v>
@@ -8210,7 +8210,7 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="K33" t="s">
         <v>954</v>
@@ -8236,7 +8236,7 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="K34" t="s">
         <v>884</v>
@@ -8262,7 +8262,7 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="K35" t="s">
         <v>778</v>
@@ -8288,7 +8288,7 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="K36" t="s">
         <v>739</v>
@@ -8314,7 +8314,7 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="K37" t="s">
         <v>736</v>
@@ -8340,7 +8340,7 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="K38" t="s">
         <v>798</v>
@@ -8366,7 +8366,7 @@
         <v>1066</v>
       </c>
       <c r="J39" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="K39" t="s">
         <v>1067</v>
@@ -8392,7 +8392,7 @@
         <v>670</v>
       </c>
       <c r="J40" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="K40" t="s">
         <v>671</v>
@@ -8418,7 +8418,7 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="K41" t="s">
         <v>252</v>
@@ -8444,7 +8444,7 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="K42" t="s">
         <v>772</v>
@@ -8470,7 +8470,7 @@
         <v>1102</v>
       </c>
       <c r="J43" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="K43" t="s">
         <v>1103</v>
@@ -8496,7 +8496,7 @@
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="K44" t="s">
         <v>1019</v>
@@ -8522,7 +8522,7 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="K45" t="s">
         <v>389</v>
@@ -8548,7 +8548,7 @@
         <v>1172</v>
       </c>
       <c r="J46" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="K46" t="s">
         <v>1173</v>
@@ -8574,7 +8574,7 @@
         <v>1177</v>
       </c>
       <c r="J47" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="K47" t="s">
         <v>1173</v>
@@ -8600,7 +8600,7 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="K48" t="s">
         <v>822</v>
@@ -8626,7 +8626,7 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="K49" t="s">
         <v>411</v>
@@ -8652,7 +8652,7 @@
         <v>334</v>
       </c>
       <c r="J50" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="K50" t="s">
         <v>335</v>
@@ -8678,7 +8678,7 @@
         <v>877</v>
       </c>
       <c r="J51" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="K51" t="s">
         <v>878</v>
@@ -8756,7 +8756,7 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="K54" t="s">
         <v>1158</v>
@@ -8782,7 +8782,7 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="K55" t="s">
         <v>1158</v>
@@ -8808,7 +8808,7 @@
         <v>483</v>
       </c>
       <c r="J56" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="K56" t="s">
         <v>484</v>
@@ -8834,7 +8834,7 @@
         <v>308</v>
       </c>
       <c r="J57" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="K57" t="s">
         <v>309</v>
@@ -8860,7 +8860,7 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="K58" t="s">
         <v>788</v>
@@ -8886,7 +8886,7 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="K59" t="s">
         <v>1070</v>
@@ -8912,7 +8912,7 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="K60" t="s">
         <v>371</v>
@@ -8938,7 +8938,7 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="K61" t="s">
         <v>318</v>
@@ -8964,7 +8964,7 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="K62" t="s">
         <v>476</v>
@@ -8990,7 +8990,7 @@
         <v>1180</v>
       </c>
       <c r="J63" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="K63" t="s">
         <v>1181</v>
@@ -9016,7 +9016,7 @@
         <v>987</v>
       </c>
       <c r="J64" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="K64" t="s">
         <v>786</v>
@@ -9042,7 +9042,7 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="K65" t="s">
         <v>1013</v>
@@ -9068,7 +9068,7 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="K66" t="s">
         <v>122</v>
@@ -9094,7 +9094,7 @@
         <v>1234</v>
       </c>
       <c r="J67" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="K67" t="s">
         <v>1235</v>
@@ -9120,7 +9120,7 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="K68" t="s">
         <v>881</v>
@@ -9146,7 +9146,7 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="K69" t="s">
         <v>828</v>
@@ -9172,7 +9172,7 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="K70" t="s">
         <v>342</v>
@@ -9198,7 +9198,7 @@
         <v>507</v>
       </c>
       <c r="J71" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="K71" t="s">
         <v>508</v>
@@ -9224,7 +9224,7 @@
         <v>761</v>
       </c>
       <c r="J72" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="K72" t="s">
         <v>762</v>
@@ -9250,7 +9250,7 @@
         <v>680</v>
       </c>
       <c r="J73" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="K73" t="s">
         <v>681</v>
@@ -9276,7 +9276,7 @@
         <v>1141</v>
       </c>
       <c r="J74" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="K74" t="s">
         <v>1142</v>
@@ -9302,7 +9302,7 @@
         <v>832</v>
       </c>
       <c r="J75" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="K75" t="s">
         <v>833</v>
@@ -9328,7 +9328,7 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="K76" t="s">
         <v>478</v>
@@ -9354,7 +9354,7 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="K77" t="s">
         <v>1161</v>
@@ -9380,7 +9380,7 @@
         <v>1061</v>
       </c>
       <c r="J78" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="K78" t="s">
         <v>1062</v>
@@ -9406,7 +9406,7 @@
         <v>1093</v>
       </c>
       <c r="J79" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="K79" t="s">
         <v>1094</v>
@@ -9432,7 +9432,7 @@
         <v>1206</v>
       </c>
       <c r="J80" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="K80" t="s">
         <v>1207</v>
@@ -9458,7 +9458,7 @@
         <v>715</v>
       </c>
       <c r="J81" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="K81" t="s">
         <v>716</v>
@@ -9484,7 +9484,7 @@
         <v>771</v>
       </c>
       <c r="J82" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="K82" t="s">
         <v>716</v>
@@ -9510,7 +9510,7 @@
         <v>648</v>
       </c>
       <c r="J83" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="K83" t="s">
         <v>649</v>
@@ -9536,7 +9536,7 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="K84" t="s">
         <v>943</v>
@@ -9562,7 +9562,7 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="K85" t="s">
         <v>1057</v>
@@ -9588,7 +9588,7 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="K86" t="s">
         <v>938</v>
@@ -9614,7 +9614,7 @@
         <v>1098</v>
       </c>
       <c r="J87" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="K87" t="s">
         <v>1435</v>
@@ -9640,7 +9640,7 @@
         <v>1146</v>
       </c>
       <c r="J88" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="K88" t="s">
         <v>1147</v>
@@ -9666,7 +9666,7 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="K89" t="s">
         <v>946</v>
@@ -10465,7 +10465,7 @@
         <v>1261</v>
       </c>
       <c r="D136" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E136" t="s">
         <v>448</v>
@@ -10482,7 +10482,7 @@
         <v>1261</v>
       </c>
       <c r="D137" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E137" t="s">
         <v>454</v>
@@ -10499,7 +10499,7 @@
         <v>1261</v>
       </c>
       <c r="D138" t="s">
-        <v>1453</v>
+        <v>2310</v>
       </c>
       <c r="E138" t="s">
         <v>460</v>
@@ -10516,7 +10516,7 @@
         <v>1261</v>
       </c>
       <c r="D139" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E139" t="s">
         <v>463</v>
@@ -10533,7 +10533,7 @@
         <v>1261</v>
       </c>
       <c r="D140" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E140" t="s">
         <v>471</v>
@@ -10550,7 +10550,7 @@
         <v>1261</v>
       </c>
       <c r="D141" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E141" t="s">
         <v>500</v>
@@ -10584,7 +10584,7 @@
         <v>1261</v>
       </c>
       <c r="D143" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E143" t="s">
         <v>511</v>
@@ -10601,7 +10601,7 @@
         <v>1261</v>
       </c>
       <c r="D144" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E144" t="s">
         <v>523</v>
@@ -10618,7 +10618,7 @@
         <v>1261</v>
       </c>
       <c r="D145" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E145" t="s">
         <v>525</v>
@@ -10635,7 +10635,7 @@
         <v>1261</v>
       </c>
       <c r="D146" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E146" t="s">
         <v>527</v>
@@ -10652,7 +10652,7 @@
         <v>1261</v>
       </c>
       <c r="D147" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E147" t="s">
         <v>532</v>
@@ -10669,7 +10669,7 @@
         <v>1261</v>
       </c>
       <c r="D148" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E148" t="s">
         <v>535</v>
@@ -10686,7 +10686,7 @@
         <v>1261</v>
       </c>
       <c r="D149" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E149" t="s">
         <v>538</v>
@@ -10703,7 +10703,7 @@
         <v>1261</v>
       </c>
       <c r="D150" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E150" t="s">
         <v>543</v>
@@ -10720,7 +10720,7 @@
         <v>1261</v>
       </c>
       <c r="D151" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E151" t="s">
         <v>545</v>
@@ -10737,7 +10737,7 @@
         <v>1261</v>
       </c>
       <c r="D152" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E152" t="s">
         <v>552</v>
@@ -10754,7 +10754,7 @@
         <v>1261</v>
       </c>
       <c r="D153" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E153" t="s">
         <v>555</v>
@@ -10771,7 +10771,7 @@
         <v>1261</v>
       </c>
       <c r="D154" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E154" t="s">
         <v>557</v>
@@ -10788,7 +10788,7 @@
         <v>1261</v>
       </c>
       <c r="D155" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E155" t="s">
         <v>563</v>
@@ -10805,7 +10805,7 @@
         <v>1261</v>
       </c>
       <c r="D156" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E156" t="s">
         <v>568</v>
@@ -10822,7 +10822,7 @@
         <v>1261</v>
       </c>
       <c r="D157" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E157" t="s">
         <v>589</v>
@@ -10839,7 +10839,7 @@
         <v>1261</v>
       </c>
       <c r="D158" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E158" t="s">
         <v>604</v>
@@ -10856,7 +10856,7 @@
         <v>1261</v>
       </c>
       <c r="D159" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E159" t="s">
         <v>621</v>
@@ -10873,7 +10873,7 @@
         <v>1261</v>
       </c>
       <c r="D160" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E160" t="s">
         <v>631</v>
@@ -10890,7 +10890,7 @@
         <v>1261</v>
       </c>
       <c r="D161" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E161" t="s">
         <v>633</v>
@@ -10907,7 +10907,7 @@
         <v>1261</v>
       </c>
       <c r="D162" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E162" t="s">
         <v>639</v>
@@ -10924,7 +10924,7 @@
         <v>1261</v>
       </c>
       <c r="D163" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E163" t="s">
         <v>641</v>
@@ -10958,7 +10958,7 @@
         <v>1261</v>
       </c>
       <c r="D165" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E165" t="s">
         <v>651</v>
@@ -10975,7 +10975,7 @@
         <v>1261</v>
       </c>
       <c r="D166" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E166" t="s">
         <v>654</v>
@@ -10992,7 +10992,7 @@
         <v>1261</v>
       </c>
       <c r="D167" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E167" t="s">
         <v>684</v>
@@ -11009,7 +11009,7 @@
         <v>1261</v>
       </c>
       <c r="D168" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E168" t="s">
         <v>697</v>
@@ -11026,7 +11026,7 @@
         <v>1261</v>
       </c>
       <c r="D169" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E169" t="s">
         <v>700</v>
@@ -11043,7 +11043,7 @@
         <v>1261</v>
       </c>
       <c r="D170" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E170" t="s">
         <v>703</v>
@@ -11060,7 +11060,7 @@
         <v>1261</v>
       </c>
       <c r="D171" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E171" t="s">
         <v>705</v>
@@ -11077,7 +11077,7 @@
         <v>1261</v>
       </c>
       <c r="D172" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E172" t="s">
         <v>708</v>
@@ -11094,7 +11094,7 @@
         <v>1261</v>
       </c>
       <c r="D173" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E173" t="s">
         <v>711</v>
@@ -11128,7 +11128,7 @@
         <v>1261</v>
       </c>
       <c r="D175" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E175" t="s">
         <v>733</v>
@@ -11145,7 +11145,7 @@
         <v>1261</v>
       </c>
       <c r="D176" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E176" t="s">
         <v>742</v>
@@ -11162,7 +11162,7 @@
         <v>1261</v>
       </c>
       <c r="D177" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E177" t="s">
         <v>745</v>
@@ -11179,7 +11179,7 @@
         <v>1261</v>
       </c>
       <c r="D178" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E178" t="s">
         <v>748</v>
@@ -11196,7 +11196,7 @@
         <v>1261</v>
       </c>
       <c r="D179" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E179" t="s">
         <v>751</v>
@@ -11213,7 +11213,7 @@
         <v>1261</v>
       </c>
       <c r="D180" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E180" t="s">
         <v>754</v>
@@ -11298,7 +11298,7 @@
         <v>1261</v>
       </c>
       <c r="D185" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E185" t="s">
         <v>790</v>
@@ -11315,7 +11315,7 @@
         <v>1261</v>
       </c>
       <c r="D186" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E186" t="s">
         <v>846</v>
@@ -11332,7 +11332,7 @@
         <v>1261</v>
       </c>
       <c r="D187" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E187" t="s">
         <v>852</v>
@@ -11366,7 +11366,7 @@
         <v>1261</v>
       </c>
       <c r="D189" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E189" t="s">
         <v>864</v>
@@ -11383,7 +11383,7 @@
         <v>1261</v>
       </c>
       <c r="D190" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E190" t="s">
         <v>873</v>
@@ -11400,7 +11400,7 @@
         <v>1261</v>
       </c>
       <c r="D191" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E191" t="s">
         <v>903</v>
@@ -11417,7 +11417,7 @@
         <v>1261</v>
       </c>
       <c r="D192" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E192" t="s">
         <v>905</v>
@@ -11451,7 +11451,7 @@
         <v>1261</v>
       </c>
       <c r="D194" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E194" t="s">
         <v>913</v>
@@ -11468,7 +11468,7 @@
         <v>1261</v>
       </c>
       <c r="D195" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E195" t="s">
         <v>940</v>
@@ -11485,7 +11485,7 @@
         <v>1261</v>
       </c>
       <c r="D196" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E196" t="s">
         <v>949</v>
@@ -11502,7 +11502,7 @@
         <v>1261</v>
       </c>
       <c r="D197" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E197" t="s">
         <v>951</v>
@@ -11519,7 +11519,7 @@
         <v>1261</v>
       </c>
       <c r="D198" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E198" t="s">
         <v>967</v>
@@ -11536,7 +11536,7 @@
         <v>1261</v>
       </c>
       <c r="D199" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E199" t="s">
         <v>969</v>
@@ -11553,7 +11553,7 @@
         <v>1261</v>
       </c>
       <c r="D200" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E200" t="s">
         <v>972</v>
@@ -11570,7 +11570,7 @@
         <v>1261</v>
       </c>
       <c r="D201" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E201" t="s">
         <v>992</v>
@@ -11587,7 +11587,7 @@
         <v>1261</v>
       </c>
       <c r="D202" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E202" t="s">
         <v>1002</v>
@@ -11604,7 +11604,7 @@
         <v>1261</v>
       </c>
       <c r="D203" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="E203" t="s">
         <v>1126</v>
@@ -11621,7 +11621,7 @@
         <v>1261</v>
       </c>
       <c r="D204" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="E204" t="s">
         <v>1152</v>
@@ -11638,7 +11638,7 @@
         <v>1261</v>
       </c>
       <c r="D205" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="E205" t="s">
         <v>1154</v>
@@ -11672,7 +11672,7 @@
         <v>1261</v>
       </c>
       <c r="D207" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="E207" t="s">
         <v>1197</v>
@@ -11689,7 +11689,7 @@
         <v>1261</v>
       </c>
       <c r="D208" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="E208" t="s">
         <v>1199</v>
@@ -11706,7 +11706,7 @@
         <v>1261</v>
       </c>
       <c r="D209" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="E209" t="s">
         <v>1202</v>
@@ -11758,7 +11758,7 @@
         <v>723</v>
       </c>
       <c r="J211" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="K211" t="s">
         <v>724</v>
@@ -11784,7 +11784,7 @@
         <v>617</v>
       </c>
       <c r="J212" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="K212" t="s">
         <v>618</v>
@@ -11810,7 +11810,7 @@
         <v>14</v>
       </c>
       <c r="J213" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="K213" t="s">
         <v>932</v>
@@ -11836,7 +11836,7 @@
         <v>14</v>
       </c>
       <c r="J214" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="K214" t="s">
         <v>935</v>
@@ -11862,7 +11862,7 @@
         <v>14</v>
       </c>
       <c r="J215" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="K215" t="s">
         <v>929</v>
@@ -11879,7 +11879,7 @@
         <v>1314</v>
       </c>
       <c r="D216" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="E216" t="s">
         <v>636</v>
@@ -11896,7 +11896,7 @@
         <v>1314</v>
       </c>
       <c r="D217" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E217" t="s">
         <v>673</v>
@@ -11913,7 +11913,7 @@
         <v>1314</v>
       </c>
       <c r="D218" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="E218" t="s">
         <v>1210</v>
@@ -11939,7 +11939,7 @@
         <v>14</v>
       </c>
       <c r="J219" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="K219" t="s">
         <v>839</v>
@@ -11965,7 +11965,7 @@
         <v>14</v>
       </c>
       <c r="J220" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="K220" t="s">
         <v>235</v>
@@ -11991,7 +11991,7 @@
         <v>14</v>
       </c>
       <c r="J221" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="K221" t="s">
         <v>235</v>
@@ -12017,7 +12017,7 @@
         <v>14</v>
       </c>
       <c r="J222" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="K222" t="s">
         <v>321</v>
@@ -12069,7 +12069,7 @@
         <v>14</v>
       </c>
       <c r="J224" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="K224" t="s">
         <v>1124</v>
@@ -12095,7 +12095,7 @@
         <v>1083</v>
       </c>
       <c r="J225" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="K225" t="s">
         <v>1084</v>
@@ -12121,7 +12121,7 @@
         <v>14</v>
       </c>
       <c r="J226" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="K226" t="s">
         <v>243</v>
@@ -12147,7 +12147,7 @@
         <v>14</v>
       </c>
       <c r="J227" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="K227" t="s">
         <v>243</v>
@@ -12199,7 +12199,7 @@
         <v>14</v>
       </c>
       <c r="J229" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="K229" t="s">
         <v>101</v>
@@ -12225,7 +12225,7 @@
         <v>14</v>
       </c>
       <c r="J230" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="K230" t="s">
         <v>883</v>
@@ -12251,7 +12251,7 @@
         <v>14</v>
       </c>
       <c r="J231" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="K231" t="s">
         <v>883</v>
@@ -12268,7 +12268,7 @@
         <v>1308</v>
       </c>
       <c r="D232" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E232" t="s">
         <v>530</v>
@@ -12285,7 +12285,7 @@
         <v>1308</v>
       </c>
       <c r="D233" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E233" t="s">
         <v>550</v>
@@ -12311,7 +12311,7 @@
         <v>14</v>
       </c>
       <c r="J234" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="K234" t="s">
         <v>582</v>
@@ -12345,7 +12345,7 @@
         <v>1304</v>
       </c>
       <c r="D236" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E236" t="s">
         <v>624</v>
@@ -12371,7 +12371,7 @@
         <v>14</v>
       </c>
       <c r="J237" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="K237" t="s">
         <v>235</v>
@@ -12405,7 +12405,7 @@
         <v>1290</v>
       </c>
       <c r="D239" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E239" t="s">
         <v>719</v>
@@ -12422,7 +12422,7 @@
         <v>1290</v>
       </c>
       <c r="D240" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E240" t="s">
         <v>908</v>
@@ -12439,7 +12439,7 @@
         <v>1318</v>
       </c>
       <c r="D241" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E241" t="s">
         <v>819</v>
@@ -12525,7 +12525,7 @@
         <v>14</v>
       </c>
       <c r="J245" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="K245" t="s">
         <v>983</v>
@@ -12551,7 +12551,7 @@
         <v>14</v>
       </c>
       <c r="J246" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="K246" t="s">
         <v>980</v>
@@ -12577,7 +12577,7 @@
         <v>14</v>
       </c>
       <c r="J247" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="K247" t="s">
         <v>926</v>
@@ -12594,7 +12594,7 @@
         <v>1309</v>
       </c>
       <c r="D248" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E248" t="s">
         <v>566</v>
@@ -12688,7 +12688,7 @@
         <v>14</v>
       </c>
       <c r="J253" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="K253" t="s">
         <v>101</v>
@@ -12714,7 +12714,7 @@
         <v>14</v>
       </c>
       <c r="J254" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K254" t="s">
         <v>25</v>
@@ -12740,7 +12740,7 @@
         <v>14</v>
       </c>
       <c r="J255" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K255" t="s">
         <v>25</v>
@@ -12766,7 +12766,7 @@
         <v>14</v>
       </c>
       <c r="J256" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="K256" t="s">
         <v>83</v>
@@ -12792,7 +12792,7 @@
         <v>14</v>
       </c>
       <c r="J257" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="K257" t="s">
         <v>109</v>
@@ -12818,7 +12818,7 @@
         <v>14</v>
       </c>
       <c r="J258" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="K258" t="s">
         <v>86</v>
@@ -12844,7 +12844,7 @@
         <v>14</v>
       </c>
       <c r="J259" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="K259" t="s">
         <v>409</v>
@@ -12870,7 +12870,7 @@
         <v>14</v>
       </c>
       <c r="J260" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="K260" t="s">
         <v>115</v>
@@ -12896,7 +12896,7 @@
         <v>14</v>
       </c>
       <c r="J261" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="K261" t="s">
         <v>224</v>
@@ -12922,7 +12922,7 @@
         <v>14</v>
       </c>
       <c r="J262" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="K262" t="s">
         <v>786</v>
@@ -12948,7 +12948,7 @@
         <v>14</v>
       </c>
       <c r="J263" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="K263" t="s">
         <v>99</v>
@@ -12974,7 +12974,7 @@
         <v>14</v>
       </c>
       <c r="J264" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="K264" t="s">
         <v>221</v>
@@ -13000,7 +13000,7 @@
         <v>14</v>
       </c>
       <c r="J265" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="K265" t="s">
         <v>170</v>
@@ -13026,7 +13026,7 @@
         <v>14</v>
       </c>
       <c r="J266" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="K266" t="s">
         <v>63</v>
@@ -13052,7 +13052,7 @@
         <v>14</v>
       </c>
       <c r="J267" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="K267" t="s">
         <v>197</v>
@@ -13078,7 +13078,7 @@
         <v>14</v>
       </c>
       <c r="J268" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="K268" t="s">
         <v>964</v>
@@ -13104,7 +13104,7 @@
         <v>162</v>
       </c>
       <c r="J269" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="K269" t="s">
         <v>163</v>
@@ -13130,7 +13130,7 @@
         <v>14</v>
       </c>
       <c r="J270" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="K270" t="s">
         <v>426</v>
@@ -13156,7 +13156,7 @@
         <v>14</v>
       </c>
       <c r="J271" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="K271" t="s">
         <v>429</v>
@@ -13182,7 +13182,7 @@
         <v>14</v>
       </c>
       <c r="J272" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="K272" t="s">
         <v>275</v>
@@ -13208,7 +13208,7 @@
         <v>280</v>
       </c>
       <c r="J273" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="K273" t="s">
         <v>281</v>
@@ -13234,7 +13234,7 @@
         <v>802</v>
       </c>
       <c r="J274" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="K274" t="s">
         <v>803</v>
@@ -13260,7 +13260,7 @@
         <v>295</v>
       </c>
       <c r="J275" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="K275" t="s">
         <v>296</v>
@@ -13286,7 +13286,7 @@
         <v>14</v>
       </c>
       <c r="J276" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="K276" t="s">
         <v>421</v>
@@ -13312,7 +13312,7 @@
         <v>14</v>
       </c>
       <c r="J277" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="K277" t="s">
         <v>299</v>
@@ -13338,7 +13338,7 @@
         <v>14</v>
       </c>
       <c r="J278" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="K278" t="s">
         <v>438</v>
@@ -13364,7 +13364,7 @@
         <v>14</v>
       </c>
       <c r="J279" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="K279" t="s">
         <v>203</v>
@@ -13390,7 +13390,7 @@
         <v>14</v>
       </c>
       <c r="J280" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="K280" t="s">
         <v>424</v>
@@ -13416,7 +13416,7 @@
         <v>14</v>
       </c>
       <c r="J281" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="K281" t="s">
         <v>466</v>
@@ -13442,7 +13442,7 @@
         <v>14</v>
       </c>
       <c r="J282" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="K282" t="s">
         <v>1137</v>
@@ -13468,7 +13468,7 @@
         <v>14</v>
       </c>
       <c r="J283" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="K283" t="s">
         <v>435</v>
@@ -13494,7 +13494,7 @@
         <v>14</v>
       </c>
       <c r="J284" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="K284" t="s">
         <v>118</v>
@@ -13520,7 +13520,7 @@
         <v>290</v>
       </c>
       <c r="J285" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="K285" t="s">
         <v>291</v>
@@ -13571,7 +13571,7 @@
         <v>1270</v>
       </c>
       <c r="D288" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E288" t="s">
         <v>812</v>
@@ -13605,7 +13605,7 @@
         <v>1317</v>
       </c>
       <c r="D290" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E290" t="s">
         <v>809</v>
@@ -13656,7 +13656,7 @@
         <v>1275</v>
       </c>
       <c r="D293" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="E293" t="s">
         <v>1194</v>
@@ -13682,7 +13682,7 @@
         <v>14</v>
       </c>
       <c r="J294" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="K294" t="s">
         <v>836</v>
@@ -13708,7 +13708,7 @@
         <v>14</v>
       </c>
       <c r="J295" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="K295" t="s">
         <v>687</v>
@@ -13786,7 +13786,7 @@
         <v>797</v>
       </c>
       <c r="J298" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="K298" t="s">
         <v>798</v>
@@ -13812,7 +13812,7 @@
         <v>14</v>
       </c>
       <c r="J299" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="K299" t="s">
         <v>586</v>
@@ -13838,7 +13838,7 @@
         <v>147</v>
       </c>
       <c r="J300" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="K300" t="s">
         <v>148</v>
@@ -13864,7 +13864,7 @@
         <v>14</v>
       </c>
       <c r="J301" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="K301" t="s">
         <v>106</v>
@@ -13890,7 +13890,7 @@
         <v>14</v>
       </c>
       <c r="J302" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="K302" t="s">
         <v>517</v>
@@ -13941,7 +13941,7 @@
         <v>1268</v>
       </c>
       <c r="D305" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E305" t="s">
         <v>855</v>
@@ -13958,7 +13958,7 @@
         <v>1268</v>
       </c>
       <c r="D306" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E306" t="s">
         <v>997</v>
@@ -13984,7 +13984,7 @@
         <v>303</v>
       </c>
       <c r="J307" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="K307" t="s">
         <v>304</v>
@@ -14010,7 +14010,7 @@
         <v>14</v>
       </c>
       <c r="J308" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="K308" t="s">
         <v>311</v>
@@ -14036,7 +14036,7 @@
         <v>14</v>
       </c>
       <c r="J309" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="K309" t="s">
         <v>957</v>
@@ -14062,7 +14062,7 @@
         <v>1088</v>
       </c>
       <c r="J310" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="K310" t="s">
         <v>1089</v>
@@ -14088,7 +14088,7 @@
         <v>157</v>
       </c>
       <c r="J311" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="K311" t="s">
         <v>158</v>
@@ -14114,7 +14114,7 @@
         <v>1032</v>
       </c>
       <c r="J312" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="K312" t="s">
         <v>1033</v>
@@ -14140,7 +14140,7 @@
         <v>1037</v>
       </c>
       <c r="J313" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="K313" t="s">
         <v>1038</v>
@@ -14166,7 +14166,7 @@
         <v>14</v>
       </c>
       <c r="J314" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="K314" t="s">
         <v>1019</v>
@@ -14192,7 +14192,7 @@
         <v>14</v>
       </c>
       <c r="J315" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="K315" t="s">
         <v>1158</v>
@@ -14218,7 +14218,7 @@
         <v>14</v>
       </c>
       <c r="J316" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="K316" t="s">
         <v>478</v>
@@ -14244,7 +14244,7 @@
         <v>14</v>
       </c>
       <c r="J317" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="K317" t="s">
         <v>919</v>
@@ -14304,7 +14304,7 @@
         <v>14</v>
       </c>
       <c r="J320" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="K320" t="s">
         <v>235</v>
@@ -14330,7 +14330,7 @@
         <v>14</v>
       </c>
       <c r="J321" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="K321" t="s">
         <v>25</v>
@@ -14356,7 +14356,7 @@
         <v>14</v>
       </c>
       <c r="J322" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="K322" t="s">
         <v>275</v>
@@ -14382,7 +14382,7 @@
         <v>31</v>
       </c>
       <c r="J323" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="K323" t="s">
         <v>32</v>
@@ -14433,7 +14433,7 @@
         <v>1267</v>
       </c>
       <c r="D326" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E326" t="s">
         <v>474</v>
@@ -14450,7 +14450,7 @@
         <v>1332</v>
       </c>
       <c r="D327" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="E327" t="s">
         <v>1073</v>
@@ -14476,7 +14476,7 @@
         <v>1024</v>
       </c>
       <c r="J328" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="K328" t="s">
         <v>1019</v>
@@ -14502,7 +14502,7 @@
         <v>1027</v>
       </c>
       <c r="J329" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="K329" t="s">
         <v>1028</v>
@@ -14528,7 +14528,7 @@
         <v>14</v>
       </c>
       <c r="J330" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="K330" t="s">
         <v>916</v>
@@ -14554,7 +14554,7 @@
         <v>14</v>
       </c>
       <c r="J331" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="K331" t="s">
         <v>440</v>
@@ -14588,7 +14588,7 @@
         <v>1327</v>
       </c>
       <c r="D333" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E333" t="s">
         <v>1005</v>
@@ -14614,7 +14614,7 @@
         <v>433</v>
       </c>
       <c r="J334" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="K334" t="s">
         <v>203</v>
@@ -14640,7 +14640,7 @@
         <v>152</v>
       </c>
       <c r="J335" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="K335" t="s">
         <v>153</v>
@@ -14666,7 +14666,7 @@
         <v>14</v>
       </c>
       <c r="J336" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="K336" t="s">
         <v>393</v>
@@ -14717,7 +14717,7 @@
         <v>1299</v>
       </c>
       <c r="D339" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E339" t="s">
         <v>541</v>
@@ -14743,7 +14743,7 @@
         <v>14</v>
       </c>
       <c r="J340" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="K340" t="s">
         <v>203</v>
@@ -14769,7 +14769,7 @@
         <v>601</v>
       </c>
       <c r="J341" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="K341" t="s">
         <v>602</v>
@@ -14922,7 +14922,7 @@
         <v>1274</v>
       </c>
       <c r="D350" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="E350" t="s">
         <v>1121</v>
@@ -14939,7 +14939,7 @@
         <v>1319</v>
       </c>
       <c r="D351" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E351" t="s">
         <v>848</v>
@@ -14956,7 +14956,7 @@
         <v>1319</v>
       </c>
       <c r="D352" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E352" t="s">
         <v>850</v>
@@ -15001,61 +15001,61 @@
     </row>
     <row r="355" spans="1:12">
       <c r="A355" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="B355" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="D355" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="E355" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="F355" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="356" spans="1:12">
       <c r="A356" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="B356" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="D356" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="E356" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="F356" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="357" spans="1:12">
       <c r="A357" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E357" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F357" t="s">
         <v>1783</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D357" t="s">
-        <v>1813</v>
-      </c>
-      <c r="E357" t="s">
-        <v>1785</v>
-      </c>
-      <c r="F357" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="358" spans="1:12">
       <c r="A358" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="B358" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="D358" t="s">
         <v>14</v>
@@ -15067,612 +15067,612 @@
         <v>14</v>
       </c>
       <c r="J358" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="K358" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="L358" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="359" spans="1:12">
       <c r="A359" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="B359" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="D359" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="E359" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="F359" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="360" spans="1:12">
       <c r="A360" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="B360" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="D360" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="E360" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="F360" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="361" spans="1:12">
       <c r="A361" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1807</v>
+      </c>
+      <c r="E361" t="s">
+        <v>1772</v>
+      </c>
+      <c r="F361" t="s">
         <v>1773</v>
-      </c>
-      <c r="B361" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D361" t="s">
-        <v>1810</v>
-      </c>
-      <c r="E361" t="s">
-        <v>1775</v>
-      </c>
-      <c r="F361" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="362" spans="1:12">
       <c r="A362" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="B362" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="D362" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="E362" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="F362" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="363" spans="1:12">
       <c r="A363" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="B363" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="D363" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="E363" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="F363" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="364" spans="1:12">
       <c r="A364" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="B364" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="D364" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="E364" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="F364" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="365" spans="1:12">
       <c r="A365" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="B365" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="D365" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="E365" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="F365" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="366" spans="1:12">
       <c r="A366" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E366" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F366" t="s">
         <v>1764</v>
-      </c>
-      <c r="B366" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D366" t="s">
-        <v>1807</v>
-      </c>
-      <c r="E366" t="s">
-        <v>1766</v>
-      </c>
-      <c r="F366" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="367" spans="1:12">
       <c r="A367" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="B367" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D367" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="E367" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="F367" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="368" spans="1:12">
       <c r="A368" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="B368" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D368" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="E368" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="F368" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="369" spans="1:12">
       <c r="A369" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="B369" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E369" t="s">
         <v>1738</v>
       </c>
-      <c r="D369" t="s">
-        <v>1799</v>
-      </c>
-      <c r="E369" t="s">
-        <v>1741</v>
-      </c>
       <c r="F369" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="370" spans="1:12">
       <c r="A370" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="B370" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D370" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="E370" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="F370" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="371" spans="1:12">
       <c r="A371" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="B371" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D371" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="E371" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="F371" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="372" spans="1:12">
       <c r="A372" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="B372" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D372" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="E372" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="F372" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="373" spans="1:12">
       <c r="A373" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="B373" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D373" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="E373" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="F373" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="374" spans="1:12">
       <c r="A374" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="B374" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D374" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="E374" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="F374" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="375" spans="1:12">
       <c r="A375" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="B375" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D375" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="E375" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="F375" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="376" spans="1:12">
       <c r="A376" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E376" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F376" t="s">
         <v>1819</v>
-      </c>
-      <c r="B376" t="s">
-        <v>1820</v>
-      </c>
-      <c r="D376" t="s">
-        <v>1929</v>
-      </c>
-      <c r="E376" t="s">
-        <v>1821</v>
-      </c>
-      <c r="F376" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="377" spans="1:12">
       <c r="A377" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E377" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F377" t="s">
         <v>1823</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D377" t="s">
-        <v>1930</v>
-      </c>
-      <c r="E377" t="s">
-        <v>1825</v>
-      </c>
-      <c r="F377" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="378" spans="1:12">
       <c r="A378" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="B378" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="D378" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="E378" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="F378" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="379" spans="1:12">
       <c r="A379" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="B379" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="D379" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="E379" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="F379" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="380" spans="1:12">
       <c r="A380" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E380" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F380" t="s">
         <v>1833</v>
-      </c>
-      <c r="B380" t="s">
-        <v>1834</v>
-      </c>
-      <c r="D380" t="s">
-        <v>1933</v>
-      </c>
-      <c r="E380" t="s">
-        <v>1835</v>
-      </c>
-      <c r="F380" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="381" spans="1:12">
       <c r="A381" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E381" t="s">
+        <v>14</v>
+      </c>
+      <c r="F381" t="s">
+        <v>14</v>
+      </c>
+      <c r="J381" t="s">
+        <v>2244</v>
+      </c>
+      <c r="K381" t="s">
+        <v>1836</v>
+      </c>
+      <c r="L381" t="s">
         <v>1837</v>
-      </c>
-      <c r="B381" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D381" t="s">
-        <v>1934</v>
-      </c>
-      <c r="E381" t="s">
-        <v>14</v>
-      </c>
-      <c r="F381" t="s">
-        <v>14</v>
-      </c>
-      <c r="J381" t="s">
-        <v>2284</v>
-      </c>
-      <c r="K381" t="s">
-        <v>1839</v>
-      </c>
-      <c r="L381" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="382" spans="1:12">
       <c r="A382" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="B382" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="D382" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="E382" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="F382" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="383" spans="1:12">
       <c r="A383" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="B383" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="D383" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="E383" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="F383" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="384" spans="1:12">
       <c r="A384" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="B384" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E384" t="s">
         <v>1845</v>
       </c>
-      <c r="D384" t="s">
-        <v>1937</v>
-      </c>
-      <c r="E384" t="s">
-        <v>1848</v>
-      </c>
       <c r="F384" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="385" spans="1:12">
       <c r="A385" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E385" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F385" t="s">
+        <v>1853</v>
+      </c>
+      <c r="J385" t="s">
+        <v>2248</v>
+      </c>
+      <c r="K385" t="s">
         <v>1854</v>
       </c>
-      <c r="B385" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D385" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E385" t="s">
+      <c r="L385" t="s">
         <v>1855</v>
-      </c>
-      <c r="F385" t="s">
-        <v>1856</v>
-      </c>
-      <c r="J385" t="s">
-        <v>2288</v>
-      </c>
-      <c r="K385" t="s">
-        <v>1857</v>
-      </c>
-      <c r="L385" t="s">
-        <v>1858</v>
       </c>
     </row>
     <row r="386" spans="1:12">
       <c r="A386" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E386" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F386" t="s">
         <v>1850</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D386" t="s">
-        <v>1938</v>
-      </c>
-      <c r="E386" t="s">
-        <v>1852</v>
-      </c>
-      <c r="F386" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="387" spans="1:12">
       <c r="A387" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="B387" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="D387" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="E387" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="F387" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="388" spans="1:12">
       <c r="A388" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E388" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F388" t="s">
         <v>1862</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1863</v>
-      </c>
-      <c r="D388" t="s">
-        <v>1941</v>
-      </c>
-      <c r="E388" t="s">
-        <v>1864</v>
-      </c>
-      <c r="F388" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="389" spans="1:12">
       <c r="A389" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E389" t="s">
+        <v>1865</v>
+      </c>
+      <c r="F389" t="s">
         <v>1866</v>
       </c>
-      <c r="B389" t="s">
+      <c r="J389" t="s">
+        <v>2251</v>
+      </c>
+      <c r="K389" t="s">
         <v>1867</v>
       </c>
-      <c r="D389" t="s">
-        <v>1942</v>
-      </c>
-      <c r="E389" t="s">
+      <c r="L389" t="s">
         <v>1868</v>
-      </c>
-      <c r="F389" t="s">
-        <v>1869</v>
-      </c>
-      <c r="J389" t="s">
-        <v>2291</v>
-      </c>
-      <c r="K389" t="s">
-        <v>1870</v>
-      </c>
-      <c r="L389" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="390" spans="1:12">
       <c r="A390" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="B390" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="D390" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="E390" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="F390" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="391" spans="1:12">
       <c r="A391" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E391" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F391" t="s">
         <v>1875</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D391" t="s">
-        <v>1944</v>
-      </c>
-      <c r="E391" t="s">
-        <v>1877</v>
-      </c>
-      <c r="F391" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="392" spans="1:12">
       <c r="A392" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="B392" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="D392" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="E392" t="s">
         <v>14</v>
@@ -15681,47 +15681,47 @@
         <v>14</v>
       </c>
       <c r="J392" t="s">
-        <v>2283</v>
+        <v>2243</v>
       </c>
       <c r="K392" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="L392" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="393" spans="1:12">
       <c r="A393" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E393" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F393" t="s">
         <v>1879</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1880</v>
-      </c>
-      <c r="D393" t="s">
-        <v>1945</v>
-      </c>
-      <c r="E393" t="s">
-        <v>1881</v>
-      </c>
-      <c r="F393" t="s">
-        <v>1882</v>
       </c>
     </row>
     <row r="394" spans="1:12">
       <c r="A394" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="B394" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="D394" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="E394" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="F394" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -15729,10 +15729,10 @@
         <v>1237</v>
       </c>
       <c r="B395" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="D395" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="E395" t="s">
         <v>1238</v>
@@ -15741,13 +15741,13 @@
         <v>1239</v>
       </c>
       <c r="J395" t="s">
-        <v>2286</v>
+        <v>2246</v>
       </c>
       <c r="K395" t="s">
         <v>1240</v>
       </c>
       <c r="L395" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -15755,10 +15755,10 @@
         <v>844</v>
       </c>
       <c r="B396" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="D396" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="E396" t="s">
         <v>14</v>
@@ -15767,7 +15767,7 @@
         <v>14</v>
       </c>
       <c r="J396" t="s">
-        <v>2287</v>
+        <v>2247</v>
       </c>
       <c r="K396" t="s">
         <v>844</v>
@@ -15778,954 +15778,954 @@
     </row>
     <row r="397" spans="1:12">
       <c r="A397" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E397" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F397" t="s">
         <v>1891</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1892</v>
-      </c>
-      <c r="D397" t="s">
-        <v>1948</v>
-      </c>
-      <c r="E397" t="s">
-        <v>1893</v>
-      </c>
-      <c r="F397" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="398" spans="1:12">
       <c r="A398" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="B398" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="D398" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="E398" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="F398" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="399" spans="1:12">
       <c r="A399" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="B399" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="D399" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="E399" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="F399" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="400" spans="1:12">
       <c r="A400" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="B400" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E400" t="s">
         <v>1899</v>
       </c>
-      <c r="D400" t="s">
-        <v>1951</v>
-      </c>
-      <c r="E400" t="s">
-        <v>1902</v>
-      </c>
       <c r="F400" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="401" spans="1:12">
       <c r="A401" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E401" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F401" t="s">
         <v>1904</v>
-      </c>
-      <c r="B401" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D401" t="s">
-        <v>1952</v>
-      </c>
-      <c r="E401" t="s">
-        <v>1906</v>
-      </c>
-      <c r="F401" t="s">
-        <v>1907</v>
       </c>
     </row>
     <row r="402" spans="1:12">
       <c r="A402" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E402" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F402" t="s">
+        <v>1913</v>
+      </c>
+      <c r="J402" t="s">
+        <v>2245</v>
+      </c>
+      <c r="K402" t="s">
         <v>1914</v>
       </c>
-      <c r="B402" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D402" t="s">
-        <v>1954</v>
-      </c>
-      <c r="E402" t="s">
+      <c r="L402" t="s">
         <v>1915</v>
-      </c>
-      <c r="F402" t="s">
-        <v>1916</v>
-      </c>
-      <c r="J402" t="s">
-        <v>2285</v>
-      </c>
-      <c r="K402" t="s">
-        <v>1917</v>
-      </c>
-      <c r="L402" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="403" spans="1:12">
       <c r="A403" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E403" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F403" t="s">
+        <v>1918</v>
+      </c>
+      <c r="J403" t="s">
+        <v>2188</v>
+      </c>
+      <c r="K403" t="s">
         <v>1919</v>
       </c>
-      <c r="B403" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D403" t="s">
-        <v>1955</v>
-      </c>
-      <c r="E403" t="s">
+      <c r="L403" t="s">
         <v>1920</v>
-      </c>
-      <c r="F403" t="s">
-        <v>1921</v>
-      </c>
-      <c r="J403" t="s">
-        <v>2223</v>
-      </c>
-      <c r="K403" t="s">
-        <v>1922</v>
-      </c>
-      <c r="L403" t="s">
-        <v>1923</v>
       </c>
     </row>
     <row r="404" spans="1:12">
       <c r="A404" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F404" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J404" t="s">
+        <v>2249</v>
+      </c>
+      <c r="K404" t="s">
         <v>1924</v>
       </c>
-      <c r="B404" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D404" t="s">
-        <v>1956</v>
-      </c>
-      <c r="E404" t="s">
+      <c r="L404" t="s">
         <v>1925</v>
-      </c>
-      <c r="F404" t="s">
-        <v>1926</v>
-      </c>
-      <c r="J404" t="s">
-        <v>2289</v>
-      </c>
-      <c r="K404" t="s">
-        <v>1927</v>
-      </c>
-      <c r="L404" t="s">
-        <v>1928</v>
       </c>
     </row>
     <row r="405" spans="1:12">
       <c r="A405" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E405" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F405" t="s">
         <v>1908</v>
       </c>
-      <c r="B405" t="s">
+      <c r="J405" t="s">
+        <v>2250</v>
+      </c>
+      <c r="K405" t="s">
         <v>1909</v>
       </c>
-      <c r="D405" t="s">
-        <v>1953</v>
-      </c>
-      <c r="E405" t="s">
+      <c r="L405" t="s">
         <v>1910</v>
-      </c>
-      <c r="F405" t="s">
-        <v>1911</v>
-      </c>
-      <c r="J405" t="s">
-        <v>2290</v>
-      </c>
-      <c r="K405" t="s">
-        <v>1912</v>
-      </c>
-      <c r="L405" t="s">
-        <v>1913</v>
       </c>
     </row>
     <row r="406" spans="1:12">
       <c r="A406" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="B406" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="D406" t="s">
-        <v>1996</v>
+        <v>2293</v>
       </c>
       <c r="E406" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="F406" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="407" spans="1:12">
       <c r="A407" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="B407" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="D407" t="s">
-        <v>1997</v>
+        <v>2294</v>
       </c>
       <c r="E407" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="F407" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="408" spans="1:12">
       <c r="A408" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D408" t="s">
+        <v>2295</v>
+      </c>
+      <c r="E408" t="s">
         <v>1963</v>
       </c>
-      <c r="B408" t="s">
-        <v>1964</v>
-      </c>
-      <c r="D408" t="s">
-        <v>1998</v>
-      </c>
-      <c r="E408" t="s">
-        <v>1966</v>
-      </c>
       <c r="F408" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="409" spans="1:12">
       <c r="A409" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="B409" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D409" t="s">
-        <v>1999</v>
+        <v>2296</v>
       </c>
       <c r="E409" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="F409" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="410" spans="1:12">
       <c r="A410" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D410" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E410" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F410" t="s">
         <v>1970</v>
-      </c>
-      <c r="B410" t="s">
-        <v>1971</v>
-      </c>
-      <c r="D410" t="s">
-        <v>2000</v>
-      </c>
-      <c r="E410" t="s">
-        <v>1972</v>
-      </c>
-      <c r="F410" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="411" spans="1:12">
       <c r="A411" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D411" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F411" t="s">
         <v>1974</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1975</v>
-      </c>
-      <c r="D411" t="s">
-        <v>2001</v>
-      </c>
-      <c r="E411" t="s">
-        <v>1976</v>
-      </c>
-      <c r="F411" t="s">
-        <v>1977</v>
       </c>
     </row>
     <row r="412" spans="1:12">
       <c r="A412" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E412" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F412" t="s">
         <v>1978</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1979</v>
-      </c>
-      <c r="D412" t="s">
-        <v>1980</v>
-      </c>
-      <c r="E412" t="s">
-        <v>1980</v>
-      </c>
-      <c r="F412" t="s">
-        <v>1981</v>
       </c>
     </row>
     <row r="413" spans="1:12">
       <c r="A413" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D413" t="s">
+        <v>2299</v>
+      </c>
+      <c r="E413" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F413" t="s">
         <v>1982</v>
-      </c>
-      <c r="B413" t="s">
-        <v>1983</v>
-      </c>
-      <c r="D413" t="s">
-        <v>2002</v>
-      </c>
-      <c r="E413" t="s">
-        <v>1984</v>
-      </c>
-      <c r="F413" t="s">
-        <v>1985</v>
       </c>
     </row>
     <row r="414" spans="1:12">
       <c r="A414" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="B414" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D414" t="s">
-        <v>2003</v>
+        <v>2300</v>
       </c>
       <c r="E414" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="F414" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="415" spans="1:12">
       <c r="A415" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D415" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E415" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F415" t="s">
         <v>1989</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1990</v>
-      </c>
-      <c r="D415" t="s">
-        <v>2004</v>
-      </c>
-      <c r="E415" t="s">
-        <v>1991</v>
-      </c>
-      <c r="F415" t="s">
-        <v>1992</v>
       </c>
     </row>
     <row r="416" spans="1:12">
       <c r="A416" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="B416" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="D416" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="E416" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="F416" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="417" spans="1:12">
       <c r="A417" t="s">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="B417" t="s">
-        <v>2006</v>
+        <v>1994</v>
       </c>
       <c r="D417" t="s">
-        <v>2199</v>
+        <v>2302</v>
       </c>
       <c r="E417" t="s">
-        <v>2007</v>
+        <v>1995</v>
       </c>
       <c r="F417" t="s">
-        <v>2008</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="418" spans="1:12">
       <c r="A418" t="s">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="B418" t="s">
-        <v>2010</v>
+        <v>1998</v>
       </c>
       <c r="D418" t="s">
-        <v>2200</v>
+        <v>2303</v>
       </c>
       <c r="E418" t="s">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="F418" t="s">
-        <v>2012</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="419" spans="1:12">
       <c r="A419" t="s">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="B419" t="s">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="D419" t="s">
-        <v>2201</v>
+        <v>1518</v>
       </c>
       <c r="E419" t="s">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="F419" t="s">
-        <v>2015</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="420" spans="1:12">
       <c r="A420" t="s">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="B420" t="s">
-        <v>2014</v>
+        <v>2002</v>
       </c>
       <c r="D420" t="s">
-        <v>2202</v>
+        <v>2304</v>
       </c>
       <c r="E420" t="s">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="F420" t="s">
-        <v>2018</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="421" spans="1:12">
       <c r="A421" t="s">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="B421" t="s">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="D421" t="s">
-        <v>2203</v>
+        <v>2305</v>
       </c>
       <c r="E421" t="s">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="F421" t="s">
-        <v>2022</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="422" spans="1:12">
       <c r="A422" t="s">
-        <v>2023</v>
+        <v>2011</v>
       </c>
       <c r="B422" t="s">
-        <v>2024</v>
+        <v>2012</v>
       </c>
       <c r="D422" t="s">
-        <v>2204</v>
+        <v>2306</v>
       </c>
       <c r="E422" t="s">
-        <v>2025</v>
+        <v>2013</v>
       </c>
       <c r="F422" t="s">
-        <v>2026</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="423" spans="1:12">
       <c r="A423" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B423" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F423" t="s">
+        <v>1918</v>
+      </c>
+      <c r="J423" t="s">
+        <v>2188</v>
+      </c>
+      <c r="K423" t="s">
         <v>1919</v>
       </c>
-      <c r="B423" t="s">
-        <v>2027</v>
-      </c>
-      <c r="D423" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E423" t="s">
-        <v>1920</v>
-      </c>
-      <c r="F423" t="s">
-        <v>1921</v>
-      </c>
-      <c r="J423" t="s">
-        <v>2223</v>
-      </c>
-      <c r="K423" t="s">
-        <v>1922</v>
-      </c>
       <c r="L423" t="s">
-        <v>2028</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="424" spans="1:12">
       <c r="A424" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B424" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F424" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J424" t="s">
+        <v>2189</v>
+      </c>
+      <c r="K424" t="s">
         <v>1924</v>
       </c>
-      <c r="B424" t="s">
-        <v>2027</v>
-      </c>
-      <c r="D424" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E424" t="s">
-        <v>1925</v>
-      </c>
-      <c r="F424" t="s">
-        <v>1926</v>
-      </c>
-      <c r="J424" t="s">
-        <v>2224</v>
-      </c>
-      <c r="K424" t="s">
-        <v>1927</v>
-      </c>
       <c r="L424" t="s">
-        <v>2029</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="425" spans="1:12">
       <c r="A425" t="s">
-        <v>2030</v>
+        <v>2018</v>
       </c>
       <c r="B425" t="s">
-        <v>2031</v>
+        <v>2019</v>
       </c>
       <c r="D425" t="s">
-        <v>2205</v>
+        <v>2307</v>
       </c>
       <c r="E425" t="s">
-        <v>2033</v>
+        <v>2021</v>
       </c>
       <c r="F425" t="s">
-        <v>2032</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="426" spans="1:12">
       <c r="A426" t="s">
-        <v>2034</v>
+        <v>2022</v>
       </c>
       <c r="B426" t="s">
-        <v>2031</v>
+        <v>2019</v>
       </c>
       <c r="D426" t="s">
-        <v>2206</v>
+        <v>2308</v>
       </c>
       <c r="E426" t="s">
-        <v>2035</v>
+        <v>2023</v>
       </c>
       <c r="F426" t="s">
-        <v>2036</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="427" spans="1:12">
       <c r="A427" t="s">
-        <v>2037</v>
+        <v>2025</v>
       </c>
       <c r="B427" t="s">
-        <v>2031</v>
+        <v>2019</v>
       </c>
       <c r="D427" t="s">
-        <v>2207</v>
+        <v>2309</v>
       </c>
       <c r="E427" t="s">
-        <v>2038</v>
+        <v>2026</v>
       </c>
       <c r="F427" t="s">
-        <v>2039</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="428" spans="1:12">
       <c r="A428" t="s">
-        <v>2049</v>
+        <v>2037</v>
       </c>
       <c r="B428" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D428" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E428" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F428" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J428" t="s">
+        <v>2191</v>
+      </c>
+      <c r="K428" t="s">
+        <v>2040</v>
+      </c>
+      <c r="L428" t="s">
         <v>2041</v>
-      </c>
-      <c r="D428" t="s">
-        <v>2050</v>
-      </c>
-      <c r="E428" t="s">
-        <v>2050</v>
-      </c>
-      <c r="F428" t="s">
-        <v>2051</v>
-      </c>
-      <c r="J428" t="s">
-        <v>2226</v>
-      </c>
-      <c r="K428" t="s">
-        <v>2052</v>
-      </c>
-      <c r="L428" t="s">
-        <v>2053</v>
       </c>
     </row>
     <row r="429" spans="1:12">
       <c r="A429" t="s">
-        <v>2040</v>
+        <v>2028</v>
       </c>
       <c r="B429" t="s">
-        <v>2041</v>
+        <v>2029</v>
       </c>
       <c r="D429" t="s">
-        <v>2042</v>
+        <v>2030</v>
       </c>
       <c r="E429" t="s">
-        <v>2042</v>
+        <v>2030</v>
       </c>
       <c r="F429" t="s">
-        <v>2043</v>
+        <v>2031</v>
       </c>
       <c r="J429" t="s">
-        <v>2225</v>
+        <v>2190</v>
       </c>
       <c r="K429" t="s">
-        <v>2044</v>
+        <v>2032</v>
       </c>
       <c r="L429" t="s">
-        <v>2045</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="430" spans="1:12">
       <c r="A430" t="s">
-        <v>2046</v>
+        <v>2034</v>
       </c>
       <c r="B430" t="s">
-        <v>2041</v>
+        <v>2029</v>
       </c>
       <c r="D430" t="s">
-        <v>2047</v>
+        <v>2035</v>
       </c>
       <c r="E430" t="s">
-        <v>2047</v>
+        <v>2035</v>
       </c>
       <c r="F430" t="s">
-        <v>2047</v>
+        <v>2035</v>
       </c>
       <c r="J430" t="s">
-        <v>2048</v>
+        <v>2036</v>
       </c>
       <c r="K430" t="s">
-        <v>2048</v>
+        <v>2036</v>
       </c>
       <c r="L430" t="s">
-        <v>2048</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="431" spans="1:12">
       <c r="A431" t="s">
-        <v>2060</v>
+        <v>2048</v>
       </c>
       <c r="B431" t="s">
-        <v>2055</v>
+        <v>2043</v>
       </c>
       <c r="D431" t="s">
-        <v>2061</v>
+        <v>2049</v>
       </c>
       <c r="E431" t="s">
-        <v>2061</v>
+        <v>2049</v>
       </c>
       <c r="F431" t="s">
-        <v>2062</v>
+        <v>2050</v>
       </c>
       <c r="J431" t="s">
-        <v>2228</v>
+        <v>2193</v>
       </c>
       <c r="K431" t="s">
-        <v>2063</v>
+        <v>2051</v>
       </c>
       <c r="L431" t="s">
-        <v>2064</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="432" spans="1:12">
       <c r="A432" t="s">
-        <v>2054</v>
+        <v>2042</v>
       </c>
       <c r="B432" t="s">
-        <v>2055</v>
+        <v>2043</v>
       </c>
       <c r="D432" t="s">
-        <v>2056</v>
+        <v>2044</v>
       </c>
       <c r="E432" t="s">
-        <v>2056</v>
+        <v>2044</v>
       </c>
       <c r="F432" t="s">
-        <v>2057</v>
+        <v>2045</v>
       </c>
       <c r="J432" t="s">
-        <v>2227</v>
+        <v>2192</v>
       </c>
       <c r="K432" t="s">
-        <v>2058</v>
+        <v>2046</v>
       </c>
       <c r="L432" t="s">
-        <v>2059</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="433" spans="1:12">
       <c r="A433" t="s">
-        <v>2065</v>
+        <v>2053</v>
       </c>
       <c r="B433" t="s">
-        <v>2066</v>
+        <v>2054</v>
       </c>
       <c r="D433" t="s">
-        <v>2208</v>
+        <v>2288</v>
       </c>
       <c r="E433" t="s">
-        <v>2067</v>
+        <v>2055</v>
       </c>
       <c r="F433" t="s">
-        <v>2068</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="434" spans="1:12">
       <c r="A434" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="B434" t="s">
-        <v>2069</v>
+        <v>2057</v>
       </c>
       <c r="D434" t="s">
-        <v>2070</v>
+        <v>2058</v>
       </c>
       <c r="E434" t="s">
-        <v>2070</v>
+        <v>2058</v>
       </c>
       <c r="F434" t="s">
-        <v>2071</v>
+        <v>2059</v>
       </c>
       <c r="J434" t="s">
-        <v>2229</v>
+        <v>2194</v>
       </c>
       <c r="K434" t="s">
-        <v>2072</v>
+        <v>2060</v>
       </c>
       <c r="L434" t="s">
-        <v>2073</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="435" spans="1:12">
       <c r="A435" t="s">
-        <v>2078</v>
+        <v>2066</v>
       </c>
       <c r="B435" t="s">
-        <v>2075</v>
+        <v>2063</v>
       </c>
       <c r="D435" t="s">
-        <v>2079</v>
+        <v>2067</v>
       </c>
       <c r="E435" t="s">
-        <v>2079</v>
+        <v>2067</v>
       </c>
       <c r="F435" t="s">
-        <v>2080</v>
+        <v>2068</v>
       </c>
       <c r="J435" t="s">
-        <v>2230</v>
+        <v>2195</v>
       </c>
       <c r="K435" t="s">
-        <v>2082</v>
+        <v>2070</v>
       </c>
       <c r="L435" t="s">
-        <v>2081</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="436" spans="1:12">
       <c r="A436" t="s">
-        <v>2083</v>
+        <v>2071</v>
       </c>
       <c r="B436" t="s">
-        <v>2075</v>
+        <v>2063</v>
       </c>
       <c r="D436" t="s">
-        <v>2084</v>
+        <v>2072</v>
       </c>
       <c r="E436" t="s">
-        <v>2084</v>
+        <v>2072</v>
       </c>
       <c r="F436" t="s">
-        <v>2085</v>
+        <v>2073</v>
       </c>
       <c r="J436" t="s">
-        <v>2230</v>
+        <v>2195</v>
       </c>
       <c r="K436" t="s">
-        <v>2082</v>
+        <v>2070</v>
       </c>
       <c r="L436" t="s">
-        <v>2081</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="437" spans="1:12">
       <c r="A437" t="s">
-        <v>2074</v>
+        <v>2062</v>
       </c>
       <c r="B437" t="s">
-        <v>2075</v>
+        <v>2063</v>
       </c>
       <c r="D437" t="s">
-        <v>2209</v>
+        <v>2289</v>
       </c>
       <c r="E437" t="s">
-        <v>2076</v>
+        <v>2064</v>
       </c>
       <c r="F437" t="s">
-        <v>2077</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="438" spans="1:12">
       <c r="A438" t="s">
-        <v>2086</v>
+        <v>2074</v>
       </c>
       <c r="B438" t="s">
-        <v>2087</v>
+        <v>2075</v>
       </c>
       <c r="D438" t="s">
-        <v>2088</v>
+        <v>2076</v>
       </c>
       <c r="E438" t="s">
-        <v>2088</v>
+        <v>2076</v>
       </c>
       <c r="F438" t="s">
-        <v>2089</v>
+        <v>2077</v>
       </c>
       <c r="J438" t="s">
-        <v>2231</v>
+        <v>2196</v>
       </c>
       <c r="K438" t="s">
-        <v>2090</v>
+        <v>2078</v>
       </c>
       <c r="L438" t="s">
-        <v>2091</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="439" spans="1:12">
       <c r="A439" t="s">
-        <v>2092</v>
+        <v>2080</v>
       </c>
       <c r="B439" t="s">
-        <v>2093</v>
+        <v>2081</v>
       </c>
       <c r="D439" t="s">
-        <v>2210</v>
+        <v>2290</v>
       </c>
       <c r="E439" t="s">
-        <v>2094</v>
+        <v>2082</v>
       </c>
       <c r="F439" t="s">
-        <v>2095</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="440" spans="1:12">
       <c r="A440" t="s">
-        <v>2096</v>
+        <v>2084</v>
       </c>
       <c r="B440" t="s">
-        <v>2097</v>
+        <v>2085</v>
       </c>
       <c r="D440" t="s">
-        <v>2211</v>
+        <v>2291</v>
       </c>
       <c r="E440" t="s">
-        <v>2098</v>
+        <v>2086</v>
       </c>
       <c r="F440" t="s">
-        <v>2099</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="441" spans="1:12">
       <c r="A441" t="s">
-        <v>2100</v>
+        <v>2088</v>
       </c>
       <c r="B441" t="s">
-        <v>2101</v>
+        <v>2089</v>
       </c>
       <c r="D441" t="s">
-        <v>2102</v>
+        <v>2292</v>
       </c>
       <c r="E441" t="s">
-        <v>2102</v>
+        <v>2090</v>
       </c>
       <c r="F441" t="s">
-        <v>2103</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="442" spans="1:12">
       <c r="A442" t="s">
-        <v>2104</v>
+        <v>2092</v>
       </c>
       <c r="B442" t="s">
-        <v>2105</v>
+        <v>2093</v>
       </c>
       <c r="D442" t="s">
-        <v>2106</v>
+        <v>2094</v>
       </c>
       <c r="E442" t="s">
-        <v>2106</v>
+        <v>2094</v>
       </c>
       <c r="F442" t="s">
-        <v>2107</v>
+        <v>2095</v>
       </c>
       <c r="J442" t="s">
-        <v>2232</v>
+        <v>2197</v>
       </c>
       <c r="K442" t="s">
-        <v>2108</v>
+        <v>2096</v>
       </c>
       <c r="L442" t="s">
-        <v>2109</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="443" spans="1:12">
       <c r="A443" t="s">
-        <v>2110</v>
+        <v>2098</v>
       </c>
       <c r="B443" t="s">
-        <v>2105</v>
+        <v>2093</v>
       </c>
       <c r="D443" t="s">
-        <v>2111</v>
+        <v>2099</v>
       </c>
       <c r="E443" t="s">
-        <v>2111</v>
+        <v>2099</v>
       </c>
       <c r="F443" t="s">
-        <v>2112</v>
+        <v>2100</v>
       </c>
       <c r="J443" t="s">
-        <v>2233</v>
+        <v>2198</v>
       </c>
       <c r="K443" t="s">
-        <v>2113</v>
+        <v>2101</v>
       </c>
       <c r="L443" t="s">
-        <v>2114</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -16745,7 +16745,7 @@
         <v>782</v>
       </c>
       <c r="J444" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="K444" t="s">
         <v>783</v>
@@ -16771,7 +16771,7 @@
         <v>782</v>
       </c>
       <c r="J445" t="s">
-        <v>2234</v>
+        <v>2199</v>
       </c>
       <c r="K445" t="s">
         <v>783</v>
@@ -16782,147 +16782,147 @@
     </row>
     <row r="446" spans="1:12">
       <c r="A446" t="s">
-        <v>2115</v>
+        <v>2103</v>
       </c>
       <c r="B446" t="s">
-        <v>2116</v>
+        <v>2104</v>
       </c>
       <c r="D446" t="s">
-        <v>2212</v>
+        <v>2281</v>
       </c>
       <c r="E446" t="s">
-        <v>2117</v>
+        <v>2105</v>
       </c>
       <c r="F446" t="s">
-        <v>2118</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="447" spans="1:12">
       <c r="A447" t="s">
-        <v>2119</v>
+        <v>2107</v>
       </c>
       <c r="B447" t="s">
-        <v>2120</v>
+        <v>2108</v>
       </c>
       <c r="D447" t="s">
-        <v>2213</v>
+        <v>2282</v>
       </c>
       <c r="E447" t="s">
-        <v>2119</v>
+        <v>2107</v>
       </c>
       <c r="F447" t="s">
-        <v>2121</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="448" spans="1:12">
       <c r="A448" t="s">
-        <v>2122</v>
+        <v>2110</v>
       </c>
       <c r="B448" t="s">
-        <v>2120</v>
+        <v>2108</v>
       </c>
       <c r="D448" t="s">
-        <v>2123</v>
+        <v>2111</v>
       </c>
       <c r="E448" t="s">
-        <v>2123</v>
+        <v>2111</v>
       </c>
       <c r="F448" t="s">
-        <v>2123</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="449" spans="1:12">
       <c r="A449" t="s">
-        <v>2124</v>
+        <v>2112</v>
       </c>
       <c r="B449" t="s">
-        <v>2125</v>
+        <v>2113</v>
       </c>
       <c r="D449" t="s">
-        <v>2214</v>
+        <v>2283</v>
       </c>
       <c r="E449" t="s">
-        <v>2126</v>
+        <v>2114</v>
       </c>
       <c r="F449" t="s">
-        <v>2127</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="450" spans="1:12">
       <c r="A450" t="s">
-        <v>2128</v>
+        <v>2116</v>
       </c>
       <c r="B450" t="s">
-        <v>2129</v>
+        <v>2117</v>
       </c>
       <c r="D450" t="s">
-        <v>2215</v>
+        <v>2284</v>
       </c>
       <c r="E450" t="s">
-        <v>2130</v>
+        <v>2118</v>
       </c>
       <c r="F450" t="s">
-        <v>2131</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="451" spans="1:12">
       <c r="A451" t="s">
-        <v>2132</v>
+        <v>2120</v>
       </c>
       <c r="B451" t="s">
-        <v>2129</v>
+        <v>2117</v>
       </c>
       <c r="D451" t="s">
-        <v>2133</v>
+        <v>2121</v>
       </c>
       <c r="E451" t="s">
-        <v>2133</v>
+        <v>2121</v>
       </c>
       <c r="F451" t="s">
-        <v>2134</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="452" spans="1:12">
       <c r="A452" t="s">
-        <v>2135</v>
+        <v>2123</v>
       </c>
       <c r="B452" t="s">
-        <v>2136</v>
+        <v>2124</v>
       </c>
       <c r="D452" t="s">
-        <v>2135</v>
+        <v>2285</v>
       </c>
       <c r="E452" t="s">
-        <v>2135</v>
+        <v>2123</v>
       </c>
       <c r="F452" t="s">
-        <v>2137</v>
+        <v>2125</v>
       </c>
       <c r="J452" t="s">
-        <v>2235</v>
+        <v>2200</v>
       </c>
       <c r="K452" t="s">
-        <v>2138</v>
+        <v>2126</v>
       </c>
       <c r="L452" t="s">
-        <v>2139</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="453" spans="1:12">
       <c r="A453" t="s">
-        <v>2147</v>
+        <v>2135</v>
       </c>
       <c r="B453" t="s">
-        <v>2141</v>
+        <v>2129</v>
       </c>
       <c r="D453" t="s">
-        <v>2218</v>
+        <v>2187</v>
       </c>
       <c r="E453" t="s">
-        <v>2148</v>
+        <v>2136</v>
       </c>
       <c r="F453" t="s">
-        <v>2149</v>
+        <v>2137</v>
       </c>
       <c r="J453" t="s">
         <v>1444</v>
@@ -16936,44 +16936,44 @@
     </row>
     <row r="454" spans="1:12">
       <c r="A454" t="s">
-        <v>2140</v>
+        <v>2128</v>
       </c>
       <c r="B454" t="s">
-        <v>2141</v>
+        <v>2129</v>
       </c>
       <c r="D454" t="s">
-        <v>2216</v>
+        <v>2286</v>
       </c>
       <c r="E454" t="s">
-        <v>2142</v>
+        <v>2130</v>
       </c>
       <c r="F454" t="s">
-        <v>2143</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="455" spans="1:12">
       <c r="A455" t="s">
-        <v>2144</v>
+        <v>2132</v>
       </c>
       <c r="B455" t="s">
-        <v>2141</v>
+        <v>2129</v>
       </c>
       <c r="D455" t="s">
-        <v>2217</v>
+        <v>2287</v>
       </c>
       <c r="E455" t="s">
-        <v>2145</v>
+        <v>2133</v>
       </c>
       <c r="F455" t="s">
-        <v>2146</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="456" spans="1:12">
       <c r="A456" t="s">
-        <v>2150</v>
+        <v>2138</v>
       </c>
       <c r="B456" t="s">
-        <v>2151</v>
+        <v>2139</v>
       </c>
       <c r="D456" t="s">
         <v>1252</v>
@@ -16985,13 +16985,13 @@
         <v>1253</v>
       </c>
       <c r="J456" t="s">
-        <v>2236</v>
+        <v>2201</v>
       </c>
       <c r="K456" t="s">
-        <v>2152</v>
+        <v>2140</v>
       </c>
       <c r="L456" t="s">
-        <v>2153</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -16999,7 +16999,7 @@
         <v>887</v>
       </c>
       <c r="B457" t="s">
-        <v>2154</v>
+        <v>2142</v>
       </c>
       <c r="D457" t="s">
         <v>14</v>
@@ -17011,13 +17011,13 @@
         <v>14</v>
       </c>
       <c r="J457" t="s">
-        <v>2239</v>
+        <v>2204</v>
       </c>
       <c r="K457" t="s">
-        <v>2159</v>
+        <v>2147</v>
       </c>
       <c r="L457" t="s">
-        <v>2160</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -17025,7 +17025,7 @@
         <v>838</v>
       </c>
       <c r="B458" t="s">
-        <v>2154</v>
+        <v>2142</v>
       </c>
       <c r="D458" t="s">
         <v>14</v>
@@ -17037,13 +17037,13 @@
         <v>14</v>
       </c>
       <c r="J458" t="s">
-        <v>2237</v>
+        <v>2202</v>
       </c>
       <c r="K458" t="s">
-        <v>2155</v>
+        <v>2143</v>
       </c>
       <c r="L458" t="s">
-        <v>2156</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -17051,7 +17051,7 @@
         <v>886</v>
       </c>
       <c r="B459" t="s">
-        <v>2154</v>
+        <v>2142</v>
       </c>
       <c r="D459" t="s">
         <v>14</v>
@@ -17063,21 +17063,21 @@
         <v>14</v>
       </c>
       <c r="J459" t="s">
-        <v>2238</v>
+        <v>2203</v>
       </c>
       <c r="K459" t="s">
-        <v>2157</v>
+        <v>2145</v>
       </c>
       <c r="L459" t="s">
-        <v>2158</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="460" spans="1:12">
       <c r="A460" t="s">
-        <v>2161</v>
+        <v>2149</v>
       </c>
       <c r="B460" t="s">
-        <v>2162</v>
+        <v>2150</v>
       </c>
       <c r="D460" t="s">
         <v>1252</v>
@@ -17089,30 +17089,30 @@
         <v>1253</v>
       </c>
       <c r="J460" t="s">
-        <v>2240</v>
+        <v>2205</v>
       </c>
       <c r="K460" t="s">
-        <v>2163</v>
+        <v>2151</v>
       </c>
       <c r="L460" t="s">
-        <v>2164</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="461" spans="1:12">
       <c r="A461" t="s">
-        <v>2165</v>
+        <v>2153</v>
       </c>
       <c r="B461" t="s">
-        <v>2162</v>
+        <v>2150</v>
       </c>
       <c r="D461" t="s">
-        <v>2219</v>
+        <v>2278</v>
       </c>
       <c r="E461" t="s">
-        <v>2167</v>
+        <v>2155</v>
       </c>
       <c r="F461" t="s">
-        <v>2166</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -17120,7 +17120,7 @@
         <v>207</v>
       </c>
       <c r="B462" t="s">
-        <v>2168</v>
+        <v>2156</v>
       </c>
       <c r="D462" t="s">
         <v>14</v>
@@ -17132,7 +17132,7 @@
         <v>14</v>
       </c>
       <c r="J462" t="s">
-        <v>2241</v>
+        <v>2206</v>
       </c>
       <c r="K462" t="s">
         <v>208</v>
@@ -17143,13 +17143,13 @@
     </row>
     <row r="463" spans="1:12">
       <c r="A463" t="s">
-        <v>2169</v>
+        <v>2157</v>
       </c>
       <c r="B463" t="s">
-        <v>2170</v>
+        <v>2158</v>
       </c>
       <c r="D463" t="s">
-        <v>2220</v>
+        <v>1364</v>
       </c>
       <c r="E463" t="s">
         <v>124</v>
@@ -17160,241 +17160,241 @@
     </row>
     <row r="464" spans="1:12">
       <c r="A464" t="s">
-        <v>2171</v>
+        <v>2159</v>
       </c>
       <c r="B464" t="s">
-        <v>2172</v>
+        <v>2160</v>
       </c>
       <c r="D464" t="s">
-        <v>2173</v>
+        <v>2161</v>
       </c>
       <c r="E464" t="s">
-        <v>2173</v>
+        <v>2161</v>
       </c>
       <c r="F464" t="s">
-        <v>2173</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="465" spans="1:12">
       <c r="A465" t="s">
-        <v>2174</v>
+        <v>2162</v>
       </c>
       <c r="B465" t="s">
-        <v>2175</v>
+        <v>2163</v>
       </c>
       <c r="D465" t="s">
-        <v>2221</v>
+        <v>2279</v>
       </c>
       <c r="E465" t="s">
-        <v>2176</v>
+        <v>2164</v>
       </c>
       <c r="F465" t="s">
-        <v>2177</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="466" spans="1:12">
       <c r="A466" t="s">
-        <v>2178</v>
+        <v>2166</v>
       </c>
       <c r="B466" t="s">
-        <v>2179</v>
+        <v>2167</v>
       </c>
       <c r="D466" t="s">
-        <v>2222</v>
+        <v>2280</v>
       </c>
       <c r="E466" t="s">
-        <v>2178</v>
+        <v>2166</v>
       </c>
       <c r="F466" t="s">
-        <v>2180</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="467" spans="1:12">
       <c r="A467" t="s">
-        <v>2181</v>
+        <v>2169</v>
       </c>
       <c r="B467" t="s">
-        <v>2182</v>
+        <v>2170</v>
       </c>
       <c r="D467" t="s">
-        <v>2183</v>
+        <v>2171</v>
       </c>
       <c r="E467" t="s">
-        <v>2183</v>
+        <v>2171</v>
       </c>
       <c r="F467" t="s">
-        <v>2184</v>
+        <v>2172</v>
       </c>
       <c r="J467" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="K467" t="s">
-        <v>2185</v>
+        <v>2173</v>
       </c>
       <c r="L467" t="s">
-        <v>2186</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="468" spans="1:12">
       <c r="A468" t="s">
-        <v>2187</v>
+        <v>2175</v>
       </c>
       <c r="B468" t="s">
-        <v>2188</v>
+        <v>2176</v>
       </c>
       <c r="D468" t="s">
-        <v>2189</v>
+        <v>2177</v>
       </c>
       <c r="E468" t="s">
-        <v>2189</v>
+        <v>2177</v>
       </c>
       <c r="F468" t="s">
-        <v>2190</v>
+        <v>2178</v>
       </c>
       <c r="J468" t="s">
-        <v>2242</v>
+        <v>2207</v>
       </c>
       <c r="K468" t="s">
-        <v>2191</v>
+        <v>2179</v>
       </c>
       <c r="L468" t="s">
-        <v>2192</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="469" spans="1:12">
       <c r="A469" t="s">
-        <v>2193</v>
+        <v>2181</v>
       </c>
       <c r="B469" t="s">
-        <v>2194</v>
+        <v>2182</v>
       </c>
       <c r="D469" t="s">
-        <v>2195</v>
+        <v>2183</v>
       </c>
       <c r="E469" t="s">
-        <v>2195</v>
+        <v>2183</v>
       </c>
       <c r="F469" t="s">
-        <v>2196</v>
+        <v>2184</v>
       </c>
       <c r="J469" t="s">
-        <v>2243</v>
+        <v>2208</v>
       </c>
       <c r="K469" t="s">
-        <v>2197</v>
+        <v>2185</v>
       </c>
       <c r="L469" t="s">
-        <v>2198</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="470" spans="1:12">
       <c r="A470" s="2" t="s">
-        <v>2244</v>
+        <v>2209</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>2245</v>
+        <v>2210</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>2244</v>
+        <v>2209</v>
       </c>
       <c r="F470" t="s">
-        <v>2246</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="471" spans="1:12">
       <c r="A471" s="2" t="s">
-        <v>2247</v>
+        <v>2212</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>2245</v>
+        <v>2210</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>2248</v>
+        <v>2213</v>
       </c>
       <c r="F471" t="s">
-        <v>2249</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="472" spans="1:12">
       <c r="A472" s="2" t="s">
-        <v>2250</v>
+        <v>2215</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>2245</v>
+        <v>2210</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>2251</v>
+        <v>2276</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>2251</v>
+        <v>2216</v>
       </c>
       <c r="F472" t="s">
-        <v>2252</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="473" spans="1:12">
       <c r="A473" s="2" t="s">
-        <v>2253</v>
+        <v>2218</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>2245</v>
+        <v>2210</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>2278</v>
+        <v>1353</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>2254</v>
+        <v>2219</v>
       </c>
       <c r="F473" t="s">
-        <v>2255</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="474" spans="1:12">
       <c r="A474" s="2" t="s">
-        <v>2256</v>
+        <v>2221</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>2257</v>
+        <v>2222</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>2279</v>
+        <v>2273</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>2258</v>
+        <v>2223</v>
       </c>
       <c r="F474" t="s">
-        <v>2259</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="475" spans="1:12">
       <c r="A475" s="2" t="s">
-        <v>2260</v>
+        <v>2225</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>2257</v>
+        <v>2222</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>2261</v>
+        <v>2226</v>
       </c>
       <c r="F475" t="s">
-        <v>2262</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="476" spans="1:12">
       <c r="A476" s="2" t="s">
-        <v>2263</v>
+        <v>2228</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>2264</v>
+        <v>2229</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>14</v>
@@ -17406,7 +17406,7 @@
         <v>14</v>
       </c>
       <c r="J476" s="4" t="s">
-        <v>2281</v>
+        <v>2241</v>
       </c>
       <c r="K476" s="2" t="s">
         <v>86</v>
@@ -17417,10 +17417,10 @@
     </row>
     <row r="477" spans="1:12">
       <c r="A477" s="2" t="s">
-        <v>2265</v>
+        <v>2230</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>2264</v>
+        <v>2229</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>14</v>
@@ -17432,7 +17432,7 @@
         <v>14</v>
       </c>
       <c r="J477" s="4" t="s">
-        <v>2281</v>
+        <v>2241</v>
       </c>
       <c r="K477" s="2" t="s">
         <v>86</v>
@@ -17443,10 +17443,10 @@
     </row>
     <row r="478" spans="1:12">
       <c r="A478" s="2" t="s">
-        <v>2273</v>
+        <v>2238</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>2267</v>
+        <v>2232</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>14</v>
@@ -17458,66 +17458,66 @@
         <v>14</v>
       </c>
       <c r="J478" s="4" t="s">
-        <v>2282</v>
+        <v>2242</v>
       </c>
       <c r="K478" s="2" t="s">
-        <v>2274</v>
+        <v>2239</v>
       </c>
       <c r="L478" t="s">
-        <v>2275</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="479" spans="1:12">
       <c r="A479" s="2" t="s">
-        <v>2266</v>
+        <v>2231</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>2267</v>
+        <v>2232</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>2269</v>
+        <v>2234</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>2269</v>
+        <v>2234</v>
       </c>
       <c r="F479" s="2" t="s">
-        <v>2269</v>
+        <v>2234</v>
       </c>
       <c r="J479" s="3"/>
     </row>
     <row r="480" spans="1:12">
       <c r="A480" s="2" t="s">
-        <v>2270</v>
+        <v>2235</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>2267</v>
+        <v>2232</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>2271</v>
+        <v>2236</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>2271</v>
+        <v>2236</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>2271</v>
+        <v>2236</v>
       </c>
       <c r="J480" s="3"/>
     </row>
     <row r="481" spans="1:12">
       <c r="A481" s="2" t="s">
-        <v>2272</v>
+        <v>2237</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>2267</v>
+        <v>2232</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>2268</v>
+        <v>2233</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>2268</v>
+        <v>2233</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>2268</v>
+        <v>2233</v>
       </c>
       <c r="J481" s="3"/>
     </row>
@@ -17529,7 +17529,7 @@
         <v>1325</v>
       </c>
       <c r="D482" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E482" t="s">
         <v>989</v>
@@ -17546,7 +17546,7 @@
         <v>1325</v>
       </c>
       <c r="D483" t="s">
-        <v>1559</v>
+        <v>2272</v>
       </c>
       <c r="E483" t="s">
         <v>1041</v>
@@ -17572,7 +17572,7 @@
         <v>14</v>
       </c>
       <c r="J484" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="K484" t="s">
         <v>1016</v>
@@ -17598,7 +17598,7 @@
         <v>14</v>
       </c>
       <c r="J485" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="K485" t="s">
         <v>391</v>
@@ -17624,7 +17624,7 @@
         <v>128</v>
       </c>
       <c r="J486" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="K486" t="s">
         <v>129</v>
@@ -17650,7 +17650,7 @@
         <v>14</v>
       </c>
       <c r="J487" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="K487" t="s">
         <v>172</v>
@@ -17667,7 +17667,7 @@
         <v>1278</v>
       </c>
       <c r="D488" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E488" t="s">
         <v>812</v>
@@ -17778,7 +17778,7 @@
         <v>285</v>
       </c>
       <c r="J494" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="K494" t="s">
         <v>286</v>
@@ -17795,7 +17795,7 @@
         <v>1303</v>
       </c>
       <c r="D495" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E495" t="s">
         <v>457</v>
@@ -17812,7 +17812,7 @@
         <v>1303</v>
       </c>
       <c r="D496" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E496" t="s">
         <v>657</v>
@@ -17829,7 +17829,7 @@
         <v>1303</v>
       </c>
       <c r="D497" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E497" t="s">
         <v>660</v>
@@ -17846,7 +17846,7 @@
         <v>1303</v>
       </c>
       <c r="D498" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E498" t="s">
         <v>663</v>
@@ -17863,7 +17863,7 @@
         <v>1303</v>
       </c>
       <c r="D499" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E499" t="s">
         <v>666</v>
@@ -17897,7 +17897,7 @@
         <v>1297</v>
       </c>
       <c r="D501" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E501" t="s">
         <v>451</v>
@@ -17914,7 +17914,7 @@
         <v>1297</v>
       </c>
       <c r="D502" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E502" t="s">
         <v>571</v>
@@ -17931,7 +17931,7 @@
         <v>1297</v>
       </c>
       <c r="D503" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E503" t="s">
         <v>574</v>
@@ -17999,7 +17999,7 @@
         <v>1283</v>
       </c>
       <c r="D507" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E507" t="s">
         <v>692</v>
@@ -18016,7 +18016,7 @@
         <v>1283</v>
       </c>
       <c r="D508" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="E508" t="s">
         <v>695</v>
@@ -18042,7 +18042,7 @@
         <v>493</v>
       </c>
       <c r="J509" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="K509" t="s">
         <v>494</v>
@@ -18076,7 +18076,7 @@
         <v>1284</v>
       </c>
       <c r="D511" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E511" t="s">
         <v>547</v>
@@ -18093,7 +18093,7 @@
         <v>1307</v>
       </c>
       <c r="D512" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E512" t="s">
         <v>497</v>
@@ -18145,7 +18145,7 @@
         <v>1107</v>
       </c>
       <c r="J514" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="K514" t="s">
         <v>1108</v>
@@ -18162,7 +18162,7 @@
         <v>1310</v>
       </c>
       <c r="D515" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E515" t="s">
         <v>592</v>
@@ -18179,7 +18179,7 @@
         <v>1310</v>
       </c>
       <c r="D516" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E516" t="s">
         <v>793</v>
@@ -18196,7 +18196,7 @@
         <v>1310</v>
       </c>
       <c r="D517" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="E517" t="s">
         <v>1129</v>
@@ -18213,7 +18213,7 @@
         <v>1330</v>
       </c>
       <c r="D518" t="s">
-        <v>1560</v>
+        <v>2271</v>
       </c>
       <c r="E518" t="s">
         <v>1044</v>
@@ -18247,7 +18247,7 @@
         <v>1296</v>
       </c>
       <c r="D520" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E520" t="s">
         <v>514</v>
@@ -18264,7 +18264,7 @@
         <v>1296</v>
       </c>
       <c r="D521" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E521" t="s">
         <v>889</v>
@@ -18281,7 +18281,7 @@
         <v>1296</v>
       </c>
       <c r="D522" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E522" t="s">
         <v>892</v>
@@ -18324,7 +18324,7 @@
         <v>1326</v>
       </c>
       <c r="D524" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E524" t="s">
         <v>995</v>
@@ -18341,7 +18341,7 @@
         <v>1326</v>
       </c>
       <c r="D525" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E525" t="s">
         <v>1000</v>
@@ -18358,7 +18358,7 @@
         <v>1320</v>
       </c>
       <c r="D526" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E526" t="s">
         <v>861</v>
@@ -18375,7 +18375,7 @@
         <v>1320</v>
       </c>
       <c r="D527" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="E527" t="s">
         <v>1131</v>
@@ -18392,7 +18392,7 @@
         <v>1320</v>
       </c>
       <c r="D528" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="E528" t="s">
         <v>1134</v>
@@ -18418,7 +18418,7 @@
         <v>488</v>
       </c>
       <c r="J529" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="K529" t="s">
         <v>489</v>
@@ -18435,7 +18435,7 @@
         <v>1306</v>
       </c>
       <c r="D530" t="s">
-        <v>1560</v>
+        <v>2271</v>
       </c>
       <c r="E530" t="s">
         <v>1044</v>
@@ -18461,7 +18461,7 @@
         <v>14</v>
       </c>
       <c r="J531" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="K531" t="s">
         <v>233</v>
@@ -18504,7 +18504,7 @@
         <v>1115</v>
       </c>
       <c r="J533" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="K533" t="s">
         <v>1116</v>
@@ -18538,7 +18538,7 @@
         <v>1300</v>
       </c>
       <c r="D535" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E535" t="s">
         <v>560</v>
@@ -18555,7 +18555,7 @@
         <v>1322</v>
       </c>
       <c r="D536" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E536" t="s">
         <v>900</v>
@@ -18572,7 +18572,7 @@
         <v>1312</v>
       </c>
       <c r="D537" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E537" t="s">
         <v>607</v>
@@ -18589,7 +18589,7 @@
         <v>1312</v>
       </c>
       <c r="D538" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E538" t="s">
         <v>610</v>
@@ -18606,7 +18606,7 @@
         <v>1312</v>
       </c>
       <c r="D539" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E539" t="s">
         <v>613</v>
@@ -18700,7 +18700,7 @@
         <v>596</v>
       </c>
       <c r="J544" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="K544" t="s">
         <v>597</v>
@@ -18717,7 +18717,7 @@
         <v>1311</v>
       </c>
       <c r="D545" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="E545" t="s">
         <v>1156</v>
@@ -18751,7 +18751,7 @@
         <v>1291</v>
       </c>
       <c r="D547" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E547" t="s">
         <v>520</v>
@@ -18785,7 +18785,7 @@
         <v>1331</v>
       </c>
       <c r="D549" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="E549" t="s">
         <v>1055</v>
@@ -18794,7 +18794,7 @@
         <v>1056</v>
       </c>
       <c r="J549" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="K549" t="s">
         <v>1053</v>
@@ -18811,7 +18811,7 @@
         <v>1331</v>
       </c>
       <c r="D550" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="E550" t="s">
         <v>1053</v>
@@ -18828,7 +18828,7 @@
         <v>1321</v>
       </c>
       <c r="D551" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E551" t="s">
         <v>867</v>
@@ -18845,7 +18845,7 @@
         <v>1321</v>
       </c>
       <c r="D552" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E552" t="s">
         <v>870</v>
@@ -18862,7 +18862,7 @@
         <v>1321</v>
       </c>
       <c r="D553" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E553" t="s">
         <v>895</v>
@@ -18879,7 +18879,7 @@
         <v>1321</v>
       </c>
       <c r="D554" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E554" t="s">
         <v>898</v>
@@ -18890,44 +18890,44 @@
     </row>
     <row r="555" spans="1:12">
       <c r="A555" t="s">
-        <v>2292</v>
+        <v>2252</v>
       </c>
       <c r="B555" t="s">
-        <v>2293</v>
+        <v>2253</v>
       </c>
       <c r="D555" t="s">
-        <v>2307</v>
+        <v>2268</v>
       </c>
       <c r="E555" t="s">
-        <v>2294</v>
+        <v>2254</v>
       </c>
       <c r="F555" t="s">
-        <v>2295</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="556" spans="1:12">
       <c r="A556" t="s">
-        <v>2296</v>
+        <v>2256</v>
       </c>
       <c r="B556" t="s">
-        <v>2293</v>
+        <v>2253</v>
       </c>
       <c r="D556" t="s">
-        <v>2308</v>
+        <v>2269</v>
       </c>
       <c r="E556" t="s">
-        <v>2296</v>
+        <v>2256</v>
       </c>
       <c r="F556" t="s">
-        <v>2297</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="557" spans="1:12">
       <c r="A557" t="s">
-        <v>2298</v>
+        <v>2258</v>
       </c>
       <c r="B557" t="s">
-        <v>2299</v>
+        <v>2259</v>
       </c>
       <c r="D557" t="s">
         <v>1252</v>
@@ -18939,7 +18939,7 @@
         <v>1253</v>
       </c>
       <c r="J557" t="s">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="K557" t="s">
         <v>1254</v>
@@ -18950,36 +18950,36 @@
     </row>
     <row r="558" spans="1:12">
       <c r="A558" t="s">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="B558" t="s">
-        <v>2302</v>
+        <v>2262</v>
       </c>
       <c r="D558" t="s">
-        <v>2309</v>
+        <v>2270</v>
       </c>
       <c r="E558" t="s">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="F558" t="s">
-        <v>2303</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="559" spans="1:12">
       <c r="A559" t="s">
-        <v>2304</v>
+        <v>2264</v>
       </c>
       <c r="B559" t="s">
-        <v>2302</v>
+        <v>2262</v>
       </c>
       <c r="D559" t="s">
-        <v>2310</v>
+        <v>2267</v>
       </c>
       <c r="E559" t="s">
-        <v>2305</v>
+        <v>2265</v>
       </c>
       <c r="F559" t="s">
-        <v>2306</v>
+        <v>2266</v>
       </c>
     </row>
   </sheetData>

--- a/PTBR/Lang/PTBR/Game/Chara.xlsx
+++ b/PTBR/Lang/PTBR/Game/Chara.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCED460F-B88D-4B6C-B933-8CD77B3E25AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DBADA8-FCBA-43BA-844E-F5C3184D1410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2130" windowWidth="15480" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chara" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3497" uniqueCount="2311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3497" uniqueCount="2301">
   <si>
     <t>id</t>
   </si>
@@ -5410,63 +5410,6 @@
     <t>アザラシ</t>
   </si>
   <si>
-    <t xml:space="preserve">Tubarão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixinho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixe-Coroa  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixe-Coral  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xidazoon  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixe-Anjo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robalo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piranha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixe-Balão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polvo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bebê Kraken  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Água-Viva  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cavalo-Marinho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caramujo-Marinho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tartaruga  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anêmona-do-Mar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragão-Marinho Folhado  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velozinho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arqueiro Velozinho  </t>
-  </si>
-  <si>
     <t>Foca</t>
   </si>
   <si>
@@ -5803,90 +5746,6 @@
     <t>天穿の</t>
   </si>
   <si>
-    <t xml:space="preserve">Camarão-Mantis Ancestral  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tubarão Irmã Mais Nova  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verme Marinho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fera de Um Chifre  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Putit D'água  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">*r  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kraken  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahagin  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filhote de Shub-Niggurath  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahagin Ladrão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bicerin  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yog-Sothoth  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahagin Feiticeiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ligon Faminto do Mar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinguim  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixe-Pedra  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinguim Imperador  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escorpião-Marinho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jure  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onda Gigante  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cthaat  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tricerátopo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dagon  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tigre Dente-de-Sabre  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nanasu  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poina  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raina  </t>
-  </si>
-  <si>
     <t>EA 23.153</t>
   </si>
   <si>
@@ -6956,6 +6815,117 @@
   </si>
   <si>
     <t>Cara Gato</t>
+  </si>
+  <si>
+    <t>Tartaruga</t>
+  </si>
+  <si>
+    <t>Anêmona-do-Mar</t>
+  </si>
+  <si>
+    <t>Dragão-Marinho Folhado</t>
+  </si>
+  <si>
+    <t>Velozinho</t>
+  </si>
+  <si>
+    <t>Cavalo-Marinho</t>
+  </si>
+  <si>
+    <t>Arqueiro Velozinho</t>
+  </si>
+  <si>
+    <t>Peixe-Balão</t>
+  </si>
+  <si>
+    <t>Água-Viva</t>
+  </si>
+  <si>
+    <t>Caramujo-Marinho</t>
+  </si>
+  <si>
+    <t>Polvo</t>
+  </si>
+  <si>
+    <t>Bebê Kraken</t>
+  </si>
+  <si>
+    <t>Tubarão</t>
+  </si>
+  <si>
+    <t>Peixinho</t>
+  </si>
+  <si>
+    <t>Peixe-Coroa</t>
+  </si>
+  <si>
+    <t>Peixe-Coral</t>
+  </si>
+  <si>
+    <t>Xidazoon</t>
+  </si>
+  <si>
+    <t>Peixe-Anjo</t>
+  </si>
+  <si>
+    <t>Robalo</t>
+  </si>
+  <si>
+    <t>Piranha</t>
+  </si>
+  <si>
+    <t>Camarão-Mantis Ancestral</t>
+  </si>
+  <si>
+    <t>Tubarão Irmã Mais Nova</t>
+  </si>
+  <si>
+    <t>Verme Marinho</t>
+  </si>
+  <si>
+    <t>Fera de Um Chifre</t>
+  </si>
+  <si>
+    <t>Putit D'água</t>
+  </si>
+  <si>
+    <t>Kraken</t>
+  </si>
+  <si>
+    <t>Sahagin</t>
+  </si>
+  <si>
+    <t>Filhote de Shub-Niggurath</t>
+  </si>
+  <si>
+    <t>Sahagin Ladrão</t>
+  </si>
+  <si>
+    <t>Sahagin Feiticeiro</t>
+  </si>
+  <si>
+    <t>Ligon Faminto do Mar</t>
+  </si>
+  <si>
+    <t>Pinguim</t>
+  </si>
+  <si>
+    <t>Peixe-Pedra</t>
+  </si>
+  <si>
+    <t>Pinguim Imperador</t>
+  </si>
+  <si>
+    <t>Escorpião-Marinho</t>
+  </si>
+  <si>
+    <t>Onda Gigante</t>
+  </si>
+  <si>
+    <t>Tricerátopo</t>
+  </si>
+  <si>
+    <t>Tigre Dente-de-Sabre</t>
   </si>
 </sst>
 </file>
@@ -7354,8 +7324,8 @@
   <dimension ref="A1:L559"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
+      <pane ySplit="2" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D355" sqref="D355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10499,7 +10469,7 @@
         <v>1261</v>
       </c>
       <c r="D138" t="s">
-        <v>2310</v>
+        <v>2263</v>
       </c>
       <c r="E138" t="s">
         <v>460</v>
@@ -15007,7 +14977,7 @@
         <v>1778</v>
       </c>
       <c r="D355" t="s">
-        <v>1809</v>
+        <v>2264</v>
       </c>
       <c r="E355" t="s">
         <v>1777</v>
@@ -15024,7 +14994,7 @@
         <v>1778</v>
       </c>
       <c r="D356" t="s">
-        <v>1814</v>
+        <v>1795</v>
       </c>
       <c r="E356" t="s">
         <v>1793</v>
@@ -15041,7 +15011,7 @@
         <v>1781</v>
       </c>
       <c r="D357" t="s">
-        <v>1810</v>
+        <v>2265</v>
       </c>
       <c r="E357" t="s">
         <v>1782</v>
@@ -15067,7 +15037,7 @@
         <v>14</v>
       </c>
       <c r="J358" t="s">
-        <v>1815</v>
+        <v>1796</v>
       </c>
       <c r="K358" t="s">
         <v>1731</v>
@@ -15084,7 +15054,7 @@
         <v>1732</v>
       </c>
       <c r="D359" t="s">
-        <v>1811</v>
+        <v>2266</v>
       </c>
       <c r="E359" t="s">
         <v>1785</v>
@@ -15101,7 +15071,7 @@
         <v>1732</v>
       </c>
       <c r="D360" t="s">
-        <v>1812</v>
+        <v>2267</v>
       </c>
       <c r="E360" t="s">
         <v>1787</v>
@@ -15118,7 +15088,7 @@
         <v>1771</v>
       </c>
       <c r="D361" t="s">
-        <v>1807</v>
+        <v>2268</v>
       </c>
       <c r="E361" t="s">
         <v>1772</v>
@@ -15135,7 +15105,7 @@
         <v>1771</v>
       </c>
       <c r="D362" t="s">
-        <v>1813</v>
+        <v>2269</v>
       </c>
       <c r="E362" t="s">
         <v>1790</v>
@@ -15152,7 +15122,7 @@
         <v>1759</v>
       </c>
       <c r="D363" t="s">
-        <v>1803</v>
+        <v>2270</v>
       </c>
       <c r="E363" t="s">
         <v>1758</v>
@@ -15169,7 +15139,7 @@
         <v>1759</v>
       </c>
       <c r="D364" t="s">
-        <v>1806</v>
+        <v>2271</v>
       </c>
       <c r="E364" t="s">
         <v>1768</v>
@@ -15186,7 +15156,7 @@
         <v>1759</v>
       </c>
       <c r="D365" t="s">
-        <v>1808</v>
+        <v>2272</v>
       </c>
       <c r="E365" t="s">
         <v>1775</v>
@@ -15203,7 +15173,7 @@
         <v>1762</v>
       </c>
       <c r="D366" t="s">
-        <v>1804</v>
+        <v>2273</v>
       </c>
       <c r="E366" t="s">
         <v>1763</v>
@@ -15220,7 +15190,7 @@
         <v>1762</v>
       </c>
       <c r="D367" t="s">
-        <v>1805</v>
+        <v>2274</v>
       </c>
       <c r="E367" t="s">
         <v>1766</v>
@@ -15237,7 +15207,7 @@
         <v>1735</v>
       </c>
       <c r="D368" t="s">
-        <v>1795</v>
+        <v>2275</v>
       </c>
       <c r="E368" t="s">
         <v>1734</v>
@@ -15254,7 +15224,7 @@
         <v>1735</v>
       </c>
       <c r="D369" t="s">
-        <v>1796</v>
+        <v>2276</v>
       </c>
       <c r="E369" t="s">
         <v>1738</v>
@@ -15271,7 +15241,7 @@
         <v>1735</v>
       </c>
       <c r="D370" t="s">
-        <v>1797</v>
+        <v>2277</v>
       </c>
       <c r="E370" t="s">
         <v>1741</v>
@@ -15288,7 +15258,7 @@
         <v>1735</v>
       </c>
       <c r="D371" t="s">
-        <v>1798</v>
+        <v>2278</v>
       </c>
       <c r="E371" t="s">
         <v>1744</v>
@@ -15305,7 +15275,7 @@
         <v>1735</v>
       </c>
       <c r="D372" t="s">
-        <v>1799</v>
+        <v>2279</v>
       </c>
       <c r="E372" t="s">
         <v>1747</v>
@@ -15322,7 +15292,7 @@
         <v>1735</v>
       </c>
       <c r="D373" t="s">
-        <v>1800</v>
+        <v>2280</v>
       </c>
       <c r="E373" t="s">
         <v>1750</v>
@@ -15339,7 +15309,7 @@
         <v>1735</v>
       </c>
       <c r="D374" t="s">
-        <v>1801</v>
+        <v>2281</v>
       </c>
       <c r="E374" t="s">
         <v>1753</v>
@@ -15356,7 +15326,7 @@
         <v>1735</v>
       </c>
       <c r="D375" t="s">
-        <v>1802</v>
+        <v>2282</v>
       </c>
       <c r="E375" t="s">
         <v>1756</v>
@@ -15367,98 +15337,98 @@
     </row>
     <row r="376" spans="1:12">
       <c r="A376" t="s">
-        <v>1816</v>
+        <v>1797</v>
       </c>
       <c r="B376" t="s">
-        <v>1817</v>
+        <v>1798</v>
       </c>
       <c r="D376" t="s">
-        <v>1926</v>
+        <v>2283</v>
       </c>
       <c r="E376" t="s">
-        <v>1818</v>
+        <v>1799</v>
       </c>
       <c r="F376" t="s">
-        <v>1819</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="377" spans="1:12">
       <c r="A377" t="s">
-        <v>1820</v>
+        <v>1801</v>
       </c>
       <c r="B377" t="s">
-        <v>1821</v>
+        <v>1802</v>
       </c>
       <c r="D377" t="s">
-        <v>1927</v>
+        <v>2284</v>
       </c>
       <c r="E377" t="s">
-        <v>1822</v>
+        <v>1803</v>
       </c>
       <c r="F377" t="s">
-        <v>1823</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="378" spans="1:12">
       <c r="A378" t="s">
-        <v>1824</v>
+        <v>1805</v>
       </c>
       <c r="B378" t="s">
-        <v>1821</v>
+        <v>1802</v>
       </c>
       <c r="D378" t="s">
-        <v>1928</v>
+        <v>2285</v>
       </c>
       <c r="E378" t="s">
-        <v>1825</v>
+        <v>1806</v>
       </c>
       <c r="F378" t="s">
-        <v>1826</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="379" spans="1:12">
       <c r="A379" t="s">
-        <v>1827</v>
+        <v>1808</v>
       </c>
       <c r="B379" t="s">
-        <v>1821</v>
+        <v>1802</v>
       </c>
       <c r="D379" t="s">
-        <v>1929</v>
+        <v>2286</v>
       </c>
       <c r="E379" t="s">
-        <v>1828</v>
+        <v>1809</v>
       </c>
       <c r="F379" t="s">
-        <v>1829</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="380" spans="1:12">
       <c r="A380" t="s">
-        <v>1830</v>
+        <v>1811</v>
       </c>
       <c r="B380" t="s">
-        <v>1831</v>
+        <v>1812</v>
       </c>
       <c r="D380" t="s">
-        <v>1930</v>
+        <v>2287</v>
       </c>
       <c r="E380" t="s">
-        <v>1832</v>
+        <v>1813</v>
       </c>
       <c r="F380" t="s">
-        <v>1833</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="381" spans="1:12">
       <c r="A381" t="s">
-        <v>1834</v>
+        <v>1815</v>
       </c>
       <c r="B381" t="s">
-        <v>1835</v>
+        <v>1816</v>
       </c>
       <c r="D381" t="s">
-        <v>1931</v>
+        <v>14</v>
       </c>
       <c r="E381" t="s">
         <v>14</v>
@@ -15467,212 +15437,212 @@
         <v>14</v>
       </c>
       <c r="J381" t="s">
-        <v>2244</v>
+        <v>2197</v>
       </c>
       <c r="K381" t="s">
-        <v>1836</v>
+        <v>1817</v>
       </c>
       <c r="L381" t="s">
-        <v>1837</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="382" spans="1:12">
       <c r="A382" t="s">
-        <v>1838</v>
+        <v>1819</v>
       </c>
       <c r="B382" t="s">
-        <v>1839</v>
+        <v>1820</v>
       </c>
       <c r="D382" t="s">
-        <v>1932</v>
+        <v>2288</v>
       </c>
       <c r="E382" t="s">
-        <v>1838</v>
+        <v>1819</v>
       </c>
       <c r="F382" t="s">
-        <v>1840</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="383" spans="1:12">
       <c r="A383" t="s">
-        <v>1841</v>
+        <v>1822</v>
       </c>
       <c r="B383" t="s">
-        <v>1842</v>
+        <v>1823</v>
       </c>
       <c r="D383" t="s">
-        <v>1933</v>
+        <v>2289</v>
       </c>
       <c r="E383" t="s">
-        <v>1841</v>
+        <v>1822</v>
       </c>
       <c r="F383" t="s">
-        <v>1843</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="384" spans="1:12">
       <c r="A384" t="s">
-        <v>1844</v>
+        <v>1825</v>
       </c>
       <c r="B384" t="s">
-        <v>1842</v>
+        <v>1823</v>
       </c>
       <c r="D384" t="s">
-        <v>1934</v>
+        <v>2290</v>
       </c>
       <c r="E384" t="s">
-        <v>1845</v>
+        <v>1826</v>
       </c>
       <c r="F384" t="s">
-        <v>1846</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="385" spans="1:12">
       <c r="A385" t="s">
-        <v>1851</v>
+        <v>1832</v>
       </c>
       <c r="B385" t="s">
-        <v>1848</v>
+        <v>1829</v>
       </c>
       <c r="D385" t="s">
-        <v>1936</v>
+        <v>1833</v>
       </c>
       <c r="E385" t="s">
-        <v>1852</v>
+        <v>1833</v>
       </c>
       <c r="F385" t="s">
-        <v>1853</v>
+        <v>1834</v>
       </c>
       <c r="J385" t="s">
-        <v>2248</v>
+        <v>2201</v>
       </c>
       <c r="K385" t="s">
-        <v>1854</v>
+        <v>1835</v>
       </c>
       <c r="L385" t="s">
-        <v>1855</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="386" spans="1:12">
       <c r="A386" t="s">
-        <v>1847</v>
+        <v>1828</v>
       </c>
       <c r="B386" t="s">
-        <v>1848</v>
+        <v>1829</v>
       </c>
       <c r="D386" t="s">
-        <v>1935</v>
+        <v>2291</v>
       </c>
       <c r="E386" t="s">
-        <v>1849</v>
+        <v>1830</v>
       </c>
       <c r="F386" t="s">
-        <v>1850</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="387" spans="1:12">
       <c r="A387" t="s">
-        <v>1856</v>
+        <v>1837</v>
       </c>
       <c r="B387" t="s">
-        <v>1848</v>
+        <v>1829</v>
       </c>
       <c r="D387" t="s">
-        <v>1937</v>
+        <v>1838</v>
       </c>
       <c r="E387" t="s">
-        <v>1857</v>
+        <v>1838</v>
       </c>
       <c r="F387" t="s">
-        <v>1858</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="388" spans="1:12">
       <c r="A388" t="s">
-        <v>1859</v>
+        <v>1840</v>
       </c>
       <c r="B388" t="s">
-        <v>1860</v>
+        <v>1841</v>
       </c>
       <c r="D388" t="s">
-        <v>1938</v>
+        <v>2292</v>
       </c>
       <c r="E388" t="s">
-        <v>1861</v>
+        <v>1842</v>
       </c>
       <c r="F388" t="s">
-        <v>1862</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="389" spans="1:12">
       <c r="A389" t="s">
-        <v>1863</v>
+        <v>1844</v>
       </c>
       <c r="B389" t="s">
-        <v>1864</v>
+        <v>1845</v>
       </c>
       <c r="D389" t="s">
-        <v>1939</v>
+        <v>2293</v>
       </c>
       <c r="E389" t="s">
-        <v>1865</v>
+        <v>1846</v>
       </c>
       <c r="F389" t="s">
-        <v>1866</v>
+        <v>1847</v>
       </c>
       <c r="J389" t="s">
-        <v>2251</v>
+        <v>2204</v>
       </c>
       <c r="K389" t="s">
-        <v>1867</v>
+        <v>1848</v>
       </c>
       <c r="L389" t="s">
-        <v>1868</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="390" spans="1:12">
       <c r="A390" t="s">
-        <v>1869</v>
+        <v>1850</v>
       </c>
       <c r="B390" t="s">
-        <v>1870</v>
+        <v>1851</v>
       </c>
       <c r="D390" t="s">
-        <v>1940</v>
+        <v>2294</v>
       </c>
       <c r="E390" t="s">
-        <v>1869</v>
+        <v>1850</v>
       </c>
       <c r="F390" t="s">
-        <v>1871</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="391" spans="1:12">
       <c r="A391" t="s">
-        <v>1872</v>
+        <v>1853</v>
       </c>
       <c r="B391" t="s">
-        <v>1873</v>
+        <v>1854</v>
       </c>
       <c r="D391" t="s">
-        <v>1941</v>
+        <v>2295</v>
       </c>
       <c r="E391" t="s">
-        <v>1874</v>
+        <v>1855</v>
       </c>
       <c r="F391" t="s">
-        <v>1875</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="392" spans="1:12">
       <c r="A392" t="s">
-        <v>1880</v>
+        <v>1861</v>
       </c>
       <c r="B392" t="s">
-        <v>1877</v>
+        <v>1858</v>
       </c>
       <c r="D392" t="s">
-        <v>1931</v>
+        <v>14</v>
       </c>
       <c r="E392" t="s">
         <v>14</v>
@@ -15681,47 +15651,47 @@
         <v>14</v>
       </c>
       <c r="J392" t="s">
-        <v>2243</v>
+        <v>2196</v>
       </c>
       <c r="K392" t="s">
-        <v>1881</v>
+        <v>1862</v>
       </c>
       <c r="L392" t="s">
-        <v>1882</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="393" spans="1:12">
       <c r="A393" t="s">
-        <v>1876</v>
+        <v>1857</v>
       </c>
       <c r="B393" t="s">
-        <v>1877</v>
+        <v>1858</v>
       </c>
       <c r="D393" t="s">
-        <v>1942</v>
+        <v>2296</v>
       </c>
       <c r="E393" t="s">
-        <v>1878</v>
+        <v>1859</v>
       </c>
       <c r="F393" t="s">
-        <v>1879</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="394" spans="1:12">
       <c r="A394" t="s">
-        <v>1883</v>
+        <v>1864</v>
       </c>
       <c r="B394" t="s">
-        <v>1877</v>
+        <v>1858</v>
       </c>
       <c r="D394" t="s">
-        <v>1943</v>
+        <v>2297</v>
       </c>
       <c r="E394" t="s">
-        <v>1884</v>
+        <v>1865</v>
       </c>
       <c r="F394" t="s">
-        <v>1885</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -15729,10 +15699,10 @@
         <v>1237</v>
       </c>
       <c r="B395" t="s">
-        <v>1886</v>
+        <v>1867</v>
       </c>
       <c r="D395" t="s">
-        <v>1944</v>
+        <v>1238</v>
       </c>
       <c r="E395" t="s">
         <v>1238</v>
@@ -15741,13 +15711,13 @@
         <v>1239</v>
       </c>
       <c r="J395" t="s">
-        <v>2246</v>
+        <v>2199</v>
       </c>
       <c r="K395" t="s">
         <v>1240</v>
       </c>
       <c r="L395" t="s">
-        <v>1887</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -15755,10 +15725,10 @@
         <v>844</v>
       </c>
       <c r="B396" t="s">
-        <v>1886</v>
+        <v>1867</v>
       </c>
       <c r="D396" t="s">
-        <v>1931</v>
+        <v>14</v>
       </c>
       <c r="E396" t="s">
         <v>14</v>
@@ -15767,7 +15737,7 @@
         <v>14</v>
       </c>
       <c r="J396" t="s">
-        <v>2247</v>
+        <v>2200</v>
       </c>
       <c r="K396" t="s">
         <v>844</v>
@@ -15778,191 +15748,191 @@
     </row>
     <row r="397" spans="1:12">
       <c r="A397" t="s">
-        <v>1888</v>
+        <v>1869</v>
       </c>
       <c r="B397" t="s">
-        <v>1889</v>
+        <v>1870</v>
       </c>
       <c r="D397" t="s">
-        <v>1945</v>
+        <v>2298</v>
       </c>
       <c r="E397" t="s">
-        <v>1890</v>
+        <v>1871</v>
       </c>
       <c r="F397" t="s">
-        <v>1891</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="398" spans="1:12">
       <c r="A398" t="s">
-        <v>1892</v>
+        <v>1873</v>
       </c>
       <c r="B398" t="s">
-        <v>1889</v>
+        <v>1870</v>
       </c>
       <c r="D398" t="s">
-        <v>1946</v>
+        <v>1874</v>
       </c>
       <c r="E398" t="s">
-        <v>1893</v>
+        <v>1874</v>
       </c>
       <c r="F398" t="s">
-        <v>1894</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="399" spans="1:12">
       <c r="A399" t="s">
-        <v>1895</v>
+        <v>1876</v>
       </c>
       <c r="B399" t="s">
-        <v>1896</v>
+        <v>1877</v>
       </c>
       <c r="D399" t="s">
-        <v>1947</v>
+        <v>2299</v>
       </c>
       <c r="E399" t="s">
-        <v>1895</v>
+        <v>1876</v>
       </c>
       <c r="F399" t="s">
-        <v>1897</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="400" spans="1:12">
       <c r="A400" t="s">
-        <v>1898</v>
+        <v>1879</v>
       </c>
       <c r="B400" t="s">
-        <v>1896</v>
+        <v>1877</v>
       </c>
       <c r="D400" t="s">
-        <v>1948</v>
+        <v>1880</v>
       </c>
       <c r="E400" t="s">
-        <v>1899</v>
+        <v>1880</v>
       </c>
       <c r="F400" t="s">
-        <v>1900</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="401" spans="1:12">
       <c r="A401" t="s">
-        <v>1901</v>
+        <v>1882</v>
       </c>
       <c r="B401" t="s">
-        <v>1902</v>
+        <v>1883</v>
       </c>
       <c r="D401" t="s">
-        <v>1949</v>
+        <v>2300</v>
       </c>
       <c r="E401" t="s">
-        <v>1903</v>
+        <v>1884</v>
       </c>
       <c r="F401" t="s">
-        <v>1904</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="402" spans="1:12">
       <c r="A402" t="s">
-        <v>1911</v>
+        <v>1892</v>
       </c>
       <c r="B402" t="s">
-        <v>1906</v>
+        <v>1887</v>
       </c>
       <c r="D402" t="s">
-        <v>1951</v>
+        <v>1893</v>
       </c>
       <c r="E402" t="s">
-        <v>1912</v>
+        <v>1893</v>
       </c>
       <c r="F402" t="s">
-        <v>1913</v>
+        <v>1894</v>
       </c>
       <c r="J402" t="s">
-        <v>2245</v>
+        <v>2198</v>
       </c>
       <c r="K402" t="s">
-        <v>1914</v>
+        <v>1895</v>
       </c>
       <c r="L402" t="s">
-        <v>1915</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="403" spans="1:12">
       <c r="A403" t="s">
-        <v>1916</v>
+        <v>1897</v>
       </c>
       <c r="B403" t="s">
-        <v>1906</v>
+        <v>1887</v>
       </c>
       <c r="D403" t="s">
-        <v>1952</v>
+        <v>1898</v>
       </c>
       <c r="E403" t="s">
-        <v>1917</v>
+        <v>1898</v>
       </c>
       <c r="F403" t="s">
-        <v>1918</v>
+        <v>1899</v>
       </c>
       <c r="J403" t="s">
-        <v>2188</v>
+        <v>2141</v>
       </c>
       <c r="K403" t="s">
-        <v>1919</v>
+        <v>1900</v>
       </c>
       <c r="L403" t="s">
-        <v>1920</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="404" spans="1:12">
       <c r="A404" t="s">
-        <v>1921</v>
+        <v>1902</v>
       </c>
       <c r="B404" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E404" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F404" t="s">
+        <v>1904</v>
+      </c>
+      <c r="J404" t="s">
+        <v>2202</v>
+      </c>
+      <c r="K404" t="s">
+        <v>1905</v>
+      </c>
+      <c r="L404" t="s">
         <v>1906</v>
-      </c>
-      <c r="D404" t="s">
-        <v>1953</v>
-      </c>
-      <c r="E404" t="s">
-        <v>1922</v>
-      </c>
-      <c r="F404" t="s">
-        <v>1923</v>
-      </c>
-      <c r="J404" t="s">
-        <v>2249</v>
-      </c>
-      <c r="K404" t="s">
-        <v>1924</v>
-      </c>
-      <c r="L404" t="s">
-        <v>1925</v>
       </c>
     </row>
     <row r="405" spans="1:12">
       <c r="A405" t="s">
-        <v>1905</v>
+        <v>1886</v>
       </c>
       <c r="B405" t="s">
-        <v>1906</v>
+        <v>1887</v>
       </c>
       <c r="D405" t="s">
-        <v>1950</v>
+        <v>1888</v>
       </c>
       <c r="E405" t="s">
-        <v>1907</v>
+        <v>1888</v>
       </c>
       <c r="F405" t="s">
-        <v>1908</v>
+        <v>1889</v>
       </c>
       <c r="J405" t="s">
-        <v>2250</v>
+        <v>2203</v>
       </c>
       <c r="K405" t="s">
-        <v>1909</v>
+        <v>1890</v>
       </c>
       <c r="L405" t="s">
-        <v>1910</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -15970,762 +15940,762 @@
         <v>1784</v>
       </c>
       <c r="B406" t="s">
-        <v>1954</v>
+        <v>1907</v>
       </c>
       <c r="D406" t="s">
-        <v>2293</v>
+        <v>2246</v>
       </c>
       <c r="E406" t="s">
-        <v>1955</v>
+        <v>1908</v>
       </c>
       <c r="F406" t="s">
-        <v>1956</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="407" spans="1:12">
       <c r="A407" t="s">
-        <v>1957</v>
+        <v>1910</v>
       </c>
       <c r="B407" t="s">
-        <v>1954</v>
+        <v>1907</v>
       </c>
       <c r="D407" t="s">
-        <v>2294</v>
+        <v>2247</v>
       </c>
       <c r="E407" t="s">
-        <v>1958</v>
+        <v>1911</v>
       </c>
       <c r="F407" t="s">
-        <v>1959</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="408" spans="1:12">
       <c r="A408" t="s">
-        <v>1960</v>
+        <v>1913</v>
       </c>
       <c r="B408" t="s">
-        <v>1961</v>
+        <v>1914</v>
       </c>
       <c r="D408" t="s">
-        <v>2295</v>
+        <v>2248</v>
       </c>
       <c r="E408" t="s">
-        <v>1963</v>
+        <v>1916</v>
       </c>
       <c r="F408" t="s">
-        <v>1962</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="409" spans="1:12">
       <c r="A409" t="s">
-        <v>1964</v>
+        <v>1917</v>
       </c>
       <c r="B409" t="s">
-        <v>1965</v>
+        <v>1918</v>
       </c>
       <c r="D409" t="s">
-        <v>2296</v>
+        <v>2249</v>
       </c>
       <c r="E409" t="s">
-        <v>1964</v>
+        <v>1917</v>
       </c>
       <c r="F409" t="s">
-        <v>1966</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="410" spans="1:12">
       <c r="A410" t="s">
-        <v>1967</v>
+        <v>1920</v>
       </c>
       <c r="B410" t="s">
-        <v>1968</v>
+        <v>1921</v>
       </c>
       <c r="D410" t="s">
-        <v>2297</v>
+        <v>2250</v>
       </c>
       <c r="E410" t="s">
-        <v>1969</v>
+        <v>1922</v>
       </c>
       <c r="F410" t="s">
-        <v>1970</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="411" spans="1:12">
       <c r="A411" t="s">
-        <v>1971</v>
+        <v>1924</v>
       </c>
       <c r="B411" t="s">
-        <v>1972</v>
+        <v>1925</v>
       </c>
       <c r="D411" t="s">
-        <v>2298</v>
+        <v>2251</v>
       </c>
       <c r="E411" t="s">
-        <v>1973</v>
+        <v>1926</v>
       </c>
       <c r="F411" t="s">
-        <v>1974</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="412" spans="1:12">
       <c r="A412" t="s">
-        <v>1975</v>
+        <v>1928</v>
       </c>
       <c r="B412" t="s">
-        <v>1976</v>
+        <v>1929</v>
       </c>
       <c r="D412" t="s">
-        <v>1977</v>
+        <v>1930</v>
       </c>
       <c r="E412" t="s">
-        <v>1977</v>
+        <v>1930</v>
       </c>
       <c r="F412" t="s">
-        <v>1978</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="413" spans="1:12">
       <c r="A413" t="s">
-        <v>1979</v>
+        <v>1932</v>
       </c>
       <c r="B413" t="s">
-        <v>1980</v>
+        <v>1933</v>
       </c>
       <c r="D413" t="s">
-        <v>2299</v>
+        <v>2252</v>
       </c>
       <c r="E413" t="s">
-        <v>1981</v>
+        <v>1934</v>
       </c>
       <c r="F413" t="s">
-        <v>1982</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="414" spans="1:12">
       <c r="A414" t="s">
-        <v>1983</v>
+        <v>1936</v>
       </c>
       <c r="B414" t="s">
-        <v>1980</v>
+        <v>1933</v>
       </c>
       <c r="D414" t="s">
-        <v>2300</v>
+        <v>2253</v>
       </c>
       <c r="E414" t="s">
-        <v>1984</v>
+        <v>1937</v>
       </c>
       <c r="F414" t="s">
-        <v>1985</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="415" spans="1:12">
       <c r="A415" t="s">
-        <v>1986</v>
+        <v>1939</v>
       </c>
       <c r="B415" t="s">
-        <v>1987</v>
+        <v>1940</v>
       </c>
       <c r="D415" t="s">
-        <v>2301</v>
+        <v>2254</v>
       </c>
       <c r="E415" t="s">
-        <v>1988</v>
+        <v>1941</v>
       </c>
       <c r="F415" t="s">
-        <v>1989</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="416" spans="1:12">
       <c r="A416" t="s">
-        <v>1990</v>
+        <v>1943</v>
       </c>
       <c r="B416" t="s">
-        <v>1987</v>
+        <v>1940</v>
       </c>
       <c r="D416" t="s">
-        <v>1991</v>
+        <v>1944</v>
       </c>
       <c r="E416" t="s">
-        <v>1991</v>
+        <v>1944</v>
       </c>
       <c r="F416" t="s">
-        <v>1992</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="417" spans="1:12">
       <c r="A417" t="s">
-        <v>1993</v>
+        <v>1946</v>
       </c>
       <c r="B417" t="s">
-        <v>1994</v>
+        <v>1947</v>
       </c>
       <c r="D417" t="s">
-        <v>2302</v>
+        <v>2255</v>
       </c>
       <c r="E417" t="s">
-        <v>1995</v>
+        <v>1948</v>
       </c>
       <c r="F417" t="s">
-        <v>1996</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="418" spans="1:12">
       <c r="A418" t="s">
-        <v>1997</v>
+        <v>1950</v>
       </c>
       <c r="B418" t="s">
-        <v>1998</v>
+        <v>1951</v>
       </c>
       <c r="D418" t="s">
-        <v>2303</v>
+        <v>2256</v>
       </c>
       <c r="E418" t="s">
-        <v>1999</v>
+        <v>1952</v>
       </c>
       <c r="F418" t="s">
-        <v>2000</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="419" spans="1:12">
       <c r="A419" t="s">
-        <v>2001</v>
+        <v>1954</v>
       </c>
       <c r="B419" t="s">
-        <v>2002</v>
+        <v>1955</v>
       </c>
       <c r="D419" t="s">
         <v>1518</v>
       </c>
       <c r="E419" t="s">
-        <v>2001</v>
+        <v>1954</v>
       </c>
       <c r="F419" t="s">
-        <v>2003</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="420" spans="1:12">
       <c r="A420" t="s">
-        <v>2004</v>
+        <v>1957</v>
       </c>
       <c r="B420" t="s">
-        <v>2002</v>
+        <v>1955</v>
       </c>
       <c r="D420" t="s">
-        <v>2304</v>
+        <v>2257</v>
       </c>
       <c r="E420" t="s">
-        <v>2005</v>
+        <v>1958</v>
       </c>
       <c r="F420" t="s">
-        <v>2006</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="421" spans="1:12">
       <c r="A421" t="s">
-        <v>2007</v>
+        <v>1960</v>
       </c>
       <c r="B421" t="s">
-        <v>2008</v>
+        <v>1961</v>
       </c>
       <c r="D421" t="s">
-        <v>2305</v>
+        <v>2258</v>
       </c>
       <c r="E421" t="s">
-        <v>2009</v>
+        <v>1962</v>
       </c>
       <c r="F421" t="s">
-        <v>2010</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="422" spans="1:12">
       <c r="A422" t="s">
-        <v>2011</v>
+        <v>1964</v>
       </c>
       <c r="B422" t="s">
-        <v>2012</v>
+        <v>1965</v>
       </c>
       <c r="D422" t="s">
-        <v>2306</v>
+        <v>2259</v>
       </c>
       <c r="E422" t="s">
-        <v>2013</v>
+        <v>1966</v>
       </c>
       <c r="F422" t="s">
-        <v>2014</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="423" spans="1:12">
       <c r="A423" t="s">
-        <v>1916</v>
+        <v>1897</v>
       </c>
       <c r="B423" t="s">
-        <v>2015</v>
+        <v>1968</v>
       </c>
       <c r="D423" t="s">
-        <v>1917</v>
+        <v>1898</v>
       </c>
       <c r="E423" t="s">
-        <v>1917</v>
+        <v>1898</v>
       </c>
       <c r="F423" t="s">
-        <v>1918</v>
+        <v>1899</v>
       </c>
       <c r="J423" t="s">
-        <v>2188</v>
+        <v>2141</v>
       </c>
       <c r="K423" t="s">
-        <v>1919</v>
+        <v>1900</v>
       </c>
       <c r="L423" t="s">
-        <v>2016</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="424" spans="1:12">
       <c r="A424" t="s">
-        <v>1921</v>
+        <v>1902</v>
       </c>
       <c r="B424" t="s">
-        <v>2015</v>
+        <v>1968</v>
       </c>
       <c r="D424" t="s">
-        <v>1922</v>
+        <v>1903</v>
       </c>
       <c r="E424" t="s">
-        <v>1922</v>
+        <v>1903</v>
       </c>
       <c r="F424" t="s">
-        <v>1923</v>
+        <v>1904</v>
       </c>
       <c r="J424" t="s">
-        <v>2189</v>
+        <v>2142</v>
       </c>
       <c r="K424" t="s">
-        <v>1924</v>
+        <v>1905</v>
       </c>
       <c r="L424" t="s">
-        <v>2017</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="425" spans="1:12">
       <c r="A425" t="s">
-        <v>2018</v>
+        <v>1971</v>
       </c>
       <c r="B425" t="s">
-        <v>2019</v>
+        <v>1972</v>
       </c>
       <c r="D425" t="s">
-        <v>2307</v>
+        <v>2260</v>
       </c>
       <c r="E425" t="s">
-        <v>2021</v>
+        <v>1974</v>
       </c>
       <c r="F425" t="s">
-        <v>2020</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="426" spans="1:12">
       <c r="A426" t="s">
-        <v>2022</v>
+        <v>1975</v>
       </c>
       <c r="B426" t="s">
-        <v>2019</v>
+        <v>1972</v>
       </c>
       <c r="D426" t="s">
-        <v>2308</v>
+        <v>2261</v>
       </c>
       <c r="E426" t="s">
-        <v>2023</v>
+        <v>1976</v>
       </c>
       <c r="F426" t="s">
-        <v>2024</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="427" spans="1:12">
       <c r="A427" t="s">
-        <v>2025</v>
+        <v>1978</v>
       </c>
       <c r="B427" t="s">
-        <v>2019</v>
+        <v>1972</v>
       </c>
       <c r="D427" t="s">
-        <v>2309</v>
+        <v>2262</v>
       </c>
       <c r="E427" t="s">
-        <v>2026</v>
+        <v>1979</v>
       </c>
       <c r="F427" t="s">
-        <v>2027</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="428" spans="1:12">
       <c r="A428" t="s">
-        <v>2037</v>
+        <v>1990</v>
       </c>
       <c r="B428" t="s">
-        <v>2029</v>
+        <v>1982</v>
       </c>
       <c r="D428" t="s">
-        <v>2038</v>
+        <v>1991</v>
       </c>
       <c r="E428" t="s">
-        <v>2038</v>
+        <v>1991</v>
       </c>
       <c r="F428" t="s">
-        <v>2039</v>
+        <v>1992</v>
       </c>
       <c r="J428" t="s">
-        <v>2191</v>
+        <v>2144</v>
       </c>
       <c r="K428" t="s">
-        <v>2040</v>
+        <v>1993</v>
       </c>
       <c r="L428" t="s">
-        <v>2041</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="429" spans="1:12">
       <c r="A429" t="s">
-        <v>2028</v>
+        <v>1981</v>
       </c>
       <c r="B429" t="s">
-        <v>2029</v>
+        <v>1982</v>
       </c>
       <c r="D429" t="s">
-        <v>2030</v>
+        <v>1983</v>
       </c>
       <c r="E429" t="s">
-        <v>2030</v>
+        <v>1983</v>
       </c>
       <c r="F429" t="s">
-        <v>2031</v>
+        <v>1984</v>
       </c>
       <c r="J429" t="s">
-        <v>2190</v>
+        <v>2143</v>
       </c>
       <c r="K429" t="s">
-        <v>2032</v>
+        <v>1985</v>
       </c>
       <c r="L429" t="s">
-        <v>2033</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="430" spans="1:12">
       <c r="A430" t="s">
-        <v>2034</v>
+        <v>1987</v>
       </c>
       <c r="B430" t="s">
-        <v>2029</v>
+        <v>1982</v>
       </c>
       <c r="D430" t="s">
-        <v>2035</v>
+        <v>1988</v>
       </c>
       <c r="E430" t="s">
-        <v>2035</v>
+        <v>1988</v>
       </c>
       <c r="F430" t="s">
-        <v>2035</v>
+        <v>1988</v>
       </c>
       <c r="J430" t="s">
-        <v>2036</v>
+        <v>1989</v>
       </c>
       <c r="K430" t="s">
-        <v>2036</v>
+        <v>1989</v>
       </c>
       <c r="L430" t="s">
-        <v>2036</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="431" spans="1:12">
       <c r="A431" t="s">
-        <v>2048</v>
+        <v>2001</v>
       </c>
       <c r="B431" t="s">
-        <v>2043</v>
+        <v>1996</v>
       </c>
       <c r="D431" t="s">
-        <v>2049</v>
+        <v>2002</v>
       </c>
       <c r="E431" t="s">
-        <v>2049</v>
+        <v>2002</v>
       </c>
       <c r="F431" t="s">
-        <v>2050</v>
+        <v>2003</v>
       </c>
       <c r="J431" t="s">
-        <v>2193</v>
+        <v>2146</v>
       </c>
       <c r="K431" t="s">
-        <v>2051</v>
+        <v>2004</v>
       </c>
       <c r="L431" t="s">
-        <v>2052</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="432" spans="1:12">
       <c r="A432" t="s">
-        <v>2042</v>
+        <v>1995</v>
       </c>
       <c r="B432" t="s">
-        <v>2043</v>
+        <v>1996</v>
       </c>
       <c r="D432" t="s">
-        <v>2044</v>
+        <v>1997</v>
       </c>
       <c r="E432" t="s">
-        <v>2044</v>
+        <v>1997</v>
       </c>
       <c r="F432" t="s">
-        <v>2045</v>
+        <v>1998</v>
       </c>
       <c r="J432" t="s">
-        <v>2192</v>
+        <v>2145</v>
       </c>
       <c r="K432" t="s">
-        <v>2046</v>
+        <v>1999</v>
       </c>
       <c r="L432" t="s">
-        <v>2047</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="433" spans="1:12">
       <c r="A433" t="s">
-        <v>2053</v>
+        <v>2006</v>
       </c>
       <c r="B433" t="s">
-        <v>2054</v>
+        <v>2007</v>
       </c>
       <c r="D433" t="s">
-        <v>2288</v>
+        <v>2241</v>
       </c>
       <c r="E433" t="s">
-        <v>2055</v>
+        <v>2008</v>
       </c>
       <c r="F433" t="s">
-        <v>2056</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="434" spans="1:12">
       <c r="A434" t="s">
-        <v>1863</v>
+        <v>1844</v>
       </c>
       <c r="B434" t="s">
-        <v>2057</v>
+        <v>2010</v>
       </c>
       <c r="D434" t="s">
-        <v>2058</v>
+        <v>2011</v>
       </c>
       <c r="E434" t="s">
-        <v>2058</v>
+        <v>2011</v>
       </c>
       <c r="F434" t="s">
-        <v>2059</v>
+        <v>2012</v>
       </c>
       <c r="J434" t="s">
-        <v>2194</v>
+        <v>2147</v>
       </c>
       <c r="K434" t="s">
-        <v>2060</v>
+        <v>2013</v>
       </c>
       <c r="L434" t="s">
-        <v>2061</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="435" spans="1:12">
       <c r="A435" t="s">
-        <v>2066</v>
+        <v>2019</v>
       </c>
       <c r="B435" t="s">
-        <v>2063</v>
+        <v>2016</v>
       </c>
       <c r="D435" t="s">
-        <v>2067</v>
+        <v>2020</v>
       </c>
       <c r="E435" t="s">
-        <v>2067</v>
+        <v>2020</v>
       </c>
       <c r="F435" t="s">
-        <v>2068</v>
+        <v>2021</v>
       </c>
       <c r="J435" t="s">
-        <v>2195</v>
+        <v>2148</v>
       </c>
       <c r="K435" t="s">
-        <v>2070</v>
+        <v>2023</v>
       </c>
       <c r="L435" t="s">
-        <v>2069</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="436" spans="1:12">
       <c r="A436" t="s">
-        <v>2071</v>
+        <v>2024</v>
       </c>
       <c r="B436" t="s">
-        <v>2063</v>
+        <v>2016</v>
       </c>
       <c r="D436" t="s">
-        <v>2072</v>
+        <v>2025</v>
       </c>
       <c r="E436" t="s">
-        <v>2072</v>
+        <v>2025</v>
       </c>
       <c r="F436" t="s">
-        <v>2073</v>
+        <v>2026</v>
       </c>
       <c r="J436" t="s">
-        <v>2195</v>
+        <v>2148</v>
       </c>
       <c r="K436" t="s">
-        <v>2070</v>
+        <v>2023</v>
       </c>
       <c r="L436" t="s">
-        <v>2069</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="437" spans="1:12">
       <c r="A437" t="s">
-        <v>2062</v>
+        <v>2015</v>
       </c>
       <c r="B437" t="s">
-        <v>2063</v>
+        <v>2016</v>
       </c>
       <c r="D437" t="s">
-        <v>2289</v>
+        <v>2242</v>
       </c>
       <c r="E437" t="s">
-        <v>2064</v>
+        <v>2017</v>
       </c>
       <c r="F437" t="s">
-        <v>2065</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="438" spans="1:12">
       <c r="A438" t="s">
-        <v>2074</v>
+        <v>2027</v>
       </c>
       <c r="B438" t="s">
-        <v>2075</v>
+        <v>2028</v>
       </c>
       <c r="D438" t="s">
-        <v>2076</v>
+        <v>2029</v>
       </c>
       <c r="E438" t="s">
-        <v>2076</v>
+        <v>2029</v>
       </c>
       <c r="F438" t="s">
-        <v>2077</v>
+        <v>2030</v>
       </c>
       <c r="J438" t="s">
-        <v>2196</v>
+        <v>2149</v>
       </c>
       <c r="K438" t="s">
-        <v>2078</v>
+        <v>2031</v>
       </c>
       <c r="L438" t="s">
-        <v>2079</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="439" spans="1:12">
       <c r="A439" t="s">
-        <v>2080</v>
+        <v>2033</v>
       </c>
       <c r="B439" t="s">
-        <v>2081</v>
+        <v>2034</v>
       </c>
       <c r="D439" t="s">
-        <v>2290</v>
+        <v>2243</v>
       </c>
       <c r="E439" t="s">
-        <v>2082</v>
+        <v>2035</v>
       </c>
       <c r="F439" t="s">
-        <v>2083</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="440" spans="1:12">
       <c r="A440" t="s">
-        <v>2084</v>
+        <v>2037</v>
       </c>
       <c r="B440" t="s">
-        <v>2085</v>
+        <v>2038</v>
       </c>
       <c r="D440" t="s">
-        <v>2291</v>
+        <v>2244</v>
       </c>
       <c r="E440" t="s">
-        <v>2086</v>
+        <v>2039</v>
       </c>
       <c r="F440" t="s">
-        <v>2087</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="441" spans="1:12">
       <c r="A441" t="s">
-        <v>2088</v>
+        <v>2041</v>
       </c>
       <c r="B441" t="s">
-        <v>2089</v>
+        <v>2042</v>
       </c>
       <c r="D441" t="s">
-        <v>2292</v>
+        <v>2245</v>
       </c>
       <c r="E441" t="s">
-        <v>2090</v>
+        <v>2043</v>
       </c>
       <c r="F441" t="s">
-        <v>2091</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="442" spans="1:12">
       <c r="A442" t="s">
-        <v>2092</v>
+        <v>2045</v>
       </c>
       <c r="B442" t="s">
-        <v>2093</v>
+        <v>2046</v>
       </c>
       <c r="D442" t="s">
-        <v>2094</v>
+        <v>2047</v>
       </c>
       <c r="E442" t="s">
-        <v>2094</v>
+        <v>2047</v>
       </c>
       <c r="F442" t="s">
-        <v>2095</v>
+        <v>2048</v>
       </c>
       <c r="J442" t="s">
-        <v>2197</v>
+        <v>2150</v>
       </c>
       <c r="K442" t="s">
-        <v>2096</v>
+        <v>2049</v>
       </c>
       <c r="L442" t="s">
-        <v>2097</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="443" spans="1:12">
       <c r="A443" t="s">
-        <v>2098</v>
+        <v>2051</v>
       </c>
       <c r="B443" t="s">
-        <v>2093</v>
+        <v>2046</v>
       </c>
       <c r="D443" t="s">
-        <v>2099</v>
+        <v>2052</v>
       </c>
       <c r="E443" t="s">
-        <v>2099</v>
+        <v>2052</v>
       </c>
       <c r="F443" t="s">
-        <v>2100</v>
+        <v>2053</v>
       </c>
       <c r="J443" t="s">
-        <v>2198</v>
+        <v>2151</v>
       </c>
       <c r="K443" t="s">
-        <v>2101</v>
+        <v>2054</v>
       </c>
       <c r="L443" t="s">
-        <v>2102</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -16771,7 +16741,7 @@
         <v>782</v>
       </c>
       <c r="J445" t="s">
-        <v>2199</v>
+        <v>2152</v>
       </c>
       <c r="K445" t="s">
         <v>783</v>
@@ -16782,147 +16752,147 @@
     </row>
     <row r="446" spans="1:12">
       <c r="A446" t="s">
-        <v>2103</v>
+        <v>2056</v>
       </c>
       <c r="B446" t="s">
-        <v>2104</v>
+        <v>2057</v>
       </c>
       <c r="D446" t="s">
-        <v>2281</v>
+        <v>2234</v>
       </c>
       <c r="E446" t="s">
-        <v>2105</v>
+        <v>2058</v>
       </c>
       <c r="F446" t="s">
-        <v>2106</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="447" spans="1:12">
       <c r="A447" t="s">
-        <v>2107</v>
+        <v>2060</v>
       </c>
       <c r="B447" t="s">
-        <v>2108</v>
+        <v>2061</v>
       </c>
       <c r="D447" t="s">
-        <v>2282</v>
+        <v>2235</v>
       </c>
       <c r="E447" t="s">
-        <v>2107</v>
+        <v>2060</v>
       </c>
       <c r="F447" t="s">
-        <v>2109</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="448" spans="1:12">
       <c r="A448" t="s">
-        <v>2110</v>
+        <v>2063</v>
       </c>
       <c r="B448" t="s">
-        <v>2108</v>
+        <v>2061</v>
       </c>
       <c r="D448" t="s">
-        <v>2111</v>
+        <v>2064</v>
       </c>
       <c r="E448" t="s">
-        <v>2111</v>
+        <v>2064</v>
       </c>
       <c r="F448" t="s">
-        <v>2111</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="449" spans="1:12">
       <c r="A449" t="s">
-        <v>2112</v>
+        <v>2065</v>
       </c>
       <c r="B449" t="s">
-        <v>2113</v>
+        <v>2066</v>
       </c>
       <c r="D449" t="s">
-        <v>2283</v>
+        <v>2236</v>
       </c>
       <c r="E449" t="s">
-        <v>2114</v>
+        <v>2067</v>
       </c>
       <c r="F449" t="s">
-        <v>2115</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="450" spans="1:12">
       <c r="A450" t="s">
-        <v>2116</v>
+        <v>2069</v>
       </c>
       <c r="B450" t="s">
-        <v>2117</v>
+        <v>2070</v>
       </c>
       <c r="D450" t="s">
-        <v>2284</v>
+        <v>2237</v>
       </c>
       <c r="E450" t="s">
-        <v>2118</v>
+        <v>2071</v>
       </c>
       <c r="F450" t="s">
-        <v>2119</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="451" spans="1:12">
       <c r="A451" t="s">
-        <v>2120</v>
+        <v>2073</v>
       </c>
       <c r="B451" t="s">
-        <v>2117</v>
+        <v>2070</v>
       </c>
       <c r="D451" t="s">
-        <v>2121</v>
+        <v>2074</v>
       </c>
       <c r="E451" t="s">
-        <v>2121</v>
+        <v>2074</v>
       </c>
       <c r="F451" t="s">
-        <v>2122</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="452" spans="1:12">
       <c r="A452" t="s">
-        <v>2123</v>
+        <v>2076</v>
       </c>
       <c r="B452" t="s">
-        <v>2124</v>
+        <v>2077</v>
       </c>
       <c r="D452" t="s">
-        <v>2285</v>
+        <v>2238</v>
       </c>
       <c r="E452" t="s">
-        <v>2123</v>
+        <v>2076</v>
       </c>
       <c r="F452" t="s">
-        <v>2125</v>
+        <v>2078</v>
       </c>
       <c r="J452" t="s">
-        <v>2200</v>
+        <v>2153</v>
       </c>
       <c r="K452" t="s">
-        <v>2126</v>
+        <v>2079</v>
       </c>
       <c r="L452" t="s">
-        <v>2127</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="453" spans="1:12">
       <c r="A453" t="s">
-        <v>2135</v>
+        <v>2088</v>
       </c>
       <c r="B453" t="s">
-        <v>2129</v>
+        <v>2082</v>
       </c>
       <c r="D453" t="s">
-        <v>2187</v>
+        <v>2140</v>
       </c>
       <c r="E453" t="s">
-        <v>2136</v>
+        <v>2089</v>
       </c>
       <c r="F453" t="s">
-        <v>2137</v>
+        <v>2090</v>
       </c>
       <c r="J453" t="s">
         <v>1444</v>
@@ -16936,44 +16906,44 @@
     </row>
     <row r="454" spans="1:12">
       <c r="A454" t="s">
-        <v>2128</v>
+        <v>2081</v>
       </c>
       <c r="B454" t="s">
-        <v>2129</v>
+        <v>2082</v>
       </c>
       <c r="D454" t="s">
-        <v>2286</v>
+        <v>2239</v>
       </c>
       <c r="E454" t="s">
-        <v>2130</v>
+        <v>2083</v>
       </c>
       <c r="F454" t="s">
-        <v>2131</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="455" spans="1:12">
       <c r="A455" t="s">
-        <v>2132</v>
+        <v>2085</v>
       </c>
       <c r="B455" t="s">
-        <v>2129</v>
+        <v>2082</v>
       </c>
       <c r="D455" t="s">
-        <v>2287</v>
+        <v>2240</v>
       </c>
       <c r="E455" t="s">
-        <v>2133</v>
+        <v>2086</v>
       </c>
       <c r="F455" t="s">
-        <v>2134</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="456" spans="1:12">
       <c r="A456" t="s">
-        <v>2138</v>
+        <v>2091</v>
       </c>
       <c r="B456" t="s">
-        <v>2139</v>
+        <v>2092</v>
       </c>
       <c r="D456" t="s">
         <v>1252</v>
@@ -16985,13 +16955,13 @@
         <v>1253</v>
       </c>
       <c r="J456" t="s">
-        <v>2201</v>
+        <v>2154</v>
       </c>
       <c r="K456" t="s">
-        <v>2140</v>
+        <v>2093</v>
       </c>
       <c r="L456" t="s">
-        <v>2141</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -16999,7 +16969,7 @@
         <v>887</v>
       </c>
       <c r="B457" t="s">
-        <v>2142</v>
+        <v>2095</v>
       </c>
       <c r="D457" t="s">
         <v>14</v>
@@ -17011,13 +16981,13 @@
         <v>14</v>
       </c>
       <c r="J457" t="s">
-        <v>2204</v>
+        <v>2157</v>
       </c>
       <c r="K457" t="s">
-        <v>2147</v>
+        <v>2100</v>
       </c>
       <c r="L457" t="s">
-        <v>2148</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -17025,7 +16995,7 @@
         <v>838</v>
       </c>
       <c r="B458" t="s">
-        <v>2142</v>
+        <v>2095</v>
       </c>
       <c r="D458" t="s">
         <v>14</v>
@@ -17037,13 +17007,13 @@
         <v>14</v>
       </c>
       <c r="J458" t="s">
-        <v>2202</v>
+        <v>2155</v>
       </c>
       <c r="K458" t="s">
-        <v>2143</v>
+        <v>2096</v>
       </c>
       <c r="L458" t="s">
-        <v>2144</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -17051,7 +17021,7 @@
         <v>886</v>
       </c>
       <c r="B459" t="s">
-        <v>2142</v>
+        <v>2095</v>
       </c>
       <c r="D459" t="s">
         <v>14</v>
@@ -17063,21 +17033,21 @@
         <v>14</v>
       </c>
       <c r="J459" t="s">
-        <v>2203</v>
+        <v>2156</v>
       </c>
       <c r="K459" t="s">
-        <v>2145</v>
+        <v>2098</v>
       </c>
       <c r="L459" t="s">
-        <v>2146</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="460" spans="1:12">
       <c r="A460" t="s">
-        <v>2149</v>
+        <v>2102</v>
       </c>
       <c r="B460" t="s">
-        <v>2150</v>
+        <v>2103</v>
       </c>
       <c r="D460" t="s">
         <v>1252</v>
@@ -17089,30 +17059,30 @@
         <v>1253</v>
       </c>
       <c r="J460" t="s">
-        <v>2205</v>
+        <v>2158</v>
       </c>
       <c r="K460" t="s">
-        <v>2151</v>
+        <v>2104</v>
       </c>
       <c r="L460" t="s">
-        <v>2152</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="461" spans="1:12">
       <c r="A461" t="s">
-        <v>2153</v>
+        <v>2106</v>
       </c>
       <c r="B461" t="s">
-        <v>2150</v>
+        <v>2103</v>
       </c>
       <c r="D461" t="s">
-        <v>2278</v>
+        <v>2231</v>
       </c>
       <c r="E461" t="s">
-        <v>2155</v>
+        <v>2108</v>
       </c>
       <c r="F461" t="s">
-        <v>2154</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -17120,7 +17090,7 @@
         <v>207</v>
       </c>
       <c r="B462" t="s">
-        <v>2156</v>
+        <v>2109</v>
       </c>
       <c r="D462" t="s">
         <v>14</v>
@@ -17132,7 +17102,7 @@
         <v>14</v>
       </c>
       <c r="J462" t="s">
-        <v>2206</v>
+        <v>2159</v>
       </c>
       <c r="K462" t="s">
         <v>208</v>
@@ -17143,10 +17113,10 @@
     </row>
     <row r="463" spans="1:12">
       <c r="A463" t="s">
-        <v>2157</v>
+        <v>2110</v>
       </c>
       <c r="B463" t="s">
-        <v>2158</v>
+        <v>2111</v>
       </c>
       <c r="D463" t="s">
         <v>1364</v>
@@ -17160,241 +17130,241 @@
     </row>
     <row r="464" spans="1:12">
       <c r="A464" t="s">
-        <v>2159</v>
+        <v>2112</v>
       </c>
       <c r="B464" t="s">
-        <v>2160</v>
+        <v>2113</v>
       </c>
       <c r="D464" t="s">
-        <v>2161</v>
+        <v>2114</v>
       </c>
       <c r="E464" t="s">
-        <v>2161</v>
+        <v>2114</v>
       </c>
       <c r="F464" t="s">
-        <v>2161</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="465" spans="1:12">
       <c r="A465" t="s">
-        <v>2162</v>
+        <v>2115</v>
       </c>
       <c r="B465" t="s">
-        <v>2163</v>
+        <v>2116</v>
       </c>
       <c r="D465" t="s">
-        <v>2279</v>
+        <v>2232</v>
       </c>
       <c r="E465" t="s">
-        <v>2164</v>
+        <v>2117</v>
       </c>
       <c r="F465" t="s">
-        <v>2165</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="466" spans="1:12">
       <c r="A466" t="s">
-        <v>2166</v>
+        <v>2119</v>
       </c>
       <c r="B466" t="s">
-        <v>2167</v>
+        <v>2120</v>
       </c>
       <c r="D466" t="s">
-        <v>2280</v>
+        <v>2233</v>
       </c>
       <c r="E466" t="s">
-        <v>2166</v>
+        <v>2119</v>
       </c>
       <c r="F466" t="s">
-        <v>2168</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="467" spans="1:12">
       <c r="A467" t="s">
-        <v>2169</v>
+        <v>2122</v>
       </c>
       <c r="B467" t="s">
-        <v>2170</v>
+        <v>2123</v>
       </c>
       <c r="D467" t="s">
-        <v>2171</v>
+        <v>2124</v>
       </c>
       <c r="E467" t="s">
-        <v>2171</v>
+        <v>2124</v>
       </c>
       <c r="F467" t="s">
-        <v>2172</v>
+        <v>2125</v>
       </c>
       <c r="J467" t="s">
         <v>1603</v>
       </c>
       <c r="K467" t="s">
-        <v>2173</v>
+        <v>2126</v>
       </c>
       <c r="L467" t="s">
-        <v>2174</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="468" spans="1:12">
       <c r="A468" t="s">
-        <v>2175</v>
+        <v>2128</v>
       </c>
       <c r="B468" t="s">
-        <v>2176</v>
+        <v>2129</v>
       </c>
       <c r="D468" t="s">
-        <v>2177</v>
+        <v>2130</v>
       </c>
       <c r="E468" t="s">
-        <v>2177</v>
+        <v>2130</v>
       </c>
       <c r="F468" t="s">
-        <v>2178</v>
+        <v>2131</v>
       </c>
       <c r="J468" t="s">
-        <v>2207</v>
+        <v>2160</v>
       </c>
       <c r="K468" t="s">
-        <v>2179</v>
+        <v>2132</v>
       </c>
       <c r="L468" t="s">
-        <v>2180</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="469" spans="1:12">
       <c r="A469" t="s">
-        <v>2181</v>
+        <v>2134</v>
       </c>
       <c r="B469" t="s">
-        <v>2182</v>
+        <v>2135</v>
       </c>
       <c r="D469" t="s">
-        <v>2183</v>
+        <v>2136</v>
       </c>
       <c r="E469" t="s">
-        <v>2183</v>
+        <v>2136</v>
       </c>
       <c r="F469" t="s">
-        <v>2184</v>
+        <v>2137</v>
       </c>
       <c r="J469" t="s">
-        <v>2208</v>
+        <v>2161</v>
       </c>
       <c r="K469" t="s">
-        <v>2185</v>
+        <v>2138</v>
       </c>
       <c r="L469" t="s">
-        <v>2186</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="470" spans="1:12">
       <c r="A470" s="2" t="s">
-        <v>2209</v>
+        <v>2162</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>2210</v>
+        <v>2163</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>2274</v>
+        <v>2227</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>2209</v>
+        <v>2162</v>
       </c>
       <c r="F470" t="s">
-        <v>2211</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="471" spans="1:12">
       <c r="A471" s="2" t="s">
-        <v>2212</v>
+        <v>2165</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>2210</v>
+        <v>2163</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>2275</v>
+        <v>2228</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>2213</v>
+        <v>2166</v>
       </c>
       <c r="F471" t="s">
-        <v>2214</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="472" spans="1:12">
       <c r="A472" s="2" t="s">
-        <v>2215</v>
+        <v>2168</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>2210</v>
+        <v>2163</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>2276</v>
+        <v>2229</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>2216</v>
+        <v>2169</v>
       </c>
       <c r="F472" t="s">
-        <v>2217</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="473" spans="1:12">
       <c r="A473" s="2" t="s">
-        <v>2218</v>
+        <v>2171</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>2210</v>
+        <v>2163</v>
       </c>
       <c r="D473" s="4" t="s">
         <v>1353</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>2219</v>
+        <v>2172</v>
       </c>
       <c r="F473" t="s">
-        <v>2220</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="474" spans="1:12">
       <c r="A474" s="2" t="s">
-        <v>2221</v>
+        <v>2174</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>2222</v>
+        <v>2175</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>2273</v>
+        <v>2226</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>2223</v>
+        <v>2176</v>
       </c>
       <c r="F474" t="s">
-        <v>2224</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="475" spans="1:12">
       <c r="A475" s="2" t="s">
-        <v>2225</v>
+        <v>2178</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>2222</v>
+        <v>2175</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>2277</v>
+        <v>2230</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>2226</v>
+        <v>2179</v>
       </c>
       <c r="F475" t="s">
-        <v>2227</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="476" spans="1:12">
       <c r="A476" s="2" t="s">
-        <v>2228</v>
+        <v>2181</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>2229</v>
+        <v>2182</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>14</v>
@@ -17406,7 +17376,7 @@
         <v>14</v>
       </c>
       <c r="J476" s="4" t="s">
-        <v>2241</v>
+        <v>2194</v>
       </c>
       <c r="K476" s="2" t="s">
         <v>86</v>
@@ -17417,10 +17387,10 @@
     </row>
     <row r="477" spans="1:12">
       <c r="A477" s="2" t="s">
-        <v>2230</v>
+        <v>2183</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>2229</v>
+        <v>2182</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>14</v>
@@ -17432,7 +17402,7 @@
         <v>14</v>
       </c>
       <c r="J477" s="4" t="s">
-        <v>2241</v>
+        <v>2194</v>
       </c>
       <c r="K477" s="2" t="s">
         <v>86</v>
@@ -17443,10 +17413,10 @@
     </row>
     <row r="478" spans="1:12">
       <c r="A478" s="2" t="s">
-        <v>2238</v>
+        <v>2191</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>2232</v>
+        <v>2185</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>14</v>
@@ -17458,66 +17428,66 @@
         <v>14</v>
       </c>
       <c r="J478" s="4" t="s">
-        <v>2242</v>
+        <v>2195</v>
       </c>
       <c r="K478" s="2" t="s">
-        <v>2239</v>
+        <v>2192</v>
       </c>
       <c r="L478" t="s">
-        <v>2240</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="479" spans="1:12">
       <c r="A479" s="2" t="s">
-        <v>2231</v>
+        <v>2184</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>2232</v>
+        <v>2185</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>2234</v>
+        <v>2187</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>2234</v>
+        <v>2187</v>
       </c>
       <c r="F479" s="2" t="s">
-        <v>2234</v>
+        <v>2187</v>
       </c>
       <c r="J479" s="3"/>
     </row>
     <row r="480" spans="1:12">
       <c r="A480" s="2" t="s">
-        <v>2235</v>
+        <v>2188</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>2232</v>
+        <v>2185</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>2236</v>
+        <v>2189</v>
       </c>
       <c r="E480" s="2" t="s">
-        <v>2236</v>
+        <v>2189</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>2236</v>
+        <v>2189</v>
       </c>
       <c r="J480" s="3"/>
     </row>
     <row r="481" spans="1:12">
       <c r="A481" s="2" t="s">
-        <v>2237</v>
+        <v>2190</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>2232</v>
+        <v>2185</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>2233</v>
+        <v>2186</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>2233</v>
+        <v>2186</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>2233</v>
+        <v>2186</v>
       </c>
       <c r="J481" s="3"/>
     </row>
@@ -17546,7 +17516,7 @@
         <v>1325</v>
       </c>
       <c r="D483" t="s">
-        <v>2272</v>
+        <v>2225</v>
       </c>
       <c r="E483" t="s">
         <v>1041</v>
@@ -18213,7 +18183,7 @@
         <v>1330</v>
       </c>
       <c r="D518" t="s">
-        <v>2271</v>
+        <v>2224</v>
       </c>
       <c r="E518" t="s">
         <v>1044</v>
@@ -18435,7 +18405,7 @@
         <v>1306</v>
       </c>
       <c r="D530" t="s">
-        <v>2271</v>
+        <v>2224</v>
       </c>
       <c r="E530" t="s">
         <v>1044</v>
@@ -18890,44 +18860,44 @@
     </row>
     <row r="555" spans="1:12">
       <c r="A555" t="s">
-        <v>2252</v>
+        <v>2205</v>
       </c>
       <c r="B555" t="s">
-        <v>2253</v>
+        <v>2206</v>
       </c>
       <c r="D555" t="s">
-        <v>2268</v>
+        <v>2221</v>
       </c>
       <c r="E555" t="s">
-        <v>2254</v>
+        <v>2207</v>
       </c>
       <c r="F555" t="s">
-        <v>2255</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="556" spans="1:12">
       <c r="A556" t="s">
-        <v>2256</v>
+        <v>2209</v>
       </c>
       <c r="B556" t="s">
-        <v>2253</v>
+        <v>2206</v>
       </c>
       <c r="D556" t="s">
-        <v>2269</v>
+        <v>2222</v>
       </c>
       <c r="E556" t="s">
-        <v>2256</v>
+        <v>2209</v>
       </c>
       <c r="F556" t="s">
-        <v>2257</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="557" spans="1:12">
       <c r="A557" t="s">
-        <v>2258</v>
+        <v>2211</v>
       </c>
       <c r="B557" t="s">
-        <v>2259</v>
+        <v>2212</v>
       </c>
       <c r="D557" t="s">
         <v>1252</v>
@@ -18939,7 +18909,7 @@
         <v>1253</v>
       </c>
       <c r="J557" t="s">
-        <v>2260</v>
+        <v>2213</v>
       </c>
       <c r="K557" t="s">
         <v>1254</v>
@@ -18950,36 +18920,36 @@
     </row>
     <row r="558" spans="1:12">
       <c r="A558" t="s">
-        <v>2261</v>
+        <v>2214</v>
       </c>
       <c r="B558" t="s">
-        <v>2262</v>
+        <v>2215</v>
       </c>
       <c r="D558" t="s">
-        <v>2270</v>
+        <v>2223</v>
       </c>
       <c r="E558" t="s">
-        <v>2261</v>
+        <v>2214</v>
       </c>
       <c r="F558" t="s">
-        <v>2263</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="559" spans="1:12">
       <c r="A559" t="s">
-        <v>2264</v>
+        <v>2217</v>
       </c>
       <c r="B559" t="s">
-        <v>2262</v>
+        <v>2215</v>
       </c>
       <c r="D559" t="s">
-        <v>2267</v>
+        <v>2220</v>
       </c>
       <c r="E559" t="s">
-        <v>2265</v>
+        <v>2218</v>
       </c>
       <c r="F559" t="s">
-        <v>2266</v>
+        <v>2219</v>
       </c>
     </row>
   </sheetData>
